--- a/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>SAWLF</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,168 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>296600</v>
+        <v>231800</v>
       </c>
       <c r="E8" s="3">
-        <v>310000</v>
+        <v>242800</v>
       </c>
       <c r="F8" s="3">
-        <v>263200</v>
+        <v>286300</v>
       </c>
       <c r="G8" s="3">
-        <v>266600</v>
+        <v>299300</v>
       </c>
       <c r="H8" s="3">
-        <v>263900</v>
+        <v>254100</v>
       </c>
       <c r="I8" s="3">
+        <v>257300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>254800</v>
+      </c>
+      <c r="K8" s="3">
         <v>266000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>264100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>210300</v>
+        <v>169800</v>
       </c>
       <c r="E9" s="3">
-        <v>221600</v>
+        <v>172500</v>
       </c>
       <c r="F9" s="3">
-        <v>189200</v>
+        <v>203000</v>
       </c>
       <c r="G9" s="3">
-        <v>191500</v>
+        <v>213900</v>
       </c>
       <c r="H9" s="3">
-        <v>186000</v>
+        <v>182700</v>
       </c>
       <c r="I9" s="3">
+        <v>184800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>179600</v>
+      </c>
+      <c r="K9" s="3">
         <v>180200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>176100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>86300</v>
+        <v>62000</v>
       </c>
       <c r="E10" s="3">
-        <v>88400</v>
+        <v>70300</v>
       </c>
       <c r="F10" s="3">
-        <v>73900</v>
+        <v>83300</v>
       </c>
       <c r="G10" s="3">
-        <v>75100</v>
+        <v>85300</v>
       </c>
       <c r="H10" s="3">
-        <v>77900</v>
+        <v>71400</v>
       </c>
       <c r="I10" s="3">
+        <v>72500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>75200</v>
+      </c>
+      <c r="K10" s="3">
         <v>85800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>88000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,37 +838,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="E12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G12" s="3">
         <v>2500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K12" s="3">
         <v>2500</v>
       </c>
-      <c r="G12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>2300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,66 +904,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>147900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>76800</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3">
-        <v>9800</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>18800</v>
+        <v>17900</v>
       </c>
       <c r="E15" s="3">
-        <v>21100</v>
+        <v>19800</v>
       </c>
       <c r="F15" s="3">
-        <v>15500</v>
+        <v>18100</v>
       </c>
       <c r="G15" s="3">
-        <v>14900</v>
+        <v>20300</v>
       </c>
       <c r="H15" s="3">
-        <v>12900</v>
+        <v>15000</v>
       </c>
       <c r="I15" s="3">
+        <v>14400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K15" s="3">
         <v>16400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>18400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>284100</v>
+        <v>393400</v>
       </c>
       <c r="E17" s="3">
-        <v>288800</v>
+        <v>317000</v>
       </c>
       <c r="F17" s="3">
-        <v>267200</v>
+        <v>274300</v>
       </c>
       <c r="G17" s="3">
-        <v>261600</v>
+        <v>278800</v>
       </c>
       <c r="H17" s="3">
-        <v>251700</v>
+        <v>257900</v>
       </c>
       <c r="I17" s="3">
+        <v>252600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>243000</v>
+      </c>
+      <c r="K17" s="3">
         <v>256400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>256300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>295400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>12500</v>
+        <v>-161600</v>
       </c>
       <c r="E18" s="3">
-        <v>21200</v>
+        <v>-74200</v>
       </c>
       <c r="F18" s="3">
-        <v>-4000</v>
+        <v>12100</v>
       </c>
       <c r="G18" s="3">
-        <v>4900</v>
+        <v>20500</v>
       </c>
       <c r="H18" s="3">
-        <v>12200</v>
+        <v>-3900</v>
       </c>
       <c r="I18" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K18" s="3">
         <v>9600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>7800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1010,8 +1075,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,144 +1086,174 @@
         <v>300</v>
       </c>
       <c r="E20" s="3">
-        <v>7500</v>
+        <v>4200</v>
       </c>
       <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>31600</v>
+        <v>-143500</v>
       </c>
       <c r="E21" s="3">
-        <v>49700</v>
+        <v>-50200</v>
       </c>
       <c r="F21" s="3">
-        <v>11600</v>
+        <v>30500</v>
       </c>
       <c r="G21" s="3">
-        <v>20100</v>
+        <v>48000</v>
       </c>
       <c r="H21" s="3">
-        <v>26000</v>
+        <v>11200</v>
       </c>
       <c r="I21" s="3">
+        <v>19400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>25100</v>
+      </c>
+      <c r="K21" s="3">
         <v>26800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>26700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="E22" s="3">
         <v>4400</v>
       </c>
       <c r="F22" s="3">
-        <v>3300</v>
+        <v>4800</v>
       </c>
       <c r="G22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H22" s="3">
         <v>3200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L22" s="3">
         <v>2600</v>
       </c>
-      <c r="I22" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2600</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>7800</v>
+        <v>-165900</v>
       </c>
       <c r="E23" s="3">
-        <v>24200</v>
+        <v>-74400</v>
       </c>
       <c r="F23" s="3">
-        <v>-7200</v>
+        <v>7500</v>
       </c>
       <c r="G23" s="3">
-        <v>2000</v>
+        <v>23400</v>
       </c>
       <c r="H23" s="3">
-        <v>10400</v>
+        <v>-6900</v>
       </c>
       <c r="I23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K23" s="3">
         <v>7500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>5700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L24" s="3">
         <v>2700</v>
       </c>
-      <c r="E24" s="3">
-        <v>-14100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>5100</v>
+        <v>-170800</v>
       </c>
       <c r="E26" s="3">
-        <v>38300</v>
+        <v>-59600</v>
       </c>
       <c r="F26" s="3">
-        <v>-6700</v>
+        <v>4900</v>
       </c>
       <c r="G26" s="3">
-        <v>3100</v>
+        <v>37000</v>
       </c>
       <c r="H26" s="3">
-        <v>8000</v>
+        <v>-6500</v>
       </c>
       <c r="I26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K26" s="3">
         <v>5700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>4900</v>
+        <v>-170700</v>
       </c>
       <c r="E27" s="3">
-        <v>38400</v>
+        <v>-59400</v>
       </c>
       <c r="F27" s="3">
-        <v>-6800</v>
+        <v>4700</v>
       </c>
       <c r="G27" s="3">
-        <v>3300</v>
+        <v>37100</v>
       </c>
       <c r="H27" s="3">
-        <v>7800</v>
+        <v>-6600</v>
       </c>
       <c r="I27" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K27" s="3">
         <v>5500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1285,23 +1406,29 @@
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1491,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1367,57 +1506,69 @@
         <v>-300</v>
       </c>
       <c r="E32" s="3">
-        <v>-7500</v>
+        <v>-4200</v>
       </c>
       <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4900</v>
+        <v>-170700</v>
       </c>
       <c r="E33" s="3">
-        <v>38400</v>
+        <v>-59400</v>
       </c>
       <c r="F33" s="3">
-        <v>-6800</v>
+        <v>4700</v>
       </c>
       <c r="G33" s="3">
-        <v>3300</v>
+        <v>37100</v>
       </c>
       <c r="H33" s="3">
-        <v>7800</v>
+        <v>-6600</v>
       </c>
       <c r="I33" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K33" s="3">
         <v>5500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4900</v>
+        <v>-170700</v>
       </c>
       <c r="E35" s="3">
-        <v>38400</v>
+        <v>-59400</v>
       </c>
       <c r="F35" s="3">
-        <v>-6800</v>
+        <v>4700</v>
       </c>
       <c r="G35" s="3">
-        <v>3300</v>
+        <v>37100</v>
       </c>
       <c r="H35" s="3">
-        <v>7800</v>
+        <v>-6600</v>
       </c>
       <c r="I35" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K35" s="3">
         <v>5500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,269 +1705,325 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>61900</v>
+        <v>62700</v>
       </c>
       <c r="E41" s="3">
-        <v>92100</v>
+        <v>71400</v>
       </c>
       <c r="F41" s="3">
-        <v>73700</v>
+        <v>59800</v>
       </c>
       <c r="G41" s="3">
-        <v>163600</v>
+        <v>89000</v>
       </c>
       <c r="H41" s="3">
-        <v>143200</v>
+        <v>71100</v>
       </c>
       <c r="I41" s="3">
+        <v>157900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>138300</v>
+      </c>
+      <c r="K41" s="3">
         <v>182000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>187000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I42" s="3">
         <v>1500</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>291900</v>
+        <v>237100</v>
       </c>
       <c r="E43" s="3">
-        <v>281300</v>
+        <v>234400</v>
       </c>
       <c r="F43" s="3">
-        <v>243900</v>
+        <v>281800</v>
       </c>
       <c r="G43" s="3">
-        <v>228000</v>
+        <v>271600</v>
       </c>
       <c r="H43" s="3">
+        <v>235500</v>
+      </c>
+      <c r="I43" s="3">
+        <v>220100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>234100</v>
+      </c>
+      <c r="K43" s="3">
+        <v>232400</v>
+      </c>
+      <c r="L43" s="3">
         <v>242500</v>
       </c>
-      <c r="I43" s="3">
-        <v>232400</v>
-      </c>
-      <c r="J43" s="3">
-        <v>242500</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>212700</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>127300</v>
+        <v>128100</v>
       </c>
       <c r="E44" s="3">
-        <v>136300</v>
+        <v>116800</v>
       </c>
       <c r="F44" s="3">
-        <v>108600</v>
+        <v>122900</v>
       </c>
       <c r="G44" s="3">
-        <v>103100</v>
+        <v>131600</v>
       </c>
       <c r="H44" s="3">
-        <v>104000</v>
+        <v>104800</v>
       </c>
       <c r="I44" s="3">
+        <v>99600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>100400</v>
+      </c>
+      <c r="K44" s="3">
         <v>104300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>95500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>86600</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18200</v>
+        <v>13200</v>
       </c>
       <c r="E45" s="3">
-        <v>9500</v>
+        <v>12900</v>
       </c>
       <c r="F45" s="3">
-        <v>9600</v>
+        <v>17600</v>
       </c>
       <c r="G45" s="3">
-        <v>17500</v>
+        <v>9200</v>
       </c>
       <c r="H45" s="3">
-        <v>22300</v>
+        <v>9300</v>
       </c>
       <c r="I45" s="3">
-        <v>18100</v>
+        <v>16900</v>
       </c>
       <c r="J45" s="3">
         <v>21500</v>
       </c>
       <c r="K45" s="3">
+        <v>18100</v>
+      </c>
+      <c r="L45" s="3">
+        <v>21500</v>
+      </c>
+      <c r="M45" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>499400</v>
+        <v>441200</v>
       </c>
       <c r="E46" s="3">
-        <v>519300</v>
+        <v>435500</v>
       </c>
       <c r="F46" s="3">
-        <v>439700</v>
+        <v>482000</v>
       </c>
       <c r="G46" s="3">
-        <v>513700</v>
+        <v>501300</v>
       </c>
       <c r="H46" s="3">
-        <v>512000</v>
+        <v>424400</v>
       </c>
       <c r="I46" s="3">
+        <v>495900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>494200</v>
+      </c>
+      <c r="K46" s="3">
         <v>536800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>546500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>533700</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7500</v>
+        <v>5200</v>
       </c>
       <c r="E47" s="3">
-        <v>7400</v>
+        <v>11200</v>
       </c>
       <c r="F47" s="3">
-        <v>22200</v>
+        <v>7300</v>
       </c>
       <c r="G47" s="3">
+        <v>7100</v>
+      </c>
+      <c r="H47" s="3">
+        <v>21500</v>
+      </c>
+      <c r="I47" s="3">
+        <v>22400</v>
+      </c>
+      <c r="J47" s="3">
         <v>23200</v>
       </c>
-      <c r="H47" s="3">
-        <v>24000</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>24600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>24500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>391900</v>
+        <v>366200</v>
       </c>
       <c r="E48" s="3">
-        <v>392800</v>
+        <v>366500</v>
       </c>
       <c r="F48" s="3">
-        <v>370800</v>
+        <v>378300</v>
       </c>
       <c r="G48" s="3">
-        <v>333400</v>
+        <v>379200</v>
       </c>
       <c r="H48" s="3">
-        <v>320700</v>
+        <v>357900</v>
       </c>
       <c r="I48" s="3">
+        <v>321900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>309600</v>
+      </c>
+      <c r="K48" s="3">
         <v>317500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>314700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>567500</v>
+        <v>352400</v>
       </c>
       <c r="E49" s="3">
-        <v>570000</v>
+        <v>471800</v>
       </c>
       <c r="F49" s="3">
-        <v>369900</v>
+        <v>547800</v>
       </c>
       <c r="G49" s="3">
-        <v>380800</v>
+        <v>550300</v>
       </c>
       <c r="H49" s="3">
-        <v>366900</v>
+        <v>357100</v>
       </c>
       <c r="I49" s="3">
+        <v>367600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>354200</v>
+      </c>
+      <c r="K49" s="3">
         <v>380100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>378700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>26800</v>
+        <v>29000</v>
       </c>
       <c r="E52" s="3">
-        <v>25600</v>
+        <v>31100</v>
       </c>
       <c r="F52" s="3">
-        <v>32800</v>
+        <v>25900</v>
       </c>
       <c r="G52" s="3">
-        <v>30200</v>
+        <v>24700</v>
       </c>
       <c r="H52" s="3">
-        <v>30800</v>
+        <v>31700</v>
       </c>
       <c r="I52" s="3">
+        <v>29200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>29800</v>
+      </c>
+      <c r="K52" s="3">
         <v>31500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>29700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1493100</v>
+        <v>1194000</v>
       </c>
       <c r="E54" s="3">
-        <v>1515100</v>
+        <v>1316100</v>
       </c>
       <c r="F54" s="3">
-        <v>1235500</v>
+        <v>1441300</v>
       </c>
       <c r="G54" s="3">
-        <v>1281300</v>
+        <v>1462600</v>
       </c>
       <c r="H54" s="3">
-        <v>1254400</v>
+        <v>1192600</v>
       </c>
       <c r="I54" s="3">
+        <v>1236900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1210900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1290500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1294000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1278200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,182 +2225,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>169700</v>
+        <v>138400</v>
       </c>
       <c r="E57" s="3">
-        <v>167300</v>
+        <v>129000</v>
       </c>
       <c r="F57" s="3">
-        <v>170800</v>
+        <v>163900</v>
       </c>
       <c r="G57" s="3">
-        <v>155700</v>
+        <v>161500</v>
       </c>
       <c r="H57" s="3">
+        <v>164900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>150300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>146000</v>
+      </c>
+      <c r="K57" s="3">
+        <v>165000</v>
+      </c>
+      <c r="L57" s="3">
+        <v>160400</v>
+      </c>
+      <c r="M57" s="3">
         <v>151300</v>
       </c>
-      <c r="I57" s="3">
-        <v>165000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>160400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>151300</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14300</v>
+        <v>16300</v>
       </c>
       <c r="E58" s="3">
-        <v>14700</v>
+        <v>15600</v>
       </c>
       <c r="F58" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="G58" s="3">
-        <v>900</v>
+        <v>14200</v>
       </c>
       <c r="H58" s="3">
+        <v>13400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>800</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>66300</v>
+        <v>67000</v>
       </c>
       <c r="E59" s="3">
-        <v>73500</v>
+        <v>71300</v>
       </c>
       <c r="F59" s="3">
-        <v>62600</v>
+        <v>64000</v>
       </c>
       <c r="G59" s="3">
-        <v>61100</v>
+        <v>71000</v>
       </c>
       <c r="H59" s="3">
-        <v>72100</v>
+        <v>60500</v>
       </c>
       <c r="I59" s="3">
+        <v>59000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>69600</v>
+      </c>
+      <c r="K59" s="3">
         <v>76700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>85900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>250300</v>
+        <v>221800</v>
       </c>
       <c r="E60" s="3">
-        <v>255500</v>
+        <v>215900</v>
       </c>
       <c r="F60" s="3">
-        <v>247300</v>
+        <v>241600</v>
       </c>
       <c r="G60" s="3">
-        <v>217700</v>
+        <v>246700</v>
       </c>
       <c r="H60" s="3">
-        <v>223500</v>
+        <v>238800</v>
       </c>
       <c r="I60" s="3">
+        <v>210200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>215700</v>
+      </c>
+      <c r="K60" s="3">
         <v>242200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>246900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>249200</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>385500</v>
+        <v>364400</v>
       </c>
       <c r="E61" s="3">
-        <v>401400</v>
+        <v>365700</v>
       </c>
       <c r="F61" s="3">
-        <v>163200</v>
+        <v>372100</v>
       </c>
       <c r="G61" s="3">
-        <v>209400</v>
+        <v>387500</v>
       </c>
       <c r="H61" s="3">
-        <v>199400</v>
+        <v>157500</v>
       </c>
       <c r="I61" s="3">
+        <v>202100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>192500</v>
+      </c>
+      <c r="K61" s="3">
         <v>202900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>199100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>193500</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>63900</v>
+        <v>45100</v>
       </c>
       <c r="E62" s="3">
-        <v>61100</v>
+        <v>44200</v>
       </c>
       <c r="F62" s="3">
-        <v>45100</v>
+        <v>61700</v>
       </c>
       <c r="G62" s="3">
-        <v>49000</v>
+        <v>59000</v>
       </c>
       <c r="H62" s="3">
-        <v>49400</v>
+        <v>43500</v>
       </c>
       <c r="I62" s="3">
+        <v>47300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>47700</v>
+      </c>
+      <c r="K62" s="3">
         <v>49700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>47500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>49100</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>703300</v>
+        <v>634800</v>
       </c>
       <c r="E66" s="3">
-        <v>722000</v>
+        <v>629200</v>
       </c>
       <c r="F66" s="3">
-        <v>459500</v>
+        <v>678900</v>
       </c>
       <c r="G66" s="3">
-        <v>480200</v>
+        <v>697000</v>
       </c>
       <c r="H66" s="3">
-        <v>475900</v>
+        <v>443600</v>
       </c>
       <c r="I66" s="3">
+        <v>463600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>459400</v>
+      </c>
+      <c r="K66" s="3">
         <v>498900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>498100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>496100</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>214800</v>
+        <v>-38100</v>
       </c>
       <c r="E72" s="3">
-        <v>217800</v>
+        <v>140300</v>
       </c>
       <c r="F72" s="3">
-        <v>187300</v>
+        <v>207300</v>
       </c>
       <c r="G72" s="3">
-        <v>204300</v>
+        <v>210300</v>
       </c>
       <c r="H72" s="3">
-        <v>208900</v>
+        <v>180800</v>
       </c>
       <c r="I72" s="3">
+        <v>197200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>201700</v>
+      </c>
+      <c r="K72" s="3">
         <v>223100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>223500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>227500</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>789800</v>
+        <v>559200</v>
       </c>
       <c r="E76" s="3">
-        <v>793100</v>
+        <v>686900</v>
       </c>
       <c r="F76" s="3">
-        <v>776000</v>
+        <v>762400</v>
       </c>
       <c r="G76" s="3">
-        <v>801100</v>
+        <v>765600</v>
       </c>
       <c r="H76" s="3">
-        <v>778500</v>
+        <v>749100</v>
       </c>
       <c r="I76" s="3">
+        <v>773400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>751500</v>
+      </c>
+      <c r="K76" s="3">
         <v>791500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>795900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>782100</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4900</v>
+        <v>-170700</v>
       </c>
       <c r="E81" s="3">
-        <v>38400</v>
+        <v>-59400</v>
       </c>
       <c r="F81" s="3">
-        <v>-6800</v>
+        <v>4700</v>
       </c>
       <c r="G81" s="3">
-        <v>3300</v>
+        <v>37100</v>
       </c>
       <c r="H81" s="3">
-        <v>7800</v>
+        <v>-6600</v>
       </c>
       <c r="I81" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K81" s="3">
         <v>5500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>18800</v>
+        <v>17900</v>
       </c>
       <c r="E83" s="3">
-        <v>21100</v>
+        <v>19800</v>
       </c>
       <c r="F83" s="3">
-        <v>15500</v>
+        <v>18100</v>
       </c>
       <c r="G83" s="3">
-        <v>14900</v>
+        <v>20300</v>
       </c>
       <c r="H83" s="3">
-        <v>12900</v>
+        <v>15000</v>
       </c>
       <c r="I83" s="3">
+        <v>14400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K83" s="3">
         <v>16400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>18400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6100</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
-        <v>-15800</v>
+        <v>35600</v>
       </c>
       <c r="F89" s="3">
-        <v>13500</v>
+        <v>5900</v>
       </c>
       <c r="G89" s="3">
-        <v>38600</v>
+        <v>-15200</v>
       </c>
       <c r="H89" s="3">
-        <v>-15100</v>
+        <v>13000</v>
       </c>
       <c r="I89" s="3">
+        <v>37300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="K89" s="3">
         <v>21300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-21800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7600</v>
+        <v>-7200</v>
       </c>
       <c r="E91" s="3">
-        <v>-6900</v>
+        <v>-7500</v>
       </c>
       <c r="F91" s="3">
-        <v>-11600</v>
+        <v>-7300</v>
       </c>
       <c r="G91" s="3">
-        <v>-19000</v>
+        <v>-6600</v>
       </c>
       <c r="H91" s="3">
-        <v>-14100</v>
+        <v>-11200</v>
       </c>
       <c r="I91" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-17100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-7100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1700</v>
       </c>
-      <c r="E94" s="3">
-        <v>-169600</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-13100</v>
-      </c>
       <c r="G94" s="3">
-        <v>-17000</v>
+        <v>-163700</v>
       </c>
       <c r="H94" s="3">
-        <v>-12900</v>
+        <v>-12600</v>
       </c>
       <c r="I94" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-18900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-6500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,37 +3445,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-7900</v>
+        <v>-7700</v>
       </c>
       <c r="E96" s="3">
-        <v>-7900</v>
+        <v>-7600</v>
       </c>
       <c r="F96" s="3">
-        <v>-7900</v>
+        <v>-7600</v>
       </c>
       <c r="G96" s="3">
-        <v>-7900</v>
+        <v>-7600</v>
       </c>
       <c r="H96" s="3">
-        <v>-7900</v>
+        <v>-7600</v>
       </c>
       <c r="I96" s="3">
-        <v>-7900</v>
+        <v>-7600</v>
       </c>
       <c r="J96" s="3">
-        <v>-7900</v>
+        <v>-7600</v>
       </c>
       <c r="K96" s="3">
         <v>-7900</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-7900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,91 +3581,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-33700</v>
+        <v>-12200</v>
       </c>
       <c r="E100" s="3">
-        <v>203800</v>
+        <v>-19200</v>
       </c>
       <c r="F100" s="3">
-        <v>-88600</v>
+        <v>-32500</v>
       </c>
       <c r="G100" s="3">
-        <v>-7800</v>
+        <v>196700</v>
       </c>
       <c r="H100" s="3">
-        <v>-7900</v>
+        <v>-85500</v>
       </c>
       <c r="I100" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-8000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-7100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1600</v>
       </c>
-      <c r="G101" s="3">
-        <v>6500</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-3900</v>
-      </c>
       <c r="I101" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K101" s="3">
         <v>1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>5100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-30200</v>
+        <v>-8600</v>
       </c>
       <c r="E102" s="3">
-        <v>18500</v>
+        <v>11600</v>
       </c>
       <c r="F102" s="3">
-        <v>-89900</v>
+        <v>-29200</v>
       </c>
       <c r="G102" s="3">
-        <v>20300</v>
+        <v>17800</v>
       </c>
       <c r="H102" s="3">
-        <v>-38800</v>
+        <v>-86700</v>
       </c>
       <c r="I102" s="3">
+        <v>19600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-30600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>58500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>SAWLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>231800</v>
+        <v>202500</v>
       </c>
       <c r="E8" s="3">
         <v>242800</v>
       </c>
       <c r="F8" s="3">
-        <v>286300</v>
+        <v>254300</v>
       </c>
       <c r="G8" s="3">
-        <v>299300</v>
+        <v>299900</v>
       </c>
       <c r="H8" s="3">
-        <v>254100</v>
+        <v>313400</v>
       </c>
       <c r="I8" s="3">
-        <v>257300</v>
+        <v>266100</v>
       </c>
       <c r="J8" s="3">
+        <v>269500</v>
+      </c>
+      <c r="K8" s="3">
         <v>254800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>266000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>264100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>169800</v>
+        <v>151000</v>
       </c>
       <c r="E9" s="3">
-        <v>172500</v>
+        <v>177900</v>
       </c>
       <c r="F9" s="3">
-        <v>203000</v>
+        <v>180600</v>
       </c>
       <c r="G9" s="3">
-        <v>213900</v>
+        <v>212600</v>
       </c>
       <c r="H9" s="3">
-        <v>182700</v>
+        <v>224000</v>
       </c>
       <c r="I9" s="3">
-        <v>184800</v>
+        <v>191300</v>
       </c>
       <c r="J9" s="3">
+        <v>193600</v>
+      </c>
+      <c r="K9" s="3">
         <v>179600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>180200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>176100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>62000</v>
+        <v>51600</v>
       </c>
       <c r="E10" s="3">
-        <v>70300</v>
+        <v>64900</v>
       </c>
       <c r="F10" s="3">
-        <v>83300</v>
+        <v>73700</v>
       </c>
       <c r="G10" s="3">
-        <v>85300</v>
+        <v>87200</v>
       </c>
       <c r="H10" s="3">
-        <v>71400</v>
+        <v>89400</v>
       </c>
       <c r="I10" s="3">
-        <v>72500</v>
+        <v>74800</v>
       </c>
       <c r="J10" s="3">
+        <v>75900</v>
+      </c>
+      <c r="K10" s="3">
         <v>75200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>85800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>88000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I12" s="3">
         <v>2500</v>
       </c>
-      <c r="E12" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="J12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L12" s="3">
         <v>2500</v>
       </c>
-      <c r="H12" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K12" s="3">
-        <v>2500</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,78 +927,87 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>147900</v>
+        <v>7600</v>
       </c>
       <c r="E14" s="3">
-        <v>76800</v>
+        <v>154900</v>
       </c>
       <c r="F14" s="3">
+        <v>80500</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3">
-        <v>9400</v>
-      </c>
       <c r="I14" s="3">
-        <v>2000</v>
+        <v>9900</v>
       </c>
       <c r="J14" s="3">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="K14" s="3">
         <v>600</v>
       </c>
       <c r="L14" s="3">
+        <v>600</v>
+      </c>
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>17900</v>
+        <v>17800</v>
       </c>
       <c r="E15" s="3">
-        <v>19800</v>
+        <v>18700</v>
       </c>
       <c r="F15" s="3">
-        <v>18100</v>
+        <v>20800</v>
       </c>
       <c r="G15" s="3">
-        <v>20300</v>
+        <v>19000</v>
       </c>
       <c r="H15" s="3">
-        <v>15000</v>
+        <v>21300</v>
       </c>
       <c r="I15" s="3">
-        <v>14400</v>
+        <v>15700</v>
       </c>
       <c r="J15" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K15" s="3">
         <v>12500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>16400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>18400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>393400</v>
+        <v>230300</v>
       </c>
       <c r="E17" s="3">
-        <v>317000</v>
+        <v>412000</v>
       </c>
       <c r="F17" s="3">
-        <v>274300</v>
+        <v>332000</v>
       </c>
       <c r="G17" s="3">
-        <v>278800</v>
+        <v>287200</v>
       </c>
       <c r="H17" s="3">
-        <v>257900</v>
+        <v>292000</v>
       </c>
       <c r="I17" s="3">
-        <v>252600</v>
+        <v>270100</v>
       </c>
       <c r="J17" s="3">
+        <v>264500</v>
+      </c>
+      <c r="K17" s="3">
         <v>243000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>256400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>256300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>295400</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-161600</v>
+        <v>-27800</v>
       </c>
       <c r="E18" s="3">
-        <v>-74200</v>
+        <v>-169200</v>
       </c>
       <c r="F18" s="3">
-        <v>12100</v>
+        <v>-77700</v>
       </c>
       <c r="G18" s="3">
-        <v>20500</v>
+        <v>12600</v>
       </c>
       <c r="H18" s="3">
-        <v>-3900</v>
+        <v>21400</v>
       </c>
       <c r="I18" s="3">
-        <v>4800</v>
+        <v>-4000</v>
       </c>
       <c r="J18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K18" s="3">
         <v>11800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1077,183 +1110,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
-        <v>4200</v>
-      </c>
       <c r="F20" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>7200</v>
-      </c>
       <c r="H20" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>800</v>
       </c>
       <c r="K20" s="3">
         <v>800</v>
       </c>
       <c r="L20" s="3">
+        <v>800</v>
+      </c>
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-143500</v>
+        <v>-10000</v>
       </c>
       <c r="E21" s="3">
-        <v>-50200</v>
+        <v>-150200</v>
       </c>
       <c r="F21" s="3">
-        <v>30500</v>
+        <v>-52500</v>
       </c>
       <c r="G21" s="3">
-        <v>48000</v>
+        <v>31900</v>
       </c>
       <c r="H21" s="3">
-        <v>11200</v>
+        <v>50300</v>
       </c>
       <c r="I21" s="3">
-        <v>19400</v>
+        <v>11800</v>
       </c>
       <c r="J21" s="3">
+        <v>20400</v>
+      </c>
+      <c r="K21" s="3">
         <v>25100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>26800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>26700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F22" s="3">
         <v>4600</v>
       </c>
-      <c r="E22" s="3">
-        <v>4400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4800</v>
-      </c>
       <c r="G22" s="3">
-        <v>4300</v>
+        <v>5100</v>
       </c>
       <c r="H22" s="3">
-        <v>3200</v>
+        <v>4500</v>
       </c>
       <c r="I22" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="J22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K22" s="3">
         <v>2500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-165900</v>
+        <v>-31800</v>
       </c>
       <c r="E23" s="3">
-        <v>-74400</v>
+        <v>-173800</v>
       </c>
       <c r="F23" s="3">
+        <v>-77900</v>
+      </c>
+      <c r="G23" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H23" s="3">
+        <v>24500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K23" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L23" s="3">
         <v>7500</v>
       </c>
-      <c r="G23" s="3">
-        <v>23400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>10000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>7500</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>4900</v>
+        <v>-3700</v>
       </c>
       <c r="E24" s="3">
-        <v>-14800</v>
+        <v>5100</v>
       </c>
       <c r="F24" s="3">
-        <v>2600</v>
+        <v>-15500</v>
       </c>
       <c r="G24" s="3">
-        <v>-13600</v>
+        <v>2700</v>
       </c>
       <c r="H24" s="3">
-        <v>-400</v>
+        <v>-14300</v>
       </c>
       <c r="I24" s="3">
-        <v>-1000</v>
+        <v>-500</v>
       </c>
       <c r="J24" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K24" s="3">
         <v>2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-170800</v>
+        <v>-28100</v>
       </c>
       <c r="E26" s="3">
-        <v>-59600</v>
+        <v>-178900</v>
       </c>
       <c r="F26" s="3">
-        <v>4900</v>
+        <v>-62400</v>
       </c>
       <c r="G26" s="3">
-        <v>37000</v>
+        <v>5100</v>
       </c>
       <c r="H26" s="3">
-        <v>-6500</v>
+        <v>38700</v>
       </c>
       <c r="I26" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>7700</v>
+      </c>
+      <c r="L26" s="3">
+        <v>5700</v>
+      </c>
+      <c r="M26" s="3">
         <v>3000</v>
       </c>
-      <c r="J26" s="3">
-        <v>7700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>5700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>3000</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-170700</v>
+        <v>-28000</v>
       </c>
       <c r="E27" s="3">
-        <v>-59400</v>
+        <v>-178800</v>
       </c>
       <c r="F27" s="3">
-        <v>4700</v>
+        <v>-62200</v>
       </c>
       <c r="G27" s="3">
-        <v>37100</v>
+        <v>5000</v>
       </c>
       <c r="H27" s="3">
-        <v>-6600</v>
+        <v>38800</v>
       </c>
       <c r="I27" s="3">
-        <v>3200</v>
+        <v>-6900</v>
       </c>
       <c r="J27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K27" s="3">
         <v>7500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1412,11 +1473,11 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -1424,11 +1485,14 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
-        <v>-4200</v>
-      </c>
       <c r="F32" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>-7200</v>
-      </c>
       <c r="H32" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-800</v>
       </c>
       <c r="K32" s="3">
         <v>-800</v>
       </c>
       <c r="L32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-170700</v>
+        <v>-28000</v>
       </c>
       <c r="E33" s="3">
-        <v>-59400</v>
+        <v>-178800</v>
       </c>
       <c r="F33" s="3">
-        <v>4700</v>
+        <v>-62200</v>
       </c>
       <c r="G33" s="3">
-        <v>37100</v>
+        <v>5000</v>
       </c>
       <c r="H33" s="3">
-        <v>-6600</v>
+        <v>38800</v>
       </c>
       <c r="I33" s="3">
-        <v>3200</v>
+        <v>-6900</v>
       </c>
       <c r="J33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K33" s="3">
         <v>7500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-170700</v>
+        <v>-28000</v>
       </c>
       <c r="E35" s="3">
-        <v>-59400</v>
+        <v>-178800</v>
       </c>
       <c r="F35" s="3">
-        <v>4700</v>
+        <v>-62200</v>
       </c>
       <c r="G35" s="3">
-        <v>37100</v>
+        <v>5000</v>
       </c>
       <c r="H35" s="3">
-        <v>-6600</v>
+        <v>38800</v>
       </c>
       <c r="I35" s="3">
-        <v>3200</v>
+        <v>-6900</v>
       </c>
       <c r="J35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K35" s="3">
         <v>7500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,51 +1793,55 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>62700</v>
+        <v>78900</v>
       </c>
       <c r="E41" s="3">
-        <v>71400</v>
+        <v>65700</v>
       </c>
       <c r="F41" s="3">
-        <v>59800</v>
+        <v>74800</v>
       </c>
       <c r="G41" s="3">
-        <v>89000</v>
+        <v>62600</v>
       </c>
       <c r="H41" s="3">
-        <v>71100</v>
+        <v>93200</v>
       </c>
       <c r="I41" s="3">
-        <v>157900</v>
+        <v>74500</v>
       </c>
       <c r="J41" s="3">
+        <v>165400</v>
+      </c>
+      <c r="K41" s="3">
         <v>138300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>182000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>187000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -1760,13 +1850,13 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>24</v>
+        <v>3900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1600</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>24</v>
@@ -1774,256 +1864,280 @@
       <c r="L42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>237100</v>
+        <v>209000</v>
       </c>
       <c r="E43" s="3">
-        <v>234400</v>
+        <v>248400</v>
       </c>
       <c r="F43" s="3">
-        <v>281800</v>
+        <v>245500</v>
       </c>
       <c r="G43" s="3">
-        <v>271600</v>
+        <v>295100</v>
       </c>
       <c r="H43" s="3">
-        <v>235500</v>
+        <v>284400</v>
       </c>
       <c r="I43" s="3">
-        <v>220100</v>
+        <v>246600</v>
       </c>
       <c r="J43" s="3">
+        <v>230500</v>
+      </c>
+      <c r="K43" s="3">
         <v>234100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>232400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>242500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>212700</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>128100</v>
+        <v>132900</v>
       </c>
       <c r="E44" s="3">
-        <v>116800</v>
+        <v>134100</v>
       </c>
       <c r="F44" s="3">
-        <v>122900</v>
+        <v>122400</v>
       </c>
       <c r="G44" s="3">
-        <v>131600</v>
+        <v>128700</v>
       </c>
       <c r="H44" s="3">
-        <v>104800</v>
+        <v>137800</v>
       </c>
       <c r="I44" s="3">
-        <v>99600</v>
+        <v>109800</v>
       </c>
       <c r="J44" s="3">
+        <v>104300</v>
+      </c>
+      <c r="K44" s="3">
         <v>100400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>104300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>95500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>86600</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13200</v>
+        <v>10600</v>
       </c>
       <c r="E45" s="3">
-        <v>12900</v>
+        <v>13900</v>
       </c>
       <c r="F45" s="3">
-        <v>17600</v>
+        <v>13500</v>
       </c>
       <c r="G45" s="3">
-        <v>9200</v>
+        <v>18400</v>
       </c>
       <c r="H45" s="3">
-        <v>9300</v>
+        <v>9600</v>
       </c>
       <c r="I45" s="3">
-        <v>16900</v>
+        <v>9700</v>
       </c>
       <c r="J45" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K45" s="3">
         <v>21500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>441200</v>
+        <v>431400</v>
       </c>
       <c r="E46" s="3">
-        <v>435500</v>
+        <v>462100</v>
       </c>
       <c r="F46" s="3">
-        <v>482000</v>
+        <v>456100</v>
       </c>
       <c r="G46" s="3">
-        <v>501300</v>
+        <v>504900</v>
       </c>
       <c r="H46" s="3">
-        <v>424400</v>
+        <v>525000</v>
       </c>
       <c r="I46" s="3">
-        <v>495900</v>
+        <v>444500</v>
       </c>
       <c r="J46" s="3">
+        <v>519400</v>
+      </c>
+      <c r="K46" s="3">
         <v>494200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>536800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>546500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>533700</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="E47" s="3">
-        <v>11200</v>
+        <v>5400</v>
       </c>
       <c r="F47" s="3">
-        <v>7300</v>
+        <v>11700</v>
       </c>
       <c r="G47" s="3">
-        <v>7100</v>
+        <v>7600</v>
       </c>
       <c r="H47" s="3">
-        <v>21500</v>
+        <v>7400</v>
       </c>
       <c r="I47" s="3">
-        <v>22400</v>
+        <v>22500</v>
       </c>
       <c r="J47" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K47" s="3">
         <v>23200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>24600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>24500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>366200</v>
+        <v>370400</v>
       </c>
       <c r="E48" s="3">
-        <v>366500</v>
+        <v>383600</v>
       </c>
       <c r="F48" s="3">
-        <v>378300</v>
+        <v>383800</v>
       </c>
       <c r="G48" s="3">
-        <v>379200</v>
+        <v>396200</v>
       </c>
       <c r="H48" s="3">
-        <v>357900</v>
+        <v>397100</v>
       </c>
       <c r="I48" s="3">
-        <v>321900</v>
+        <v>374900</v>
       </c>
       <c r="J48" s="3">
+        <v>337100</v>
+      </c>
+      <c r="K48" s="3">
         <v>309600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>317500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>314700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>352400</v>
+        <v>357500</v>
       </c>
       <c r="E49" s="3">
-        <v>471800</v>
+        <v>369100</v>
       </c>
       <c r="F49" s="3">
-        <v>547800</v>
+        <v>494100</v>
       </c>
       <c r="G49" s="3">
-        <v>550300</v>
+        <v>573800</v>
       </c>
       <c r="H49" s="3">
-        <v>357100</v>
+        <v>576300</v>
       </c>
       <c r="I49" s="3">
-        <v>367600</v>
+        <v>374000</v>
       </c>
       <c r="J49" s="3">
+        <v>385000</v>
+      </c>
+      <c r="K49" s="3">
         <v>354200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>380100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>378700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>29000</v>
+        <v>28800</v>
       </c>
       <c r="E52" s="3">
-        <v>31100</v>
+        <v>30400</v>
       </c>
       <c r="F52" s="3">
+        <v>32600</v>
+      </c>
+      <c r="G52" s="3">
+        <v>27100</v>
+      </c>
+      <c r="H52" s="3">
         <v>25900</v>
       </c>
-      <c r="G52" s="3">
-        <v>24700</v>
-      </c>
-      <c r="H52" s="3">
-        <v>31700</v>
-      </c>
       <c r="I52" s="3">
-        <v>29200</v>
+        <v>33200</v>
       </c>
       <c r="J52" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K52" s="3">
         <v>29800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>31500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>29700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1194000</v>
+        <v>1193100</v>
       </c>
       <c r="E54" s="3">
-        <v>1316100</v>
+        <v>1250500</v>
       </c>
       <c r="F54" s="3">
-        <v>1441300</v>
+        <v>1378400</v>
       </c>
       <c r="G54" s="3">
-        <v>1462600</v>
+        <v>1509500</v>
       </c>
       <c r="H54" s="3">
-        <v>1192600</v>
+        <v>1531800</v>
       </c>
       <c r="I54" s="3">
-        <v>1236900</v>
+        <v>1249100</v>
       </c>
       <c r="J54" s="3">
+        <v>1295500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1210900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1290500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1294000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1278200</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,218 +2357,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>138400</v>
+        <v>137700</v>
       </c>
       <c r="E57" s="3">
-        <v>129000</v>
+        <v>145000</v>
       </c>
       <c r="F57" s="3">
-        <v>163900</v>
+        <v>135100</v>
       </c>
       <c r="G57" s="3">
-        <v>161500</v>
+        <v>171600</v>
       </c>
       <c r="H57" s="3">
-        <v>164900</v>
+        <v>169200</v>
       </c>
       <c r="I57" s="3">
-        <v>150300</v>
+        <v>172700</v>
       </c>
       <c r="J57" s="3">
+        <v>157400</v>
+      </c>
+      <c r="K57" s="3">
         <v>146000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>165000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>160400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>151300</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>347800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F58" s="3">
         <v>16300</v>
       </c>
-      <c r="E58" s="3">
-        <v>15600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>13800</v>
-      </c>
       <c r="G58" s="3">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="H58" s="3">
-        <v>13400</v>
+        <v>14800</v>
       </c>
       <c r="I58" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>900</v>
+      </c>
+      <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
+        <v>400</v>
+      </c>
+      <c r="M58" s="3">
+        <v>600</v>
+      </c>
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>400</v>
-      </c>
-      <c r="L58" s="3">
-        <v>600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>70200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>74700</v>
+      </c>
+      <c r="G59" s="3">
         <v>67000</v>
       </c>
-      <c r="E59" s="3">
-        <v>71300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>64000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>71000</v>
-      </c>
       <c r="H59" s="3">
-        <v>60500</v>
+        <v>74300</v>
       </c>
       <c r="I59" s="3">
-        <v>59000</v>
+        <v>63300</v>
       </c>
       <c r="J59" s="3">
+        <v>61800</v>
+      </c>
+      <c r="K59" s="3">
         <v>69600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>76700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>85900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>221800</v>
+        <v>560300</v>
       </c>
       <c r="E60" s="3">
-        <v>215900</v>
+        <v>232300</v>
       </c>
       <c r="F60" s="3">
-        <v>241600</v>
+        <v>226100</v>
       </c>
       <c r="G60" s="3">
-        <v>246700</v>
+        <v>253100</v>
       </c>
       <c r="H60" s="3">
-        <v>238800</v>
+        <v>258300</v>
       </c>
       <c r="I60" s="3">
-        <v>210200</v>
+        <v>250100</v>
       </c>
       <c r="J60" s="3">
+        <v>220100</v>
+      </c>
+      <c r="K60" s="3">
         <v>215700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>242200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>246900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>249200</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>364400</v>
+        <v>51800</v>
       </c>
       <c r="E61" s="3">
-        <v>365700</v>
+        <v>381700</v>
       </c>
       <c r="F61" s="3">
-        <v>372100</v>
+        <v>383000</v>
       </c>
       <c r="G61" s="3">
-        <v>387500</v>
+        <v>389800</v>
       </c>
       <c r="H61" s="3">
-        <v>157500</v>
+        <v>405800</v>
       </c>
       <c r="I61" s="3">
-        <v>202100</v>
+        <v>165000</v>
       </c>
       <c r="J61" s="3">
+        <v>211700</v>
+      </c>
+      <c r="K61" s="3">
         <v>192500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>202900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>199100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>193500</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>45100</v>
+        <v>40200</v>
       </c>
       <c r="E62" s="3">
-        <v>44200</v>
+        <v>47200</v>
       </c>
       <c r="F62" s="3">
-        <v>61700</v>
+        <v>46300</v>
       </c>
       <c r="G62" s="3">
-        <v>59000</v>
+        <v>64600</v>
       </c>
       <c r="H62" s="3">
-        <v>43500</v>
+        <v>61800</v>
       </c>
       <c r="I62" s="3">
-        <v>47300</v>
+        <v>45600</v>
       </c>
       <c r="J62" s="3">
+        <v>49500</v>
+      </c>
+      <c r="K62" s="3">
         <v>47700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>49700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>47500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>49100</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>634800</v>
+        <v>655700</v>
       </c>
       <c r="E66" s="3">
-        <v>629200</v>
+        <v>664800</v>
       </c>
       <c r="F66" s="3">
-        <v>678900</v>
+        <v>658900</v>
       </c>
       <c r="G66" s="3">
-        <v>697000</v>
+        <v>711100</v>
       </c>
       <c r="H66" s="3">
-        <v>443600</v>
+        <v>729900</v>
       </c>
       <c r="I66" s="3">
-        <v>463600</v>
+        <v>464600</v>
       </c>
       <c r="J66" s="3">
+        <v>485500</v>
+      </c>
+      <c r="K66" s="3">
         <v>459400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>498900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>498100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>496100</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-38100</v>
+        <v>-67900</v>
       </c>
       <c r="E72" s="3">
-        <v>140300</v>
+        <v>-39900</v>
       </c>
       <c r="F72" s="3">
-        <v>207300</v>
+        <v>146900</v>
       </c>
       <c r="G72" s="3">
-        <v>210300</v>
+        <v>217200</v>
       </c>
       <c r="H72" s="3">
-        <v>180800</v>
+        <v>220200</v>
       </c>
       <c r="I72" s="3">
-        <v>197200</v>
+        <v>189400</v>
       </c>
       <c r="J72" s="3">
+        <v>206600</v>
+      </c>
+      <c r="K72" s="3">
         <v>201700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>223100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>223500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>227500</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>559200</v>
+        <v>537500</v>
       </c>
       <c r="E76" s="3">
-        <v>686900</v>
+        <v>585700</v>
       </c>
       <c r="F76" s="3">
-        <v>762400</v>
+        <v>719500</v>
       </c>
       <c r="G76" s="3">
-        <v>765600</v>
+        <v>798500</v>
       </c>
       <c r="H76" s="3">
-        <v>749100</v>
+        <v>801900</v>
       </c>
       <c r="I76" s="3">
-        <v>773400</v>
+        <v>784500</v>
       </c>
       <c r="J76" s="3">
+        <v>810000</v>
+      </c>
+      <c r="K76" s="3">
         <v>751500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>791500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>795900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>782100</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-170700</v>
+        <v>-28000</v>
       </c>
       <c r="E81" s="3">
-        <v>-59400</v>
+        <v>-178800</v>
       </c>
       <c r="F81" s="3">
-        <v>4700</v>
+        <v>-62200</v>
       </c>
       <c r="G81" s="3">
-        <v>37100</v>
+        <v>5000</v>
       </c>
       <c r="H81" s="3">
-        <v>-6600</v>
+        <v>38800</v>
       </c>
       <c r="I81" s="3">
-        <v>3200</v>
+        <v>-6900</v>
       </c>
       <c r="J81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K81" s="3">
         <v>7500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3230,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>17900</v>
+        <v>17800</v>
       </c>
       <c r="E83" s="3">
-        <v>19800</v>
+        <v>18700</v>
       </c>
       <c r="F83" s="3">
-        <v>18100</v>
+        <v>20800</v>
       </c>
       <c r="G83" s="3">
-        <v>20300</v>
+        <v>19000</v>
       </c>
       <c r="H83" s="3">
-        <v>15000</v>
+        <v>21300</v>
       </c>
       <c r="I83" s="3">
-        <v>14400</v>
+        <v>15700</v>
       </c>
       <c r="J83" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K83" s="3">
         <v>12500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>16400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>18400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
-        <v>35600</v>
-      </c>
       <c r="F89" s="3">
-        <v>5900</v>
+        <v>37300</v>
       </c>
       <c r="G89" s="3">
-        <v>-15200</v>
+        <v>6200</v>
       </c>
       <c r="H89" s="3">
-        <v>13000</v>
+        <v>-15900</v>
       </c>
       <c r="I89" s="3">
-        <v>37300</v>
+        <v>13700</v>
       </c>
       <c r="J89" s="3">
+        <v>39100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-14600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>21300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-21800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7200</v>
+        <v>-2800</v>
       </c>
       <c r="E91" s="3">
         <v>-7500</v>
       </c>
       <c r="F91" s="3">
-        <v>-7300</v>
+        <v>-7800</v>
       </c>
       <c r="G91" s="3">
-        <v>-6600</v>
+        <v>-7600</v>
       </c>
       <c r="H91" s="3">
-        <v>-11200</v>
+        <v>-6900</v>
       </c>
       <c r="I91" s="3">
-        <v>-18300</v>
+        <v>-11700</v>
       </c>
       <c r="J91" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-13600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-17100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>-5300</v>
-      </c>
       <c r="F94" s="3">
-        <v>-1700</v>
+        <v>-5500</v>
       </c>
       <c r="G94" s="3">
-        <v>-163700</v>
+        <v>-1800</v>
       </c>
       <c r="H94" s="3">
-        <v>-12600</v>
+        <v>-171500</v>
       </c>
       <c r="I94" s="3">
-        <v>-16400</v>
+        <v>-13200</v>
       </c>
       <c r="J94" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-12400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,34 +3680,35 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-7700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-7600</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-7900</v>
       </c>
       <c r="L96" s="3">
         <v>-7900</v>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>-7900</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>-7900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +3830,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-12200</v>
+        <v>-4300</v>
       </c>
       <c r="E100" s="3">
-        <v>-19200</v>
+        <v>-12800</v>
       </c>
       <c r="F100" s="3">
-        <v>-32500</v>
+        <v>-20200</v>
       </c>
       <c r="G100" s="3">
-        <v>196700</v>
+        <v>-34100</v>
       </c>
       <c r="H100" s="3">
-        <v>-85500</v>
+        <v>206000</v>
       </c>
       <c r="I100" s="3">
+        <v>-89600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-7600</v>
       </c>
-      <c r="J100" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3700</v>
+        <v>-1500</v>
       </c>
       <c r="E101" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
-        <v>-1600</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>6300</v>
+        <v>-1700</v>
       </c>
       <c r="J101" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8600</v>
+        <v>13200</v>
       </c>
       <c r="E102" s="3">
-        <v>11600</v>
+        <v>-9000</v>
       </c>
       <c r="F102" s="3">
-        <v>-29200</v>
+        <v>12100</v>
       </c>
       <c r="G102" s="3">
-        <v>17800</v>
+        <v>-30600</v>
       </c>
       <c r="H102" s="3">
-        <v>-86700</v>
+        <v>18700</v>
       </c>
       <c r="I102" s="3">
-        <v>19600</v>
+        <v>-90800</v>
       </c>
       <c r="J102" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-37500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-30600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>58500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>SAWLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>202500</v>
+        <v>206100</v>
       </c>
       <c r="E8" s="3">
-        <v>242800</v>
+        <v>204800</v>
       </c>
       <c r="F8" s="3">
-        <v>254300</v>
+        <v>245600</v>
       </c>
       <c r="G8" s="3">
-        <v>299900</v>
+        <v>257200</v>
       </c>
       <c r="H8" s="3">
-        <v>313400</v>
+        <v>303300</v>
       </c>
       <c r="I8" s="3">
-        <v>266100</v>
+        <v>317000</v>
       </c>
       <c r="J8" s="3">
+        <v>269100</v>
+      </c>
+      <c r="K8" s="3">
         <v>269500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>254800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>266000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>264100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>151000</v>
+        <v>148800</v>
       </c>
       <c r="E9" s="3">
-        <v>177900</v>
+        <v>152700</v>
       </c>
       <c r="F9" s="3">
-        <v>180600</v>
+        <v>179900</v>
       </c>
       <c r="G9" s="3">
-        <v>212600</v>
+        <v>182700</v>
       </c>
       <c r="H9" s="3">
-        <v>224000</v>
+        <v>215100</v>
       </c>
       <c r="I9" s="3">
-        <v>191300</v>
+        <v>226600</v>
       </c>
       <c r="J9" s="3">
+        <v>193500</v>
+      </c>
+      <c r="K9" s="3">
         <v>193600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>179600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>180200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>176100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>51600</v>
+        <v>57200</v>
       </c>
       <c r="E10" s="3">
-        <v>64900</v>
+        <v>52200</v>
       </c>
       <c r="F10" s="3">
-        <v>73700</v>
+        <v>65600</v>
       </c>
       <c r="G10" s="3">
-        <v>87200</v>
+        <v>74500</v>
       </c>
       <c r="H10" s="3">
-        <v>89400</v>
+        <v>88200</v>
       </c>
       <c r="I10" s="3">
-        <v>74800</v>
+        <v>90400</v>
       </c>
       <c r="J10" s="3">
+        <v>75600</v>
+      </c>
+      <c r="K10" s="3">
         <v>75900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>75200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>85800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>88000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +867,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="E12" s="3">
         <v>2600</v>
       </c>
       <c r="F12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G12" s="3">
         <v>1700</v>
       </c>
-      <c r="G12" s="3">
-        <v>2800</v>
-      </c>
       <c r="H12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I12" s="3">
         <v>2600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,84 +947,93 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>7600</v>
+        <v>6900</v>
       </c>
       <c r="E14" s="3">
-        <v>154900</v>
+        <v>7700</v>
       </c>
       <c r="F14" s="3">
-        <v>80500</v>
+        <v>156700</v>
       </c>
       <c r="G14" s="3">
+        <v>81400</v>
+      </c>
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
-        <v>900</v>
-      </c>
       <c r="I14" s="3">
-        <v>9900</v>
+        <v>1000</v>
       </c>
       <c r="J14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K14" s="3">
         <v>2100</v>
-      </c>
-      <c r="K14" s="3">
-        <v>600</v>
       </c>
       <c r="L14" s="3">
         <v>600</v>
       </c>
       <c r="M14" s="3">
+        <v>600</v>
+      </c>
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>17800</v>
+        <v>17200</v>
       </c>
       <c r="E15" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G15" s="3">
+        <v>21000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>19200</v>
+      </c>
+      <c r="I15" s="3">
+        <v>21600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K15" s="3">
+        <v>15100</v>
+      </c>
+      <c r="L15" s="3">
+        <v>12500</v>
+      </c>
+      <c r="M15" s="3">
+        <v>16400</v>
+      </c>
+      <c r="N15" s="3">
+        <v>18400</v>
+      </c>
+      <c r="O15" s="3">
         <v>18700</v>
       </c>
-      <c r="F15" s="3">
-        <v>20800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>19000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>21300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>15700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>15100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>12500</v>
-      </c>
-      <c r="L15" s="3">
-        <v>16400</v>
-      </c>
-      <c r="M15" s="3">
-        <v>18400</v>
-      </c>
-      <c r="N15" s="3">
-        <v>18700</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>230300</v>
+        <v>221200</v>
       </c>
       <c r="E17" s="3">
-        <v>412000</v>
+        <v>233000</v>
       </c>
       <c r="F17" s="3">
-        <v>332000</v>
+        <v>416700</v>
       </c>
       <c r="G17" s="3">
-        <v>287200</v>
+        <v>335800</v>
       </c>
       <c r="H17" s="3">
-        <v>292000</v>
+        <v>290500</v>
       </c>
       <c r="I17" s="3">
-        <v>270100</v>
+        <v>295300</v>
       </c>
       <c r="J17" s="3">
+        <v>273200</v>
+      </c>
+      <c r="K17" s="3">
         <v>264500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>243000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>256400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>256300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>295400</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-27800</v>
+        <v>-15100</v>
       </c>
       <c r="E18" s="3">
-        <v>-169200</v>
+        <v>-28100</v>
       </c>
       <c r="F18" s="3">
-        <v>-77700</v>
+        <v>-171200</v>
       </c>
       <c r="G18" s="3">
-        <v>12600</v>
+        <v>-78600</v>
       </c>
       <c r="H18" s="3">
-        <v>21400</v>
+        <v>12800</v>
       </c>
       <c r="I18" s="3">
-        <v>-4000</v>
+        <v>21700</v>
       </c>
       <c r="J18" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K18" s="3">
         <v>5000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1111,198 +1144,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>4400</v>
-      </c>
       <c r="G20" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>7500</v>
-      </c>
       <c r="I20" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>800</v>
       </c>
       <c r="L20" s="3">
         <v>800</v>
       </c>
       <c r="M20" s="3">
+        <v>800</v>
+      </c>
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-10000</v>
+        <v>8300</v>
       </c>
       <c r="E21" s="3">
-        <v>-150200</v>
+        <v>-10200</v>
       </c>
       <c r="F21" s="3">
-        <v>-52500</v>
+        <v>-152000</v>
       </c>
       <c r="G21" s="3">
-        <v>31900</v>
+        <v>-53200</v>
       </c>
       <c r="H21" s="3">
-        <v>50300</v>
+        <v>32300</v>
       </c>
       <c r="I21" s="3">
-        <v>11800</v>
+        <v>50900</v>
       </c>
       <c r="J21" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K21" s="3">
         <v>20400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>25100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>26800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>26700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E22" s="3">
         <v>4000</v>
       </c>
-      <c r="E22" s="3">
-        <v>4800</v>
-      </c>
       <c r="F22" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G22" s="3">
         <v>4600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5100</v>
       </c>
-      <c r="H22" s="3">
-        <v>4500</v>
-      </c>
       <c r="I22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K22" s="3">
         <v>3300</v>
       </c>
-      <c r="J22" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-31800</v>
+        <v>-14100</v>
       </c>
       <c r="E23" s="3">
-        <v>-173800</v>
+        <v>-32200</v>
       </c>
       <c r="F23" s="3">
-        <v>-77900</v>
+        <v>-175800</v>
       </c>
       <c r="G23" s="3">
+        <v>-78800</v>
+      </c>
+      <c r="H23" s="3">
         <v>7900</v>
       </c>
-      <c r="H23" s="3">
-        <v>24500</v>
-      </c>
       <c r="I23" s="3">
-        <v>-7200</v>
+        <v>24700</v>
       </c>
       <c r="J23" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="K23" s="3">
         <v>2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-3700</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>5100</v>
+        <v>-3800</v>
       </c>
       <c r="F24" s="3">
-        <v>-15500</v>
+        <v>5200</v>
       </c>
       <c r="G24" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="H24" s="3">
         <v>2700</v>
       </c>
-      <c r="H24" s="3">
-        <v>-14300</v>
-      </c>
       <c r="I24" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="J24" s="3">
         <v>-500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-28100</v>
+        <v>-14200</v>
       </c>
       <c r="E26" s="3">
-        <v>-178900</v>
+        <v>-28400</v>
       </c>
       <c r="F26" s="3">
-        <v>-62400</v>
+        <v>-181000</v>
       </c>
       <c r="G26" s="3">
-        <v>5100</v>
+        <v>-63100</v>
       </c>
       <c r="H26" s="3">
-        <v>38700</v>
+        <v>5200</v>
       </c>
       <c r="I26" s="3">
-        <v>-6800</v>
+        <v>39200</v>
       </c>
       <c r="J26" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K26" s="3">
         <v>3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-28000</v>
+        <v>-14100</v>
       </c>
       <c r="E27" s="3">
-        <v>-178800</v>
+        <v>-28300</v>
       </c>
       <c r="F27" s="3">
-        <v>-62200</v>
+        <v>-180800</v>
       </c>
       <c r="G27" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="H27" s="3">
         <v>5000</v>
       </c>
-      <c r="H27" s="3">
-        <v>38800</v>
-      </c>
       <c r="I27" s="3">
-        <v>-6900</v>
+        <v>39300</v>
       </c>
       <c r="J27" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K27" s="3">
         <v>3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1476,11 +1537,11 @@
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -1488,11 +1549,14 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-6200</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>-4400</v>
-      </c>
       <c r="G32" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>-7500</v>
-      </c>
       <c r="I32" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-800</v>
       </c>
       <c r="L32" s="3">
         <v>-800</v>
       </c>
       <c r="M32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-28000</v>
+        <v>-14100</v>
       </c>
       <c r="E33" s="3">
-        <v>-178800</v>
+        <v>-28300</v>
       </c>
       <c r="F33" s="3">
-        <v>-62200</v>
+        <v>-180800</v>
       </c>
       <c r="G33" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="H33" s="3">
         <v>5000</v>
       </c>
-      <c r="H33" s="3">
-        <v>38800</v>
-      </c>
       <c r="I33" s="3">
-        <v>-6900</v>
+        <v>39300</v>
       </c>
       <c r="J33" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K33" s="3">
         <v>3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-28000</v>
+        <v>-14100</v>
       </c>
       <c r="E35" s="3">
-        <v>-178800</v>
+        <v>-28300</v>
       </c>
       <c r="F35" s="3">
-        <v>-62200</v>
+        <v>-180800</v>
       </c>
       <c r="G35" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="H35" s="3">
         <v>5000</v>
       </c>
-      <c r="H35" s="3">
-        <v>38800</v>
-      </c>
       <c r="I35" s="3">
-        <v>-6900</v>
+        <v>39300</v>
       </c>
       <c r="J35" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K35" s="3">
         <v>3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>78900</v>
+        <v>82200</v>
       </c>
       <c r="E41" s="3">
-        <v>65700</v>
+        <v>79800</v>
       </c>
       <c r="F41" s="3">
-        <v>74800</v>
+        <v>66500</v>
       </c>
       <c r="G41" s="3">
-        <v>62600</v>
+        <v>75600</v>
       </c>
       <c r="H41" s="3">
-        <v>93200</v>
+        <v>63300</v>
       </c>
       <c r="I41" s="3">
-        <v>74500</v>
+        <v>94200</v>
       </c>
       <c r="J41" s="3">
+        <v>75400</v>
+      </c>
+      <c r="K41" s="3">
         <v>165400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>138300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>182000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>187000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1843,8 +1933,8 @@
       <c r="E42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -1853,13 +1943,13 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K42" s="3">
         <v>1600</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>24</v>
@@ -1867,277 +1957,301 @@
       <c r="M42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>209000</v>
+        <v>209200</v>
       </c>
       <c r="E43" s="3">
-        <v>248400</v>
+        <v>211400</v>
       </c>
       <c r="F43" s="3">
-        <v>245500</v>
+        <v>251200</v>
       </c>
       <c r="G43" s="3">
-        <v>295100</v>
+        <v>248300</v>
       </c>
       <c r="H43" s="3">
-        <v>284400</v>
+        <v>298500</v>
       </c>
       <c r="I43" s="3">
-        <v>246600</v>
+        <v>287700</v>
       </c>
       <c r="J43" s="3">
+        <v>249400</v>
+      </c>
+      <c r="K43" s="3">
         <v>230500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>234100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>232400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>242500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>212700</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>132900</v>
+        <v>132200</v>
       </c>
       <c r="E44" s="3">
-        <v>134100</v>
+        <v>134400</v>
       </c>
       <c r="F44" s="3">
-        <v>122400</v>
+        <v>135700</v>
       </c>
       <c r="G44" s="3">
-        <v>128700</v>
+        <v>123800</v>
       </c>
       <c r="H44" s="3">
-        <v>137800</v>
+        <v>130200</v>
       </c>
       <c r="I44" s="3">
-        <v>109800</v>
+        <v>139400</v>
       </c>
       <c r="J44" s="3">
+        <v>111000</v>
+      </c>
+      <c r="K44" s="3">
         <v>104300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>100400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>104300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>95500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>86600</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10600</v>
+        <v>15200</v>
       </c>
       <c r="E45" s="3">
-        <v>13900</v>
+        <v>10700</v>
       </c>
       <c r="F45" s="3">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="G45" s="3">
-        <v>18400</v>
+        <v>13700</v>
       </c>
       <c r="H45" s="3">
-        <v>9600</v>
+        <v>18600</v>
       </c>
       <c r="I45" s="3">
         <v>9700</v>
       </c>
       <c r="J45" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K45" s="3">
         <v>17700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>431400</v>
+        <v>438800</v>
       </c>
       <c r="E46" s="3">
-        <v>462100</v>
+        <v>436300</v>
       </c>
       <c r="F46" s="3">
-        <v>456100</v>
+        <v>467400</v>
       </c>
       <c r="G46" s="3">
-        <v>504900</v>
+        <v>461400</v>
       </c>
       <c r="H46" s="3">
-        <v>525000</v>
+        <v>510600</v>
       </c>
       <c r="I46" s="3">
-        <v>444500</v>
+        <v>531000</v>
       </c>
       <c r="J46" s="3">
+        <v>449600</v>
+      </c>
+      <c r="K46" s="3">
         <v>519400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>494200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>536800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>546500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>533700</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5000</v>
+        <v>11200</v>
       </c>
       <c r="E47" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="F47" s="3">
-        <v>11700</v>
+        <v>5500</v>
       </c>
       <c r="G47" s="3">
-        <v>7600</v>
+        <v>11900</v>
       </c>
       <c r="H47" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="I47" s="3">
-        <v>22500</v>
+        <v>7500</v>
       </c>
       <c r="J47" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K47" s="3">
         <v>23400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>23200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>24600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>24500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>370400</v>
+        <v>353700</v>
       </c>
       <c r="E48" s="3">
-        <v>383600</v>
+        <v>374600</v>
       </c>
       <c r="F48" s="3">
-        <v>383800</v>
+        <v>388000</v>
       </c>
       <c r="G48" s="3">
-        <v>396200</v>
+        <v>388200</v>
       </c>
       <c r="H48" s="3">
-        <v>397100</v>
+        <v>400800</v>
       </c>
       <c r="I48" s="3">
-        <v>374900</v>
+        <v>401700</v>
       </c>
       <c r="J48" s="3">
+        <v>379200</v>
+      </c>
+      <c r="K48" s="3">
         <v>337100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>309600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>317500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>314700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>357500</v>
+        <v>356300</v>
       </c>
       <c r="E49" s="3">
-        <v>369100</v>
+        <v>361600</v>
       </c>
       <c r="F49" s="3">
-        <v>494100</v>
+        <v>373300</v>
       </c>
       <c r="G49" s="3">
-        <v>573800</v>
+        <v>499800</v>
       </c>
       <c r="H49" s="3">
-        <v>576300</v>
+        <v>580300</v>
       </c>
       <c r="I49" s="3">
-        <v>374000</v>
+        <v>582900</v>
       </c>
       <c r="J49" s="3">
+        <v>378300</v>
+      </c>
+      <c r="K49" s="3">
         <v>385000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>354200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>380100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>378700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2329,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>28800</v>
+        <v>29200</v>
       </c>
       <c r="E52" s="3">
-        <v>30400</v>
+        <v>29100</v>
       </c>
       <c r="F52" s="3">
-        <v>32600</v>
+        <v>30700</v>
       </c>
       <c r="G52" s="3">
-        <v>27100</v>
+        <v>33000</v>
       </c>
       <c r="H52" s="3">
-        <v>25900</v>
+        <v>27400</v>
       </c>
       <c r="I52" s="3">
-        <v>33200</v>
+        <v>26200</v>
       </c>
       <c r="J52" s="3">
+        <v>33600</v>
+      </c>
+      <c r="K52" s="3">
         <v>30600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>29800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>31500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>29700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1193100</v>
+        <v>1189200</v>
       </c>
       <c r="E54" s="3">
-        <v>1250500</v>
+        <v>1206800</v>
       </c>
       <c r="F54" s="3">
-        <v>1378400</v>
+        <v>1264800</v>
       </c>
       <c r="G54" s="3">
-        <v>1509500</v>
+        <v>1394200</v>
       </c>
       <c r="H54" s="3">
-        <v>1531800</v>
+        <v>1526900</v>
       </c>
       <c r="I54" s="3">
-        <v>1249100</v>
+        <v>1549400</v>
       </c>
       <c r="J54" s="3">
+        <v>1263400</v>
+      </c>
+      <c r="K54" s="3">
         <v>1295500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1210900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1290500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1294000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1278200</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,236 +2488,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>137700</v>
+        <v>151900</v>
       </c>
       <c r="E57" s="3">
-        <v>145000</v>
+        <v>139300</v>
       </c>
       <c r="F57" s="3">
-        <v>135100</v>
+        <v>146600</v>
       </c>
       <c r="G57" s="3">
-        <v>171600</v>
+        <v>136600</v>
       </c>
       <c r="H57" s="3">
-        <v>169200</v>
+        <v>173600</v>
       </c>
       <c r="I57" s="3">
-        <v>172700</v>
+        <v>171100</v>
       </c>
       <c r="J57" s="3">
+        <v>174700</v>
+      </c>
+      <c r="K57" s="3">
         <v>157400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>146000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>165000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>160400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>151300</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>347800</v>
+        <v>15600</v>
       </c>
       <c r="E58" s="3">
-        <v>17100</v>
+        <v>351800</v>
       </c>
       <c r="F58" s="3">
-        <v>16300</v>
+        <v>17300</v>
       </c>
       <c r="G58" s="3">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="H58" s="3">
-        <v>14800</v>
+        <v>14600</v>
       </c>
       <c r="I58" s="3">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="J58" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>74800</v>
+        <v>71000</v>
       </c>
       <c r="E59" s="3">
-        <v>70200</v>
+        <v>75700</v>
       </c>
       <c r="F59" s="3">
-        <v>74700</v>
+        <v>71000</v>
       </c>
       <c r="G59" s="3">
-        <v>67000</v>
+        <v>75600</v>
       </c>
       <c r="H59" s="3">
-        <v>74300</v>
+        <v>67800</v>
       </c>
       <c r="I59" s="3">
-        <v>63300</v>
+        <v>75200</v>
       </c>
       <c r="J59" s="3">
+        <v>64100</v>
+      </c>
+      <c r="K59" s="3">
         <v>61800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>69600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>76700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>85900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>560300</v>
+        <v>238500</v>
       </c>
       <c r="E60" s="3">
-        <v>232300</v>
+        <v>566700</v>
       </c>
       <c r="F60" s="3">
-        <v>226100</v>
+        <v>234900</v>
       </c>
       <c r="G60" s="3">
-        <v>253100</v>
+        <v>228700</v>
       </c>
       <c r="H60" s="3">
-        <v>258300</v>
+        <v>256000</v>
       </c>
       <c r="I60" s="3">
-        <v>250100</v>
+        <v>261300</v>
       </c>
       <c r="J60" s="3">
+        <v>252900</v>
+      </c>
+      <c r="K60" s="3">
         <v>220100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>215700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>242200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>246900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>249200</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>51800</v>
+        <v>382500</v>
       </c>
       <c r="E61" s="3">
-        <v>381700</v>
+        <v>52400</v>
       </c>
       <c r="F61" s="3">
-        <v>383000</v>
+        <v>386100</v>
       </c>
       <c r="G61" s="3">
-        <v>389800</v>
+        <v>387400</v>
       </c>
       <c r="H61" s="3">
-        <v>405800</v>
+        <v>394200</v>
       </c>
       <c r="I61" s="3">
-        <v>165000</v>
+        <v>410500</v>
       </c>
       <c r="J61" s="3">
+        <v>166900</v>
+      </c>
+      <c r="K61" s="3">
         <v>211700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>192500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>202900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>199100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>193500</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>40200</v>
+        <v>40800</v>
       </c>
       <c r="E62" s="3">
-        <v>47200</v>
+        <v>40700</v>
       </c>
       <c r="F62" s="3">
-        <v>46300</v>
+        <v>47800</v>
       </c>
       <c r="G62" s="3">
-        <v>64600</v>
+        <v>46800</v>
       </c>
       <c r="H62" s="3">
-        <v>61800</v>
+        <v>65300</v>
       </c>
       <c r="I62" s="3">
-        <v>45600</v>
+        <v>62500</v>
       </c>
       <c r="J62" s="3">
+        <v>46100</v>
+      </c>
+      <c r="K62" s="3">
         <v>49500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>47700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>49700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>47500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>49100</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>655700</v>
+        <v>665000</v>
       </c>
       <c r="E66" s="3">
-        <v>664800</v>
+        <v>663200</v>
       </c>
       <c r="F66" s="3">
-        <v>658900</v>
+        <v>672500</v>
       </c>
       <c r="G66" s="3">
-        <v>711100</v>
+        <v>666500</v>
       </c>
       <c r="H66" s="3">
-        <v>729900</v>
+        <v>719200</v>
       </c>
       <c r="I66" s="3">
-        <v>464600</v>
+        <v>738300</v>
       </c>
       <c r="J66" s="3">
+        <v>469900</v>
+      </c>
+      <c r="K66" s="3">
         <v>485500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>459400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>498900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>498100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>496100</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-67900</v>
+        <v>-82800</v>
       </c>
       <c r="E72" s="3">
-        <v>-39900</v>
+        <v>-68700</v>
       </c>
       <c r="F72" s="3">
-        <v>146900</v>
+        <v>-40400</v>
       </c>
       <c r="G72" s="3">
-        <v>217200</v>
+        <v>148600</v>
       </c>
       <c r="H72" s="3">
-        <v>220200</v>
+        <v>219700</v>
       </c>
       <c r="I72" s="3">
-        <v>189400</v>
+        <v>222700</v>
       </c>
       <c r="J72" s="3">
+        <v>191500</v>
+      </c>
+      <c r="K72" s="3">
         <v>206600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>201700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>223100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>223500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>227500</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>537500</v>
+        <v>524100</v>
       </c>
       <c r="E76" s="3">
-        <v>585700</v>
+        <v>543600</v>
       </c>
       <c r="F76" s="3">
-        <v>719500</v>
+        <v>592400</v>
       </c>
       <c r="G76" s="3">
-        <v>798500</v>
+        <v>727700</v>
       </c>
       <c r="H76" s="3">
-        <v>801900</v>
+        <v>807600</v>
       </c>
       <c r="I76" s="3">
-        <v>784500</v>
+        <v>811100</v>
       </c>
       <c r="J76" s="3">
+        <v>793500</v>
+      </c>
+      <c r="K76" s="3">
         <v>810000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>751500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>791500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>795900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>782100</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-28000</v>
+        <v>-14100</v>
       </c>
       <c r="E81" s="3">
-        <v>-178800</v>
+        <v>-28300</v>
       </c>
       <c r="F81" s="3">
-        <v>-62200</v>
+        <v>-180800</v>
       </c>
       <c r="G81" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="H81" s="3">
         <v>5000</v>
       </c>
-      <c r="H81" s="3">
-        <v>38800</v>
-      </c>
       <c r="I81" s="3">
-        <v>-6900</v>
+        <v>39300</v>
       </c>
       <c r="J81" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K81" s="3">
         <v>3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3429,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>17800</v>
+        <v>17200</v>
       </c>
       <c r="E83" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>19200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>21600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K83" s="3">
+        <v>15100</v>
+      </c>
+      <c r="L83" s="3">
+        <v>12500</v>
+      </c>
+      <c r="M83" s="3">
+        <v>16400</v>
+      </c>
+      <c r="N83" s="3">
+        <v>18400</v>
+      </c>
+      <c r="O83" s="3">
         <v>18700</v>
       </c>
-      <c r="F83" s="3">
-        <v>20800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>19000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>21300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>15700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>15100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>12500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>16400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>18400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>18700</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>20300</v>
+        <v>5600</v>
       </c>
       <c r="E89" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
-        <v>37300</v>
-      </c>
       <c r="G89" s="3">
-        <v>6200</v>
+        <v>37700</v>
       </c>
       <c r="H89" s="3">
-        <v>-15900</v>
+        <v>6300</v>
       </c>
       <c r="I89" s="3">
-        <v>13700</v>
+        <v>-16100</v>
       </c>
       <c r="J89" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K89" s="3">
         <v>39100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-14600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-21800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3733,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="E91" s="3">
-        <v>-7500</v>
+        <v>-2900</v>
       </c>
       <c r="F91" s="3">
-        <v>-7800</v>
+        <v>-7600</v>
       </c>
       <c r="G91" s="3">
-        <v>-7600</v>
+        <v>-7900</v>
       </c>
       <c r="H91" s="3">
-        <v>-6900</v>
+        <v>-7700</v>
       </c>
       <c r="I91" s="3">
-        <v>-11700</v>
+        <v>-7000</v>
       </c>
       <c r="J91" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-19200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1100</v>
+        <v>2100</v>
       </c>
       <c r="E94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>-5500</v>
-      </c>
       <c r="G94" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1800</v>
       </c>
-      <c r="H94" s="3">
-        <v>-171500</v>
-      </c>
       <c r="I94" s="3">
-        <v>-13200</v>
+        <v>-173400</v>
       </c>
       <c r="J94" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-17200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3690,28 +3924,28 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-8000</v>
       </c>
-      <c r="F96" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-7600</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-7900</v>
       </c>
       <c r="M96" s="3">
         <v>-7900</v>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>-7900</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>-7900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,118 +4076,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4300</v>
+        <v>-5100</v>
       </c>
       <c r="E100" s="3">
-        <v>-12800</v>
+        <v>-4400</v>
       </c>
       <c r="F100" s="3">
-        <v>-20200</v>
+        <v>-13000</v>
       </c>
       <c r="G100" s="3">
-        <v>-34100</v>
+        <v>-20400</v>
       </c>
       <c r="H100" s="3">
-        <v>206000</v>
+        <v>-34500</v>
       </c>
       <c r="I100" s="3">
-        <v>-89600</v>
+        <v>208400</v>
       </c>
       <c r="J100" s="3">
+        <v>-90600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-7900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1500</v>
+        <v>-300</v>
       </c>
       <c r="E101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F101" s="3">
         <v>3900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-900</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>6600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>13200</v>
+        <v>2400</v>
       </c>
       <c r="E102" s="3">
-        <v>-9000</v>
+        <v>13400</v>
       </c>
       <c r="F102" s="3">
-        <v>12100</v>
+        <v>-9100</v>
       </c>
       <c r="G102" s="3">
+        <v>12300</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="I102" s="3">
+        <v>18900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-91900</v>
+      </c>
+      <c r="K102" s="3">
+        <v>20600</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="N102" s="3">
         <v>-30600</v>
       </c>
-      <c r="H102" s="3">
-        <v>18700</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-90800</v>
-      </c>
-      <c r="J102" s="3">
-        <v>20600</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-37500</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-30600</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>58500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>SAWLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>206100</v>
+        <v>258300</v>
       </c>
       <c r="E8" s="3">
-        <v>204800</v>
+        <v>212300</v>
       </c>
       <c r="F8" s="3">
-        <v>245600</v>
+        <v>211000</v>
       </c>
       <c r="G8" s="3">
-        <v>257200</v>
+        <v>253000</v>
       </c>
       <c r="H8" s="3">
-        <v>303300</v>
+        <v>264900</v>
       </c>
       <c r="I8" s="3">
-        <v>317000</v>
+        <v>312400</v>
       </c>
       <c r="J8" s="3">
+        <v>326600</v>
+      </c>
+      <c r="K8" s="3">
         <v>269100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>269500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>254800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>266000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>264100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>148800</v>
+        <v>182800</v>
       </c>
       <c r="E9" s="3">
-        <v>152700</v>
+        <v>153300</v>
       </c>
       <c r="F9" s="3">
-        <v>179900</v>
+        <v>157300</v>
       </c>
       <c r="G9" s="3">
-        <v>182700</v>
+        <v>185300</v>
       </c>
       <c r="H9" s="3">
-        <v>215100</v>
+        <v>188200</v>
       </c>
       <c r="I9" s="3">
-        <v>226600</v>
+        <v>221600</v>
       </c>
       <c r="J9" s="3">
+        <v>233400</v>
+      </c>
+      <c r="K9" s="3">
         <v>193500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>193600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>179600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>180200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>176100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>57200</v>
+        <v>75500</v>
       </c>
       <c r="E10" s="3">
-        <v>52200</v>
+        <v>59000</v>
       </c>
       <c r="F10" s="3">
-        <v>65600</v>
+        <v>53700</v>
       </c>
       <c r="G10" s="3">
-        <v>74500</v>
+        <v>67600</v>
       </c>
       <c r="H10" s="3">
-        <v>88200</v>
+        <v>76800</v>
       </c>
       <c r="I10" s="3">
-        <v>90400</v>
+        <v>90900</v>
       </c>
       <c r="J10" s="3">
+        <v>93100</v>
+      </c>
+      <c r="K10" s="3">
         <v>75600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>75900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>75200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>85800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>88000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="3">
         <v>1800</v>
       </c>
-      <c r="E12" s="3">
-        <v>2600</v>
-      </c>
       <c r="F12" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="G12" s="3">
-        <v>1700</v>
+        <v>2700</v>
       </c>
       <c r="H12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I12" s="3">
         <v>2900</v>
       </c>
-      <c r="I12" s="3">
-        <v>2600</v>
-      </c>
       <c r="J12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K12" s="3">
         <v>2500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,90 +966,99 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>6900</v>
+        <v>5000</v>
       </c>
       <c r="E14" s="3">
-        <v>7700</v>
+        <v>7100</v>
       </c>
       <c r="F14" s="3">
-        <v>156700</v>
+        <v>7900</v>
       </c>
       <c r="G14" s="3">
-        <v>81400</v>
+        <v>161400</v>
       </c>
       <c r="H14" s="3">
+        <v>83800</v>
+      </c>
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>10000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2100</v>
-      </c>
-      <c r="L14" s="3">
-        <v>600</v>
       </c>
       <c r="M14" s="3">
         <v>600</v>
       </c>
       <c r="N14" s="3">
+        <v>600</v>
+      </c>
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>17200</v>
+        <v>17700</v>
       </c>
       <c r="E15" s="3">
-        <v>18000</v>
+        <v>17700</v>
       </c>
       <c r="F15" s="3">
-        <v>18900</v>
+        <v>18500</v>
       </c>
       <c r="G15" s="3">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="H15" s="3">
-        <v>19200</v>
+        <v>21600</v>
       </c>
       <c r="I15" s="3">
-        <v>21600</v>
+        <v>19800</v>
       </c>
       <c r="J15" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K15" s="3">
         <v>15900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>15100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>12500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>16400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>18400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>221200</v>
+        <v>246000</v>
       </c>
       <c r="E17" s="3">
-        <v>233000</v>
+        <v>227900</v>
       </c>
       <c r="F17" s="3">
-        <v>416700</v>
+        <v>240000</v>
       </c>
       <c r="G17" s="3">
-        <v>335800</v>
+        <v>429300</v>
       </c>
       <c r="H17" s="3">
-        <v>290500</v>
+        <v>346000</v>
       </c>
       <c r="I17" s="3">
-        <v>295300</v>
+        <v>299300</v>
       </c>
       <c r="J17" s="3">
+        <v>304200</v>
+      </c>
+      <c r="K17" s="3">
         <v>273200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>264500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>243000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>256400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>256300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>295400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-15100</v>
+        <v>12200</v>
       </c>
       <c r="E18" s="3">
-        <v>-28100</v>
+        <v>-15600</v>
       </c>
       <c r="F18" s="3">
-        <v>-171200</v>
+        <v>-29000</v>
       </c>
       <c r="G18" s="3">
-        <v>-78600</v>
+        <v>-176300</v>
       </c>
       <c r="H18" s="3">
-        <v>12800</v>
+        <v>-81000</v>
       </c>
       <c r="I18" s="3">
-        <v>21700</v>
+        <v>13200</v>
       </c>
       <c r="J18" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1145,213 +1177,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>6200</v>
+        <v>43200</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>4500</v>
-      </c>
       <c r="H20" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>7600</v>
-      </c>
       <c r="J20" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>800</v>
       </c>
       <c r="M20" s="3">
         <v>800</v>
       </c>
       <c r="N20" s="3">
+        <v>800</v>
+      </c>
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>8300</v>
+        <v>73000</v>
       </c>
       <c r="E21" s="3">
-        <v>-10200</v>
+        <v>8500</v>
       </c>
       <c r="F21" s="3">
-        <v>-152000</v>
+        <v>-10500</v>
       </c>
       <c r="G21" s="3">
-        <v>-53200</v>
+        <v>-156500</v>
       </c>
       <c r="H21" s="3">
-        <v>32300</v>
+        <v>-54800</v>
       </c>
       <c r="I21" s="3">
-        <v>50900</v>
+        <v>33200</v>
       </c>
       <c r="J21" s="3">
+        <v>52400</v>
+      </c>
+      <c r="K21" s="3">
         <v>11900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>20400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>25100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>26800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>26700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>5100</v>
+        <v>5800</v>
       </c>
       <c r="E22" s="3">
-        <v>4000</v>
+        <v>5300</v>
       </c>
       <c r="F22" s="3">
-        <v>4900</v>
+        <v>4200</v>
       </c>
       <c r="G22" s="3">
-        <v>4600</v>
+        <v>5000</v>
       </c>
       <c r="H22" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="I22" s="3">
-        <v>4600</v>
+        <v>5300</v>
       </c>
       <c r="J22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K22" s="3">
         <v>3400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-14100</v>
+        <v>49500</v>
       </c>
       <c r="E23" s="3">
-        <v>-32200</v>
+        <v>-14500</v>
       </c>
       <c r="F23" s="3">
-        <v>-175800</v>
+        <v>-33100</v>
       </c>
       <c r="G23" s="3">
-        <v>-78800</v>
+        <v>-181100</v>
       </c>
       <c r="H23" s="3">
-        <v>7900</v>
+        <v>-81200</v>
       </c>
       <c r="I23" s="3">
-        <v>24700</v>
+        <v>8200</v>
       </c>
       <c r="J23" s="3">
+        <v>25500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-7300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>-3800</v>
-      </c>
       <c r="F24" s="3">
-        <v>5200</v>
+        <v>-3900</v>
       </c>
       <c r="G24" s="3">
-        <v>-15700</v>
+        <v>5300</v>
       </c>
       <c r="H24" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O24" s="3">
         <v>2700</v>
       </c>
-      <c r="I24" s="3">
-        <v>-14400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>2400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1900</v>
-      </c>
-      <c r="N24" s="3">
-        <v>2700</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-14200</v>
+        <v>44300</v>
       </c>
       <c r="E26" s="3">
-        <v>-28400</v>
+        <v>-14600</v>
       </c>
       <c r="F26" s="3">
-        <v>-181000</v>
+        <v>-29300</v>
       </c>
       <c r="G26" s="3">
-        <v>-63100</v>
+        <v>-186400</v>
       </c>
       <c r="H26" s="3">
-        <v>5200</v>
+        <v>-65000</v>
       </c>
       <c r="I26" s="3">
-        <v>39200</v>
+        <v>5400</v>
       </c>
       <c r="J26" s="3">
+        <v>40400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-6900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-14100</v>
+        <v>44300</v>
       </c>
       <c r="E27" s="3">
-        <v>-28300</v>
+        <v>-14500</v>
       </c>
       <c r="F27" s="3">
-        <v>-180800</v>
+        <v>-29200</v>
       </c>
       <c r="G27" s="3">
-        <v>-63000</v>
+        <v>-186300</v>
       </c>
       <c r="H27" s="3">
-        <v>5000</v>
+        <v>-64900</v>
       </c>
       <c r="I27" s="3">
-        <v>39300</v>
+        <v>5200</v>
       </c>
       <c r="J27" s="3">
+        <v>40500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-7000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1540,11 +1600,11 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -1552,11 +1612,14 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6200</v>
+        <v>-43200</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-6400</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>-4500</v>
-      </c>
       <c r="H32" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>-7600</v>
-      </c>
       <c r="J32" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-800</v>
       </c>
       <c r="M32" s="3">
         <v>-800</v>
       </c>
       <c r="N32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-14100</v>
+        <v>44300</v>
       </c>
       <c r="E33" s="3">
-        <v>-28300</v>
+        <v>-14500</v>
       </c>
       <c r="F33" s="3">
-        <v>-180800</v>
+        <v>-29200</v>
       </c>
       <c r="G33" s="3">
-        <v>-63000</v>
+        <v>-186300</v>
       </c>
       <c r="H33" s="3">
-        <v>5000</v>
+        <v>-64900</v>
       </c>
       <c r="I33" s="3">
-        <v>39300</v>
+        <v>5200</v>
       </c>
       <c r="J33" s="3">
+        <v>40500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-7000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-14100</v>
+        <v>44300</v>
       </c>
       <c r="E35" s="3">
-        <v>-28300</v>
+        <v>-14500</v>
       </c>
       <c r="F35" s="3">
-        <v>-180800</v>
+        <v>-29200</v>
       </c>
       <c r="G35" s="3">
-        <v>-63000</v>
+        <v>-186300</v>
       </c>
       <c r="H35" s="3">
-        <v>5000</v>
+        <v>-64900</v>
       </c>
       <c r="I35" s="3">
-        <v>39300</v>
+        <v>5200</v>
       </c>
       <c r="J35" s="3">
+        <v>40500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-7000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>82200</v>
+        <v>170100</v>
       </c>
       <c r="E41" s="3">
-        <v>79800</v>
+        <v>84700</v>
       </c>
       <c r="F41" s="3">
-        <v>66500</v>
+        <v>82300</v>
       </c>
       <c r="G41" s="3">
-        <v>75600</v>
+        <v>68500</v>
       </c>
       <c r="H41" s="3">
-        <v>63300</v>
+        <v>77900</v>
       </c>
       <c r="I41" s="3">
-        <v>94200</v>
+        <v>65200</v>
       </c>
       <c r="J41" s="3">
+        <v>97100</v>
+      </c>
+      <c r="K41" s="3">
         <v>75400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>165400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>138300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>182000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>187000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1936,8 +2025,8 @@
       <c r="F42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1946,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>4000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1600</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>24</v>
@@ -1960,298 +2049,322 @@
       <c r="N42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>209200</v>
+        <v>210700</v>
       </c>
       <c r="E43" s="3">
-        <v>211400</v>
+        <v>215500</v>
       </c>
       <c r="F43" s="3">
-        <v>251200</v>
+        <v>217800</v>
       </c>
       <c r="G43" s="3">
-        <v>248300</v>
+        <v>258800</v>
       </c>
       <c r="H43" s="3">
-        <v>298500</v>
+        <v>255800</v>
       </c>
       <c r="I43" s="3">
-        <v>287700</v>
+        <v>307500</v>
       </c>
       <c r="J43" s="3">
+        <v>296400</v>
+      </c>
+      <c r="K43" s="3">
         <v>249400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>230500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>234100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>232400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>242500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>212700</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>132200</v>
+        <v>100200</v>
       </c>
       <c r="E44" s="3">
-        <v>134400</v>
+        <v>136200</v>
       </c>
       <c r="F44" s="3">
-        <v>135700</v>
+        <v>138400</v>
       </c>
       <c r="G44" s="3">
-        <v>123800</v>
+        <v>139700</v>
       </c>
       <c r="H44" s="3">
-        <v>130200</v>
+        <v>127500</v>
       </c>
       <c r="I44" s="3">
-        <v>139400</v>
+        <v>134100</v>
       </c>
       <c r="J44" s="3">
+        <v>143600</v>
+      </c>
+      <c r="K44" s="3">
         <v>111000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>104300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>100400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>104300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>95500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>86600</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15200</v>
+        <v>10400</v>
       </c>
       <c r="E45" s="3">
-        <v>10700</v>
+        <v>15600</v>
       </c>
       <c r="F45" s="3">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="G45" s="3">
-        <v>13700</v>
+        <v>14400</v>
       </c>
       <c r="H45" s="3">
-        <v>18600</v>
+        <v>14100</v>
       </c>
       <c r="I45" s="3">
-        <v>9700</v>
+        <v>19200</v>
       </c>
       <c r="J45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K45" s="3">
         <v>9800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>21500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>438800</v>
+        <v>491400</v>
       </c>
       <c r="E46" s="3">
-        <v>436300</v>
+        <v>452000</v>
       </c>
       <c r="F46" s="3">
-        <v>467400</v>
+        <v>449500</v>
       </c>
       <c r="G46" s="3">
-        <v>461400</v>
+        <v>481400</v>
       </c>
       <c r="H46" s="3">
-        <v>510600</v>
+        <v>475300</v>
       </c>
       <c r="I46" s="3">
-        <v>531000</v>
+        <v>526000</v>
       </c>
       <c r="J46" s="3">
+        <v>547000</v>
+      </c>
+      <c r="K46" s="3">
         <v>449600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>519400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>494200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>536800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>546500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>533700</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11200</v>
+        <v>9200</v>
       </c>
       <c r="E47" s="3">
-        <v>5100</v>
+        <v>11600</v>
       </c>
       <c r="F47" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="G47" s="3">
-        <v>11900</v>
+        <v>5600</v>
       </c>
       <c r="H47" s="3">
-        <v>7700</v>
+        <v>12200</v>
       </c>
       <c r="I47" s="3">
-        <v>7500</v>
+        <v>7900</v>
       </c>
       <c r="J47" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K47" s="3">
         <v>22700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>23400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>23200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>24600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>24500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>353700</v>
+        <v>339200</v>
       </c>
       <c r="E48" s="3">
-        <v>374600</v>
+        <v>364300</v>
       </c>
       <c r="F48" s="3">
-        <v>388000</v>
+        <v>385900</v>
       </c>
       <c r="G48" s="3">
-        <v>388200</v>
+        <v>399700</v>
       </c>
       <c r="H48" s="3">
-        <v>400800</v>
+        <v>399900</v>
       </c>
       <c r="I48" s="3">
-        <v>401700</v>
+        <v>412800</v>
       </c>
       <c r="J48" s="3">
+        <v>413800</v>
+      </c>
+      <c r="K48" s="3">
         <v>379200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>337100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>309600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>317500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>314700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>356300</v>
+        <v>342400</v>
       </c>
       <c r="E49" s="3">
-        <v>361600</v>
+        <v>367100</v>
       </c>
       <c r="F49" s="3">
-        <v>373300</v>
+        <v>372500</v>
       </c>
       <c r="G49" s="3">
-        <v>499800</v>
+        <v>384600</v>
       </c>
       <c r="H49" s="3">
-        <v>580300</v>
+        <v>514800</v>
       </c>
       <c r="I49" s="3">
-        <v>582900</v>
+        <v>597800</v>
       </c>
       <c r="J49" s="3">
+        <v>600500</v>
+      </c>
+      <c r="K49" s="3">
         <v>378300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>385000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>354200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>380100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>378700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>29200</v>
+        <v>27700</v>
       </c>
       <c r="E52" s="3">
-        <v>29100</v>
+        <v>30000</v>
       </c>
       <c r="F52" s="3">
-        <v>30700</v>
+        <v>30000</v>
       </c>
       <c r="G52" s="3">
-        <v>33000</v>
+        <v>31600</v>
       </c>
       <c r="H52" s="3">
-        <v>27400</v>
+        <v>34000</v>
       </c>
       <c r="I52" s="3">
-        <v>26200</v>
+        <v>28200</v>
       </c>
       <c r="J52" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K52" s="3">
         <v>33600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>30600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>29800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>31500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>29700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1189200</v>
+        <v>1209800</v>
       </c>
       <c r="E54" s="3">
-        <v>1206800</v>
+        <v>1225000</v>
       </c>
       <c r="F54" s="3">
-        <v>1264800</v>
+        <v>1243200</v>
       </c>
       <c r="G54" s="3">
-        <v>1394200</v>
+        <v>1302900</v>
       </c>
       <c r="H54" s="3">
-        <v>1526900</v>
+        <v>1436200</v>
       </c>
       <c r="I54" s="3">
-        <v>1549400</v>
+        <v>1572900</v>
       </c>
       <c r="J54" s="3">
+        <v>1596100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1263400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1295500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1210900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1290500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1294000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1278200</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,254 +2618,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>151900</v>
+        <v>140500</v>
       </c>
       <c r="E57" s="3">
-        <v>139300</v>
+        <v>156500</v>
       </c>
       <c r="F57" s="3">
-        <v>146600</v>
+        <v>143500</v>
       </c>
       <c r="G57" s="3">
-        <v>136600</v>
+        <v>151000</v>
       </c>
       <c r="H57" s="3">
-        <v>173600</v>
+        <v>140700</v>
       </c>
       <c r="I57" s="3">
-        <v>171100</v>
+        <v>178800</v>
       </c>
       <c r="J57" s="3">
+        <v>176300</v>
+      </c>
+      <c r="K57" s="3">
         <v>174700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>157400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>146000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>165000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>160400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>151300</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15600</v>
+        <v>14700</v>
       </c>
       <c r="E58" s="3">
-        <v>351800</v>
+        <v>16100</v>
       </c>
       <c r="F58" s="3">
-        <v>17300</v>
+        <v>362400</v>
       </c>
       <c r="G58" s="3">
-        <v>16500</v>
+        <v>17800</v>
       </c>
       <c r="H58" s="3">
-        <v>14600</v>
+        <v>17000</v>
       </c>
       <c r="I58" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="J58" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K58" s="3">
         <v>14200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>71000</v>
+        <v>58600</v>
       </c>
       <c r="E59" s="3">
-        <v>75700</v>
+        <v>73100</v>
       </c>
       <c r="F59" s="3">
-        <v>71000</v>
+        <v>77900</v>
       </c>
       <c r="G59" s="3">
-        <v>75600</v>
+        <v>73200</v>
       </c>
       <c r="H59" s="3">
-        <v>67800</v>
+        <v>77800</v>
       </c>
       <c r="I59" s="3">
-        <v>75200</v>
+        <v>69800</v>
       </c>
       <c r="J59" s="3">
+        <v>77400</v>
+      </c>
+      <c r="K59" s="3">
         <v>64100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>61800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>69600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>76700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>85900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>238500</v>
+        <v>213800</v>
       </c>
       <c r="E60" s="3">
-        <v>566700</v>
+        <v>245700</v>
       </c>
       <c r="F60" s="3">
-        <v>234900</v>
+        <v>583800</v>
       </c>
       <c r="G60" s="3">
-        <v>228700</v>
+        <v>242000</v>
       </c>
       <c r="H60" s="3">
-        <v>256000</v>
+        <v>235600</v>
       </c>
       <c r="I60" s="3">
-        <v>261300</v>
+        <v>263700</v>
       </c>
       <c r="J60" s="3">
+        <v>269200</v>
+      </c>
+      <c r="K60" s="3">
         <v>252900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>220100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>215700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>242200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>246900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>249200</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>382500</v>
+        <v>386200</v>
       </c>
       <c r="E61" s="3">
-        <v>52400</v>
+        <v>394100</v>
       </c>
       <c r="F61" s="3">
-        <v>386100</v>
+        <v>54000</v>
       </c>
       <c r="G61" s="3">
-        <v>387400</v>
+        <v>397700</v>
       </c>
       <c r="H61" s="3">
-        <v>394200</v>
+        <v>399100</v>
       </c>
       <c r="I61" s="3">
-        <v>410500</v>
+        <v>406100</v>
       </c>
       <c r="J61" s="3">
+        <v>422800</v>
+      </c>
+      <c r="K61" s="3">
         <v>166900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>211700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>192500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>202900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>199100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>193500</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>40800</v>
+        <v>41500</v>
       </c>
       <c r="E62" s="3">
-        <v>40700</v>
+        <v>42000</v>
       </c>
       <c r="F62" s="3">
-        <v>47800</v>
+        <v>41900</v>
       </c>
       <c r="G62" s="3">
-        <v>46800</v>
+        <v>49200</v>
       </c>
       <c r="H62" s="3">
-        <v>65300</v>
+        <v>48200</v>
       </c>
       <c r="I62" s="3">
-        <v>62500</v>
+        <v>67300</v>
       </c>
       <c r="J62" s="3">
+        <v>64400</v>
+      </c>
+      <c r="K62" s="3">
         <v>46100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>49500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>47700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>49700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>47500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>49100</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>665000</v>
+        <v>644600</v>
       </c>
       <c r="E66" s="3">
-        <v>663200</v>
+        <v>685100</v>
       </c>
       <c r="F66" s="3">
-        <v>672500</v>
+        <v>683200</v>
       </c>
       <c r="G66" s="3">
-        <v>666500</v>
+        <v>692700</v>
       </c>
       <c r="H66" s="3">
-        <v>719200</v>
+        <v>686600</v>
       </c>
       <c r="I66" s="3">
-        <v>738300</v>
+        <v>740900</v>
       </c>
       <c r="J66" s="3">
+        <v>760600</v>
+      </c>
+      <c r="K66" s="3">
         <v>469900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>485500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>459400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>498900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>498100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>496100</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-82800</v>
+        <v>-41000</v>
       </c>
       <c r="E72" s="3">
-        <v>-68700</v>
+        <v>-85300</v>
       </c>
       <c r="F72" s="3">
-        <v>-40400</v>
+        <v>-70700</v>
       </c>
       <c r="G72" s="3">
-        <v>148600</v>
+        <v>-41600</v>
       </c>
       <c r="H72" s="3">
-        <v>219700</v>
+        <v>153100</v>
       </c>
       <c r="I72" s="3">
-        <v>222700</v>
+        <v>226300</v>
       </c>
       <c r="J72" s="3">
+        <v>229400</v>
+      </c>
+      <c r="K72" s="3">
         <v>191500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>206600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>201700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>223100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>223500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>227500</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>524100</v>
+        <v>565200</v>
       </c>
       <c r="E76" s="3">
-        <v>543600</v>
+        <v>539900</v>
       </c>
       <c r="F76" s="3">
-        <v>592400</v>
+        <v>560000</v>
       </c>
       <c r="G76" s="3">
-        <v>727700</v>
+        <v>610200</v>
       </c>
       <c r="H76" s="3">
-        <v>807600</v>
+        <v>749600</v>
       </c>
       <c r="I76" s="3">
-        <v>811100</v>
+        <v>832000</v>
       </c>
       <c r="J76" s="3">
+        <v>835500</v>
+      </c>
+      <c r="K76" s="3">
         <v>793500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>810000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>751500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>791500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>795900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>782100</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-14100</v>
+        <v>44300</v>
       </c>
       <c r="E81" s="3">
-        <v>-28300</v>
+        <v>-14500</v>
       </c>
       <c r="F81" s="3">
-        <v>-180800</v>
+        <v>-29200</v>
       </c>
       <c r="G81" s="3">
-        <v>-63000</v>
+        <v>-186300</v>
       </c>
       <c r="H81" s="3">
-        <v>5000</v>
+        <v>-64900</v>
       </c>
       <c r="I81" s="3">
-        <v>39300</v>
+        <v>5200</v>
       </c>
       <c r="J81" s="3">
+        <v>40500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-7000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>17200</v>
+        <v>17700</v>
       </c>
       <c r="E83" s="3">
-        <v>18000</v>
+        <v>17700</v>
       </c>
       <c r="F83" s="3">
-        <v>18900</v>
+        <v>18500</v>
       </c>
       <c r="G83" s="3">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="H83" s="3">
-        <v>19200</v>
+        <v>21600</v>
       </c>
       <c r="I83" s="3">
-        <v>21600</v>
+        <v>19800</v>
       </c>
       <c r="J83" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K83" s="3">
         <v>15900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>18400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5600</v>
+        <v>8300</v>
       </c>
       <c r="E89" s="3">
-        <v>20500</v>
+        <v>5800</v>
       </c>
       <c r="F89" s="3">
+        <v>21100</v>
+      </c>
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
-        <v>37700</v>
-      </c>
       <c r="H89" s="3">
-        <v>6300</v>
+        <v>38900</v>
       </c>
       <c r="I89" s="3">
-        <v>-16100</v>
+        <v>6500</v>
       </c>
       <c r="J89" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="K89" s="3">
         <v>13800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>39100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-14600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>21300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-21800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2600</v>
       </c>
-      <c r="E91" s="3">
-        <v>-2900</v>
-      </c>
       <c r="F91" s="3">
-        <v>-7600</v>
+        <v>-3000</v>
       </c>
       <c r="G91" s="3">
-        <v>-7900</v>
+        <v>-7800</v>
       </c>
       <c r="H91" s="3">
-        <v>-7700</v>
+        <v>-8200</v>
       </c>
       <c r="I91" s="3">
-        <v>-7000</v>
+        <v>-8000</v>
       </c>
       <c r="J91" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-11900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-17100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>2100</v>
+        <v>83700</v>
       </c>
       <c r="E94" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>-5600</v>
-      </c>
       <c r="H94" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1800</v>
       </c>
-      <c r="I94" s="3">
-        <v>-173400</v>
-      </c>
       <c r="J94" s="3">
+        <v>-178700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-13400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-17200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3927,28 +4160,28 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-8100</v>
       </c>
-      <c r="G96" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-7600</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-7900</v>
       </c>
       <c r="N96" s="3">
         <v>-7900</v>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>-7900</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>-7900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5100</v>
+        <v>-6100</v>
       </c>
       <c r="E100" s="3">
-        <v>-4400</v>
+        <v>-5200</v>
       </c>
       <c r="F100" s="3">
-        <v>-13000</v>
+        <v>-4500</v>
       </c>
       <c r="G100" s="3">
-        <v>-20400</v>
+        <v>-13400</v>
       </c>
       <c r="H100" s="3">
-        <v>-34500</v>
+        <v>-21000</v>
       </c>
       <c r="I100" s="3">
-        <v>208400</v>
+        <v>-35500</v>
       </c>
       <c r="J100" s="3">
+        <v>214700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-90600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1600</v>
       </c>
-      <c r="F101" s="3">
-        <v>3900</v>
-      </c>
       <c r="G101" s="3">
-        <v>500</v>
+        <v>4100</v>
       </c>
       <c r="H101" s="3">
-        <v>-900</v>
+        <v>600</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2400</v>
+        <v>85400</v>
       </c>
       <c r="E102" s="3">
-        <v>13400</v>
+        <v>2500</v>
       </c>
       <c r="F102" s="3">
-        <v>-9100</v>
+        <v>13800</v>
       </c>
       <c r="G102" s="3">
-        <v>12300</v>
+        <v>-9400</v>
       </c>
       <c r="H102" s="3">
-        <v>-30900</v>
+        <v>12700</v>
       </c>
       <c r="I102" s="3">
-        <v>18900</v>
+        <v>-31800</v>
       </c>
       <c r="J102" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-91900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>20600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-37500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-30600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>58500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>SAWLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>258300</v>
+        <v>231600</v>
       </c>
       <c r="E8" s="3">
-        <v>212300</v>
+        <v>270000</v>
       </c>
       <c r="F8" s="3">
-        <v>211000</v>
+        <v>221900</v>
       </c>
       <c r="G8" s="3">
-        <v>253000</v>
+        <v>220600</v>
       </c>
       <c r="H8" s="3">
-        <v>264900</v>
+        <v>264500</v>
       </c>
       <c r="I8" s="3">
-        <v>312400</v>
+        <v>277000</v>
       </c>
       <c r="J8" s="3">
         <v>326600</v>
       </c>
       <c r="K8" s="3">
+        <v>326600</v>
+      </c>
+      <c r="L8" s="3">
         <v>269100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>269500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>254800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>266000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>264100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>182800</v>
+        <v>171300</v>
       </c>
       <c r="E9" s="3">
-        <v>153300</v>
+        <v>191100</v>
       </c>
       <c r="F9" s="3">
-        <v>157300</v>
+        <v>160300</v>
       </c>
       <c r="G9" s="3">
-        <v>185300</v>
+        <v>164400</v>
       </c>
       <c r="H9" s="3">
-        <v>188200</v>
+        <v>193800</v>
       </c>
       <c r="I9" s="3">
-        <v>221600</v>
+        <v>196700</v>
       </c>
       <c r="J9" s="3">
+        <v>231600</v>
+      </c>
+      <c r="K9" s="3">
         <v>233400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>193500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>193600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>179600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>180200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>176100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>75500</v>
+        <v>60300</v>
       </c>
       <c r="E10" s="3">
-        <v>59000</v>
+        <v>78900</v>
       </c>
       <c r="F10" s="3">
-        <v>53700</v>
+        <v>61600</v>
       </c>
       <c r="G10" s="3">
-        <v>67600</v>
+        <v>56200</v>
       </c>
       <c r="H10" s="3">
-        <v>76800</v>
+        <v>70700</v>
       </c>
       <c r="I10" s="3">
-        <v>90900</v>
+        <v>80200</v>
       </c>
       <c r="J10" s="3">
+        <v>95000</v>
+      </c>
+      <c r="K10" s="3">
         <v>93100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>75600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>75900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>75200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>85800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>88000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="E12" s="3">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="F12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K12" s="3">
         <v>2700</v>
       </c>
-      <c r="G12" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,96 +986,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="E14" s="3">
-        <v>7100</v>
+        <v>5200</v>
       </c>
       <c r="F14" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="G14" s="3">
-        <v>161400</v>
+        <v>8300</v>
       </c>
       <c r="H14" s="3">
-        <v>83800</v>
+        <v>168800</v>
       </c>
       <c r="I14" s="3">
+        <v>87600</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2100</v>
-      </c>
-      <c r="M14" s="3">
-        <v>600</v>
       </c>
       <c r="N14" s="3">
         <v>600</v>
       </c>
       <c r="O14" s="3">
+        <v>600</v>
+      </c>
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>17700</v>
+        <v>16600</v>
       </c>
       <c r="E15" s="3">
-        <v>17700</v>
+        <v>18500</v>
       </c>
       <c r="F15" s="3">
         <v>18500</v>
       </c>
       <c r="G15" s="3">
-        <v>19500</v>
+        <v>19400</v>
       </c>
       <c r="H15" s="3">
-        <v>21600</v>
+        <v>20400</v>
       </c>
       <c r="I15" s="3">
-        <v>19800</v>
+        <v>22600</v>
       </c>
       <c r="J15" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K15" s="3">
         <v>22200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>15900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>15100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>12500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>16400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>18400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>246000</v>
+        <v>236300</v>
       </c>
       <c r="E17" s="3">
-        <v>227900</v>
+        <v>257200</v>
       </c>
       <c r="F17" s="3">
-        <v>240000</v>
+        <v>238200</v>
       </c>
       <c r="G17" s="3">
-        <v>429300</v>
+        <v>250900</v>
       </c>
       <c r="H17" s="3">
-        <v>346000</v>
+        <v>448800</v>
       </c>
       <c r="I17" s="3">
-        <v>299300</v>
+        <v>361700</v>
       </c>
       <c r="J17" s="3">
+        <v>312900</v>
+      </c>
+      <c r="K17" s="3">
         <v>304200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>273200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>264500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>243000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>256400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>256300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>295400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>12200</v>
+        <v>-4800</v>
       </c>
       <c r="E18" s="3">
-        <v>-15600</v>
+        <v>12800</v>
       </c>
       <c r="F18" s="3">
-        <v>-29000</v>
+        <v>-16300</v>
       </c>
       <c r="G18" s="3">
-        <v>-176300</v>
+        <v>-30300</v>
       </c>
       <c r="H18" s="3">
-        <v>-81000</v>
+        <v>-184300</v>
       </c>
       <c r="I18" s="3">
-        <v>13200</v>
+        <v>-84700</v>
       </c>
       <c r="J18" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K18" s="3">
         <v>22300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,228 +1211,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>43200</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>6400</v>
+        <v>45100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>6700</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>4600</v>
-      </c>
       <c r="I20" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>800</v>
       </c>
       <c r="N20" s="3">
         <v>800</v>
       </c>
       <c r="O20" s="3">
+        <v>800</v>
+      </c>
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>73000</v>
+        <v>11700</v>
       </c>
       <c r="E21" s="3">
-        <v>8500</v>
+        <v>76400</v>
       </c>
       <c r="F21" s="3">
-        <v>-10500</v>
+        <v>8900</v>
       </c>
       <c r="G21" s="3">
-        <v>-156500</v>
+        <v>-10900</v>
       </c>
       <c r="H21" s="3">
-        <v>-54800</v>
+        <v>-163700</v>
       </c>
       <c r="I21" s="3">
-        <v>33200</v>
+        <v>-57200</v>
       </c>
       <c r="J21" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K21" s="3">
         <v>52400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>20400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>25100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>26800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>26700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="E22" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H22" s="3">
         <v>5300</v>
       </c>
-      <c r="F22" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>5000</v>
       </c>
-      <c r="H22" s="3">
-        <v>4800</v>
-      </c>
-      <c r="I22" s="3">
-        <v>5300</v>
-      </c>
       <c r="J22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K22" s="3">
         <v>4700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>49500</v>
+        <v>-10700</v>
       </c>
       <c r="E23" s="3">
-        <v>-14500</v>
+        <v>51800</v>
       </c>
       <c r="F23" s="3">
-        <v>-33100</v>
+        <v>-15100</v>
       </c>
       <c r="G23" s="3">
-        <v>-181100</v>
+        <v>-34600</v>
       </c>
       <c r="H23" s="3">
-        <v>-81200</v>
+        <v>-189300</v>
       </c>
       <c r="I23" s="3">
-        <v>8200</v>
+        <v>-84900</v>
       </c>
       <c r="J23" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K23" s="3">
         <v>25500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>5300</v>
+        <v>2400</v>
       </c>
       <c r="E24" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>-3900</v>
-      </c>
       <c r="G24" s="3">
-        <v>5300</v>
+        <v>-4100</v>
       </c>
       <c r="H24" s="3">
-        <v>-16100</v>
+        <v>5600</v>
       </c>
       <c r="I24" s="3">
-        <v>2800</v>
+        <v>-16900</v>
       </c>
       <c r="J24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K24" s="3">
         <v>-14900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>44300</v>
+        <v>-13100</v>
       </c>
       <c r="E26" s="3">
-        <v>-14600</v>
+        <v>46300</v>
       </c>
       <c r="F26" s="3">
-        <v>-29300</v>
+        <v>-15300</v>
       </c>
       <c r="G26" s="3">
-        <v>-186400</v>
+        <v>-30600</v>
       </c>
       <c r="H26" s="3">
-        <v>-65000</v>
+        <v>-194900</v>
       </c>
       <c r="I26" s="3">
-        <v>5400</v>
+        <v>-68000</v>
       </c>
       <c r="J26" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K26" s="3">
         <v>40400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>44300</v>
+        <v>-12700</v>
       </c>
       <c r="E27" s="3">
-        <v>-14500</v>
+        <v>46300</v>
       </c>
       <c r="F27" s="3">
-        <v>-29200</v>
+        <v>-15200</v>
       </c>
       <c r="G27" s="3">
-        <v>-186300</v>
+        <v>-30500</v>
       </c>
       <c r="H27" s="3">
-        <v>-64900</v>
+        <v>-194700</v>
       </c>
       <c r="I27" s="3">
-        <v>5200</v>
+        <v>-67800</v>
       </c>
       <c r="J27" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K27" s="3">
         <v>40500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,40 +1632,43 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -1615,11 +1676,14 @@
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-43200</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>-6400</v>
+        <v>-45100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-6700</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>-4600</v>
-      </c>
       <c r="I32" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-800</v>
       </c>
       <c r="N32" s="3">
         <v>-800</v>
       </c>
       <c r="O32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>44300</v>
+        <v>-12700</v>
       </c>
       <c r="E33" s="3">
-        <v>-14500</v>
+        <v>46300</v>
       </c>
       <c r="F33" s="3">
-        <v>-29200</v>
+        <v>-15200</v>
       </c>
       <c r="G33" s="3">
-        <v>-186300</v>
+        <v>-30500</v>
       </c>
       <c r="H33" s="3">
-        <v>-64900</v>
+        <v>-194700</v>
       </c>
       <c r="I33" s="3">
-        <v>5200</v>
+        <v>-67800</v>
       </c>
       <c r="J33" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K33" s="3">
         <v>40500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>44300</v>
+        <v>-12700</v>
       </c>
       <c r="E35" s="3">
-        <v>-14500</v>
+        <v>46300</v>
       </c>
       <c r="F35" s="3">
-        <v>-29200</v>
+        <v>-15200</v>
       </c>
       <c r="G35" s="3">
-        <v>-186300</v>
+        <v>-30500</v>
       </c>
       <c r="H35" s="3">
-        <v>-64900</v>
+        <v>-194700</v>
       </c>
       <c r="I35" s="3">
-        <v>5200</v>
+        <v>-67800</v>
       </c>
       <c r="J35" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K35" s="3">
         <v>40500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,66 +2053,70 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>170100</v>
+        <v>161100</v>
       </c>
       <c r="E41" s="3">
-        <v>84700</v>
+        <v>177800</v>
       </c>
       <c r="F41" s="3">
-        <v>82300</v>
+        <v>88600</v>
       </c>
       <c r="G41" s="3">
-        <v>68500</v>
+        <v>86000</v>
       </c>
       <c r="H41" s="3">
-        <v>77900</v>
+        <v>71600</v>
       </c>
       <c r="I41" s="3">
-        <v>65200</v>
+        <v>81400</v>
       </c>
       <c r="J41" s="3">
+        <v>68200</v>
+      </c>
+      <c r="K41" s="3">
         <v>97100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>75400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>165400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>138300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>182000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>187000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>24</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -2038,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>4000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1600</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>24</v>
@@ -2052,319 +2142,343 @@
       <c r="O42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>210700</v>
+        <v>211900</v>
       </c>
       <c r="E43" s="3">
-        <v>215500</v>
+        <v>220300</v>
       </c>
       <c r="F43" s="3">
-        <v>217800</v>
+        <v>225300</v>
       </c>
       <c r="G43" s="3">
-        <v>258800</v>
+        <v>227700</v>
       </c>
       <c r="H43" s="3">
-        <v>255800</v>
+        <v>270500</v>
       </c>
       <c r="I43" s="3">
-        <v>307500</v>
+        <v>267400</v>
       </c>
       <c r="J43" s="3">
+        <v>321500</v>
+      </c>
+      <c r="K43" s="3">
         <v>296400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>249400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>230500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>234100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>232400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>242500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>212700</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100200</v>
+        <v>108700</v>
       </c>
       <c r="E44" s="3">
-        <v>136200</v>
+        <v>104700</v>
       </c>
       <c r="F44" s="3">
-        <v>138400</v>
+        <v>142300</v>
       </c>
       <c r="G44" s="3">
-        <v>139700</v>
+        <v>144700</v>
       </c>
       <c r="H44" s="3">
-        <v>127500</v>
+        <v>146100</v>
       </c>
       <c r="I44" s="3">
-        <v>134100</v>
+        <v>133300</v>
       </c>
       <c r="J44" s="3">
+        <v>140200</v>
+      </c>
+      <c r="K44" s="3">
         <v>143600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>111000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>104300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>100400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>104300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>95500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>86600</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="E45" s="3">
-        <v>15600</v>
+        <v>10900</v>
       </c>
       <c r="F45" s="3">
-        <v>11000</v>
+        <v>16400</v>
       </c>
       <c r="G45" s="3">
-        <v>14400</v>
+        <v>11500</v>
       </c>
       <c r="H45" s="3">
-        <v>14100</v>
+        <v>15100</v>
       </c>
       <c r="I45" s="3">
-        <v>19200</v>
+        <v>14700</v>
       </c>
       <c r="J45" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K45" s="3">
         <v>10000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>18100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>21500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>491400</v>
+        <v>492100</v>
       </c>
       <c r="E46" s="3">
-        <v>452000</v>
+        <v>513700</v>
       </c>
       <c r="F46" s="3">
-        <v>449500</v>
+        <v>472600</v>
       </c>
       <c r="G46" s="3">
-        <v>481400</v>
+        <v>469900</v>
       </c>
       <c r="H46" s="3">
-        <v>475300</v>
+        <v>503300</v>
       </c>
       <c r="I46" s="3">
-        <v>526000</v>
+        <v>496900</v>
       </c>
       <c r="J46" s="3">
+        <v>549900</v>
+      </c>
+      <c r="K46" s="3">
         <v>547000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>449600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>519400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>494200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>536800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>546500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>533700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9200</v>
+        <v>4200</v>
       </c>
       <c r="E47" s="3">
-        <v>11600</v>
+        <v>9600</v>
       </c>
       <c r="F47" s="3">
-        <v>5200</v>
+        <v>12100</v>
       </c>
       <c r="G47" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="H47" s="3">
-        <v>12200</v>
+        <v>5900</v>
       </c>
       <c r="I47" s="3">
-        <v>7900</v>
+        <v>12800</v>
       </c>
       <c r="J47" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K47" s="3">
         <v>7800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>22700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>23400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>23200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>24600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>24500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>339200</v>
+        <v>340600</v>
       </c>
       <c r="E48" s="3">
-        <v>364300</v>
+        <v>354600</v>
       </c>
       <c r="F48" s="3">
-        <v>385900</v>
+        <v>380900</v>
       </c>
       <c r="G48" s="3">
-        <v>399700</v>
+        <v>403400</v>
       </c>
       <c r="H48" s="3">
-        <v>399900</v>
+        <v>417800</v>
       </c>
       <c r="I48" s="3">
-        <v>412800</v>
+        <v>418100</v>
       </c>
       <c r="J48" s="3">
+        <v>431600</v>
+      </c>
+      <c r="K48" s="3">
         <v>413800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>379200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>337100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>309600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>317500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>314700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>342400</v>
+        <v>351900</v>
       </c>
       <c r="E49" s="3">
-        <v>367100</v>
+        <v>357900</v>
       </c>
       <c r="F49" s="3">
-        <v>372500</v>
+        <v>383700</v>
       </c>
       <c r="G49" s="3">
-        <v>384600</v>
+        <v>389500</v>
       </c>
       <c r="H49" s="3">
-        <v>514800</v>
+        <v>402000</v>
       </c>
       <c r="I49" s="3">
-        <v>597800</v>
+        <v>538200</v>
       </c>
       <c r="J49" s="3">
+        <v>625000</v>
+      </c>
+      <c r="K49" s="3">
         <v>600500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>378300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>385000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>354200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>380100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>378700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27700</v>
+        <v>27300</v>
       </c>
       <c r="E52" s="3">
-        <v>30000</v>
+        <v>28900</v>
       </c>
       <c r="F52" s="3">
-        <v>30000</v>
+        <v>31400</v>
       </c>
       <c r="G52" s="3">
-        <v>31600</v>
+        <v>31400</v>
       </c>
       <c r="H52" s="3">
-        <v>34000</v>
+        <v>33100</v>
       </c>
       <c r="I52" s="3">
-        <v>28200</v>
+        <v>35500</v>
       </c>
       <c r="J52" s="3">
+        <v>29500</v>
+      </c>
+      <c r="K52" s="3">
         <v>27000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>33600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>30600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>29800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>31500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>29700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1209800</v>
+        <v>1216100</v>
       </c>
       <c r="E54" s="3">
-        <v>1225000</v>
+        <v>1264800</v>
       </c>
       <c r="F54" s="3">
-        <v>1243200</v>
+        <v>1280700</v>
       </c>
       <c r="G54" s="3">
-        <v>1302900</v>
+        <v>1299700</v>
       </c>
       <c r="H54" s="3">
-        <v>1436200</v>
+        <v>1362100</v>
       </c>
       <c r="I54" s="3">
-        <v>1572900</v>
+        <v>1501500</v>
       </c>
       <c r="J54" s="3">
+        <v>1644300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1596100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1263400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1295500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1210900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1290500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1294000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1278200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2749,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>140500</v>
+        <v>136600</v>
       </c>
       <c r="E57" s="3">
-        <v>156500</v>
+        <v>146900</v>
       </c>
       <c r="F57" s="3">
-        <v>143500</v>
+        <v>163600</v>
       </c>
       <c r="G57" s="3">
-        <v>151000</v>
+        <v>150000</v>
       </c>
       <c r="H57" s="3">
-        <v>140700</v>
+        <v>157900</v>
       </c>
       <c r="I57" s="3">
-        <v>178800</v>
+        <v>147100</v>
       </c>
       <c r="J57" s="3">
+        <v>186900</v>
+      </c>
+      <c r="K57" s="3">
         <v>176300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>174700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>157400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>146000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>165000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>160400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>151300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14700</v>
+        <v>15100</v>
       </c>
       <c r="E58" s="3">
-        <v>16100</v>
+        <v>15400</v>
       </c>
       <c r="F58" s="3">
-        <v>362400</v>
+        <v>16800</v>
       </c>
       <c r="G58" s="3">
+        <v>378800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>18600</v>
+      </c>
+      <c r="I58" s="3">
         <v>17800</v>
       </c>
-      <c r="H58" s="3">
-        <v>17000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>15100</v>
-      </c>
       <c r="J58" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K58" s="3">
         <v>15500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>58600</v>
+        <v>51200</v>
       </c>
       <c r="E59" s="3">
-        <v>73100</v>
+        <v>61200</v>
       </c>
       <c r="F59" s="3">
-        <v>77900</v>
+        <v>76400</v>
       </c>
       <c r="G59" s="3">
-        <v>73200</v>
+        <v>81500</v>
       </c>
       <c r="H59" s="3">
-        <v>77800</v>
+        <v>76500</v>
       </c>
       <c r="I59" s="3">
-        <v>69800</v>
+        <v>81400</v>
       </c>
       <c r="J59" s="3">
+        <v>73000</v>
+      </c>
+      <c r="K59" s="3">
         <v>77400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>64100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>61800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>69600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>76700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>85900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>213800</v>
+        <v>203000</v>
       </c>
       <c r="E60" s="3">
-        <v>245700</v>
+        <v>223500</v>
       </c>
       <c r="F60" s="3">
-        <v>583800</v>
+        <v>256800</v>
       </c>
       <c r="G60" s="3">
-        <v>242000</v>
+        <v>610300</v>
       </c>
       <c r="H60" s="3">
-        <v>235600</v>
+        <v>253000</v>
       </c>
       <c r="I60" s="3">
-        <v>263700</v>
+        <v>246300</v>
       </c>
       <c r="J60" s="3">
+        <v>275700</v>
+      </c>
+      <c r="K60" s="3">
         <v>269200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>252900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>220100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>215700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>242200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>246900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>249200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>386200</v>
+        <v>400800</v>
       </c>
       <c r="E61" s="3">
-        <v>394100</v>
+        <v>403700</v>
       </c>
       <c r="F61" s="3">
-        <v>54000</v>
+        <v>412000</v>
       </c>
       <c r="G61" s="3">
-        <v>397700</v>
+        <v>56500</v>
       </c>
       <c r="H61" s="3">
-        <v>399100</v>
+        <v>415800</v>
       </c>
       <c r="I61" s="3">
-        <v>406100</v>
+        <v>417200</v>
       </c>
       <c r="J61" s="3">
+        <v>424600</v>
+      </c>
+      <c r="K61" s="3">
         <v>422800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>166900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>211700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>192500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>202900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>199100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>193500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>41500</v>
+        <v>39100</v>
       </c>
       <c r="E62" s="3">
-        <v>42000</v>
+        <v>43400</v>
       </c>
       <c r="F62" s="3">
-        <v>41900</v>
+        <v>43900</v>
       </c>
       <c r="G62" s="3">
-        <v>49200</v>
+        <v>43800</v>
       </c>
       <c r="H62" s="3">
-        <v>48200</v>
+        <v>51400</v>
       </c>
       <c r="I62" s="3">
-        <v>67300</v>
+        <v>50400</v>
       </c>
       <c r="J62" s="3">
+        <v>70300</v>
+      </c>
+      <c r="K62" s="3">
         <v>64400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>46100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>49500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>47700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>49700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>47500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>49100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>644600</v>
+        <v>645800</v>
       </c>
       <c r="E66" s="3">
-        <v>685100</v>
+        <v>673900</v>
       </c>
       <c r="F66" s="3">
-        <v>683200</v>
+        <v>716200</v>
       </c>
       <c r="G66" s="3">
-        <v>692700</v>
+        <v>714200</v>
       </c>
       <c r="H66" s="3">
-        <v>686600</v>
+        <v>724200</v>
       </c>
       <c r="I66" s="3">
-        <v>740900</v>
+        <v>717800</v>
       </c>
       <c r="J66" s="3">
+        <v>774600</v>
+      </c>
+      <c r="K66" s="3">
         <v>760600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>469900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>485500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>459400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>498900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>498100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>496100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-41000</v>
+        <v>-55600</v>
       </c>
       <c r="E72" s="3">
-        <v>-85300</v>
+        <v>-42900</v>
       </c>
       <c r="F72" s="3">
-        <v>-70700</v>
+        <v>-89100</v>
       </c>
       <c r="G72" s="3">
-        <v>-41600</v>
+        <v>-73900</v>
       </c>
       <c r="H72" s="3">
-        <v>153100</v>
+        <v>-43500</v>
       </c>
       <c r="I72" s="3">
-        <v>226300</v>
+        <v>160000</v>
       </c>
       <c r="J72" s="3">
+        <v>236600</v>
+      </c>
+      <c r="K72" s="3">
         <v>229400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>191500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>206600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>201700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>223100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>223500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>227500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>565200</v>
+        <v>570300</v>
       </c>
       <c r="E76" s="3">
-        <v>539900</v>
+        <v>590900</v>
       </c>
       <c r="F76" s="3">
-        <v>560000</v>
+        <v>564500</v>
       </c>
       <c r="G76" s="3">
-        <v>610200</v>
+        <v>585400</v>
       </c>
       <c r="H76" s="3">
-        <v>749600</v>
+        <v>638000</v>
       </c>
       <c r="I76" s="3">
-        <v>832000</v>
+        <v>783700</v>
       </c>
       <c r="J76" s="3">
+        <v>869800</v>
+      </c>
+      <c r="K76" s="3">
         <v>835500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>793500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>810000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>751500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>791500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>795900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>782100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>44300</v>
+        <v>-12700</v>
       </c>
       <c r="E81" s="3">
-        <v>-14500</v>
+        <v>46300</v>
       </c>
       <c r="F81" s="3">
-        <v>-29200</v>
+        <v>-15200</v>
       </c>
       <c r="G81" s="3">
-        <v>-186300</v>
+        <v>-30500</v>
       </c>
       <c r="H81" s="3">
-        <v>-64900</v>
+        <v>-194700</v>
       </c>
       <c r="I81" s="3">
-        <v>5200</v>
+        <v>-67800</v>
       </c>
       <c r="J81" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K81" s="3">
         <v>40500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>17700</v>
+        <v>16600</v>
       </c>
       <c r="E83" s="3">
-        <v>17700</v>
+        <v>18500</v>
       </c>
       <c r="F83" s="3">
         <v>18500</v>
       </c>
       <c r="G83" s="3">
-        <v>19500</v>
+        <v>19400</v>
       </c>
       <c r="H83" s="3">
-        <v>21600</v>
+        <v>20400</v>
       </c>
       <c r="I83" s="3">
-        <v>19800</v>
+        <v>22600</v>
       </c>
       <c r="J83" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K83" s="3">
         <v>22200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>15100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>16400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>18400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8300</v>
+        <v>-16000</v>
       </c>
       <c r="E89" s="3">
-        <v>5800</v>
+        <v>8600</v>
       </c>
       <c r="F89" s="3">
-        <v>21100</v>
+        <v>6100</v>
       </c>
       <c r="G89" s="3">
+        <v>22100</v>
+      </c>
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
-        <v>38900</v>
-      </c>
       <c r="I89" s="3">
-        <v>6500</v>
+        <v>40600</v>
       </c>
       <c r="J89" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-16600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>39100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-14600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>21300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-21800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5600</v>
+        <v>-3600</v>
       </c>
       <c r="E91" s="3">
-        <v>-2600</v>
+        <v>-5900</v>
       </c>
       <c r="F91" s="3">
-        <v>-3000</v>
+        <v>-2700</v>
       </c>
       <c r="G91" s="3">
-        <v>-7800</v>
+        <v>-3100</v>
       </c>
       <c r="H91" s="3">
         <v>-8200</v>
       </c>
       <c r="I91" s="3">
-        <v>-8000</v>
+        <v>-8500</v>
       </c>
       <c r="J91" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-7200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>83700</v>
+        <v>4200</v>
       </c>
       <c r="E94" s="3">
-        <v>2200</v>
+        <v>87500</v>
       </c>
       <c r="F94" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>-5800</v>
-      </c>
       <c r="I94" s="3">
-        <v>-1800</v>
+        <v>-6000</v>
       </c>
       <c r="J94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-178700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-17200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-18900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4163,28 +4397,28 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-8400</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-8300</v>
       </c>
-      <c r="I96" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-8000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-7600</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-7900</v>
       </c>
       <c r="O96" s="3">
         <v>-7900</v>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>-7900</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-7900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6100</v>
+        <v>-4800</v>
       </c>
       <c r="E100" s="3">
-        <v>-5200</v>
+        <v>-6400</v>
       </c>
       <c r="F100" s="3">
-        <v>-4500</v>
+        <v>-5500</v>
       </c>
       <c r="G100" s="3">
-        <v>-13400</v>
+        <v>-4700</v>
       </c>
       <c r="H100" s="3">
-        <v>-21000</v>
+        <v>-14000</v>
       </c>
       <c r="I100" s="3">
-        <v>-35500</v>
+        <v>-22000</v>
       </c>
       <c r="J100" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="K100" s="3">
         <v>214700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-90600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
-        <v>-1600</v>
-      </c>
       <c r="G101" s="3">
-        <v>4100</v>
+        <v>-1700</v>
       </c>
       <c r="H101" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>85400</v>
+        <v>-16800</v>
       </c>
       <c r="E102" s="3">
-        <v>2500</v>
+        <v>89300</v>
       </c>
       <c r="F102" s="3">
-        <v>13800</v>
+        <v>2600</v>
       </c>
       <c r="G102" s="3">
-        <v>-9400</v>
+        <v>14400</v>
       </c>
       <c r="H102" s="3">
-        <v>12700</v>
+        <v>-9800</v>
       </c>
       <c r="I102" s="3">
-        <v>-31800</v>
+        <v>13200</v>
       </c>
       <c r="J102" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="K102" s="3">
         <v>19400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-91900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>20600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-37500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-30600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>58500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>231600</v>
+        <v>238500</v>
       </c>
       <c r="E8" s="3">
-        <v>270000</v>
+        <v>217800</v>
       </c>
       <c r="F8" s="3">
-        <v>221900</v>
+        <v>253900</v>
       </c>
       <c r="G8" s="3">
-        <v>220600</v>
+        <v>208700</v>
       </c>
       <c r="H8" s="3">
-        <v>264500</v>
+        <v>207500</v>
       </c>
       <c r="I8" s="3">
-        <v>277000</v>
+        <v>248700</v>
       </c>
       <c r="J8" s="3">
-        <v>326600</v>
+        <v>260500</v>
       </c>
       <c r="K8" s="3">
         <v>326600</v>
       </c>
       <c r="L8" s="3">
+        <v>326600</v>
+      </c>
+      <c r="M8" s="3">
         <v>269100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>269500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>254800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>266000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>264100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>171300</v>
+        <v>170100</v>
       </c>
       <c r="E9" s="3">
-        <v>191100</v>
+        <v>161100</v>
       </c>
       <c r="F9" s="3">
-        <v>160300</v>
+        <v>179700</v>
       </c>
       <c r="G9" s="3">
-        <v>164400</v>
+        <v>150700</v>
       </c>
       <c r="H9" s="3">
-        <v>193800</v>
+        <v>154600</v>
       </c>
       <c r="I9" s="3">
-        <v>196700</v>
+        <v>182200</v>
       </c>
       <c r="J9" s="3">
+        <v>185000</v>
+      </c>
+      <c r="K9" s="3">
         <v>231600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>233400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>193500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>193600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>179600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>180200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>176100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>60300</v>
+        <v>68400</v>
       </c>
       <c r="E10" s="3">
-        <v>78900</v>
+        <v>56700</v>
       </c>
       <c r="F10" s="3">
-        <v>61600</v>
+        <v>74200</v>
       </c>
       <c r="G10" s="3">
-        <v>56200</v>
+        <v>58000</v>
       </c>
       <c r="H10" s="3">
-        <v>70700</v>
+        <v>52800</v>
       </c>
       <c r="I10" s="3">
-        <v>80200</v>
+        <v>66500</v>
       </c>
       <c r="J10" s="3">
+        <v>75500</v>
+      </c>
+      <c r="K10" s="3">
         <v>95000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>93100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>75600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>75900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>75200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>85800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>88000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="E12" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="F12" s="3">
-        <v>1900</v>
+        <v>1100</v>
       </c>
       <c r="G12" s="3">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="H12" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="I12" s="3">
-        <v>1900</v>
+        <v>2700</v>
       </c>
       <c r="J12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K12" s="3">
         <v>3100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,102 +1006,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="E14" s="3">
-        <v>5200</v>
+        <v>1700</v>
       </c>
       <c r="F14" s="3">
-        <v>7400</v>
+        <v>4900</v>
       </c>
       <c r="G14" s="3">
-        <v>8300</v>
+        <v>7000</v>
       </c>
       <c r="H14" s="3">
-        <v>168800</v>
+        <v>7800</v>
       </c>
       <c r="I14" s="3">
-        <v>87600</v>
+        <v>158700</v>
       </c>
       <c r="J14" s="3">
+        <v>82400</v>
+      </c>
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2100</v>
-      </c>
-      <c r="N14" s="3">
-        <v>600</v>
       </c>
       <c r="O14" s="3">
         <v>600</v>
       </c>
       <c r="P14" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>16600</v>
+        <v>15200</v>
       </c>
       <c r="E15" s="3">
-        <v>18500</v>
+        <v>15600</v>
       </c>
       <c r="F15" s="3">
-        <v>18500</v>
+        <v>17400</v>
       </c>
       <c r="G15" s="3">
-        <v>19400</v>
+        <v>17400</v>
       </c>
       <c r="H15" s="3">
-        <v>20400</v>
+        <v>18200</v>
       </c>
       <c r="I15" s="3">
-        <v>22600</v>
+        <v>19200</v>
       </c>
       <c r="J15" s="3">
+        <v>21300</v>
+      </c>
+      <c r="K15" s="3">
         <v>20700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>22200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>15900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>15100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>12500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>16400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>18400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>236300</v>
+        <v>231700</v>
       </c>
       <c r="E17" s="3">
-        <v>257200</v>
+        <v>222200</v>
       </c>
       <c r="F17" s="3">
-        <v>238200</v>
+        <v>241900</v>
       </c>
       <c r="G17" s="3">
-        <v>250900</v>
+        <v>224000</v>
       </c>
       <c r="H17" s="3">
-        <v>448800</v>
+        <v>236000</v>
       </c>
       <c r="I17" s="3">
-        <v>361700</v>
+        <v>422100</v>
       </c>
       <c r="J17" s="3">
+        <v>340100</v>
+      </c>
+      <c r="K17" s="3">
         <v>312900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>304200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>273200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>264500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>243000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>256400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>256300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>295400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-4800</v>
+        <v>6800</v>
       </c>
       <c r="E18" s="3">
-        <v>12800</v>
+        <v>-4500</v>
       </c>
       <c r="F18" s="3">
-        <v>-16300</v>
+        <v>12000</v>
       </c>
       <c r="G18" s="3">
-        <v>-30300</v>
+        <v>-15300</v>
       </c>
       <c r="H18" s="3">
-        <v>-184300</v>
+        <v>-28500</v>
       </c>
       <c r="I18" s="3">
-        <v>-84700</v>
+        <v>-173300</v>
       </c>
       <c r="J18" s="3">
+        <v>-79600</v>
+      </c>
+      <c r="K18" s="3">
         <v>13800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>22300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>11800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,243 +1245,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>45100</v>
-      </c>
       <c r="F20" s="3">
-        <v>6700</v>
+        <v>42400</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>6300</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>4800</v>
-      </c>
       <c r="J20" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>800</v>
       </c>
       <c r="O20" s="3">
         <v>800</v>
       </c>
       <c r="P20" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>11700</v>
+        <v>22100</v>
       </c>
       <c r="E21" s="3">
-        <v>76400</v>
+        <v>11000</v>
       </c>
       <c r="F21" s="3">
-        <v>8900</v>
+        <v>71800</v>
       </c>
       <c r="G21" s="3">
-        <v>-10900</v>
+        <v>8400</v>
       </c>
       <c r="H21" s="3">
-        <v>-163700</v>
+        <v>-10300</v>
       </c>
       <c r="I21" s="3">
-        <v>-57200</v>
+        <v>-153900</v>
       </c>
       <c r="J21" s="3">
+        <v>-53800</v>
+      </c>
+      <c r="K21" s="3">
         <v>34700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>52400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>20400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>25100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>26800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>26700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>5900</v>
+        <v>4600</v>
       </c>
       <c r="E22" s="3">
-        <v>6100</v>
+        <v>5500</v>
       </c>
       <c r="F22" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="G22" s="3">
-        <v>4300</v>
+        <v>5200</v>
       </c>
       <c r="H22" s="3">
-        <v>5300</v>
+        <v>4100</v>
       </c>
       <c r="I22" s="3">
         <v>5000</v>
       </c>
       <c r="J22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K22" s="3">
         <v>5500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-10700</v>
+        <v>2400</v>
       </c>
       <c r="E23" s="3">
-        <v>51800</v>
+        <v>-10100</v>
       </c>
       <c r="F23" s="3">
-        <v>-15100</v>
+        <v>48700</v>
       </c>
       <c r="G23" s="3">
-        <v>-34600</v>
+        <v>-14200</v>
       </c>
       <c r="H23" s="3">
-        <v>-189300</v>
+        <v>-32600</v>
       </c>
       <c r="I23" s="3">
-        <v>-84900</v>
+        <v>-178000</v>
       </c>
       <c r="J23" s="3">
+        <v>-79800</v>
+      </c>
+      <c r="K23" s="3">
         <v>8600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>25500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="K24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O24" s="3">
         <v>2400</v>
       </c>
-      <c r="E24" s="3">
-        <v>5500</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>5600</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-16900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>2400</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-13100</v>
+        <v>2000</v>
       </c>
       <c r="E26" s="3">
-        <v>46300</v>
+        <v>-12300</v>
       </c>
       <c r="F26" s="3">
-        <v>-15300</v>
+        <v>43500</v>
       </c>
       <c r="G26" s="3">
-        <v>-30600</v>
+        <v>-14300</v>
       </c>
       <c r="H26" s="3">
-        <v>-194900</v>
+        <v>-28800</v>
       </c>
       <c r="I26" s="3">
-        <v>-68000</v>
+        <v>-183300</v>
       </c>
       <c r="J26" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="K26" s="3">
         <v>5600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>40400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-12700</v>
+        <v>2100</v>
       </c>
       <c r="E27" s="3">
-        <v>46300</v>
+        <v>-12000</v>
       </c>
       <c r="F27" s="3">
-        <v>-15200</v>
+        <v>43500</v>
       </c>
       <c r="G27" s="3">
-        <v>-30500</v>
+        <v>-14300</v>
       </c>
       <c r="H27" s="3">
-        <v>-194700</v>
+        <v>-28700</v>
       </c>
       <c r="I27" s="3">
-        <v>-67800</v>
+        <v>-183100</v>
       </c>
       <c r="J27" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="K27" s="3">
         <v>5400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>40500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1661,17 +1722,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1679,11 +1740,14 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>-45100</v>
-      </c>
       <c r="F32" s="3">
-        <v>-6700</v>
+        <v>-42400</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-6300</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>-4800</v>
-      </c>
       <c r="J32" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-800</v>
       </c>
       <c r="O32" s="3">
         <v>-800</v>
       </c>
       <c r="P32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-12700</v>
+        <v>2100</v>
       </c>
       <c r="E33" s="3">
-        <v>46300</v>
+        <v>-12000</v>
       </c>
       <c r="F33" s="3">
-        <v>-15200</v>
+        <v>43500</v>
       </c>
       <c r="G33" s="3">
-        <v>-30500</v>
+        <v>-14300</v>
       </c>
       <c r="H33" s="3">
-        <v>-194700</v>
+        <v>-28700</v>
       </c>
       <c r="I33" s="3">
-        <v>-67800</v>
+        <v>-183100</v>
       </c>
       <c r="J33" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="K33" s="3">
         <v>5400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>40500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-12700</v>
+        <v>2100</v>
       </c>
       <c r="E35" s="3">
-        <v>46300</v>
+        <v>-12000</v>
       </c>
       <c r="F35" s="3">
-        <v>-15200</v>
+        <v>43500</v>
       </c>
       <c r="G35" s="3">
-        <v>-30500</v>
+        <v>-14300</v>
       </c>
       <c r="H35" s="3">
-        <v>-194700</v>
+        <v>-28700</v>
       </c>
       <c r="I35" s="3">
-        <v>-67800</v>
+        <v>-183100</v>
       </c>
       <c r="J35" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="K35" s="3">
         <v>5400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>40500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>161100</v>
+        <v>109100</v>
       </c>
       <c r="E41" s="3">
-        <v>177800</v>
+        <v>151500</v>
       </c>
       <c r="F41" s="3">
-        <v>88600</v>
+        <v>167300</v>
       </c>
       <c r="G41" s="3">
-        <v>86000</v>
+        <v>83300</v>
       </c>
       <c r="H41" s="3">
-        <v>71600</v>
+        <v>80900</v>
       </c>
       <c r="I41" s="3">
-        <v>81400</v>
+        <v>67300</v>
       </c>
       <c r="J41" s="3">
+        <v>76600</v>
+      </c>
+      <c r="K41" s="3">
         <v>68200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>97100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>75400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>165400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>138300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>182000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>187000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2131,13 +2221,13 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>4000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1600</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>24</v>
@@ -2145,340 +2235,364 @@
       <c r="P42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>199300</v>
+      </c>
+      <c r="F43" s="3">
+        <v>207200</v>
+      </c>
+      <c r="G43" s="3">
         <v>211900</v>
       </c>
-      <c r="E43" s="3">
-        <v>220300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>225300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>227700</v>
-      </c>
       <c r="H43" s="3">
-        <v>270500</v>
+        <v>214100</v>
       </c>
       <c r="I43" s="3">
-        <v>267400</v>
+        <v>254400</v>
       </c>
       <c r="J43" s="3">
+        <v>251500</v>
+      </c>
+      <c r="K43" s="3">
         <v>321500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>296400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>249400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>230500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>234100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>232400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>242500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>212700</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>108700</v>
+        <v>98100</v>
       </c>
       <c r="E44" s="3">
-        <v>104700</v>
+        <v>102200</v>
       </c>
       <c r="F44" s="3">
-        <v>142300</v>
+        <v>98500</v>
       </c>
       <c r="G44" s="3">
-        <v>144700</v>
+        <v>133900</v>
       </c>
       <c r="H44" s="3">
-        <v>146100</v>
+        <v>136100</v>
       </c>
       <c r="I44" s="3">
-        <v>133300</v>
+        <v>137400</v>
       </c>
       <c r="J44" s="3">
+        <v>125400</v>
+      </c>
+      <c r="K44" s="3">
         <v>140200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>143600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>111000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>104300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>100400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>104300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>95500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>86600</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10500</v>
+        <v>7400</v>
       </c>
       <c r="E45" s="3">
-        <v>10900</v>
+        <v>9800</v>
       </c>
       <c r="F45" s="3">
-        <v>16400</v>
+        <v>10200</v>
       </c>
       <c r="G45" s="3">
-        <v>11500</v>
+        <v>15400</v>
       </c>
       <c r="H45" s="3">
-        <v>15100</v>
+        <v>10800</v>
       </c>
       <c r="I45" s="3">
-        <v>14700</v>
+        <v>14200</v>
       </c>
       <c r="J45" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K45" s="3">
         <v>20100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>21500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>18100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>492100</v>
+        <v>422700</v>
       </c>
       <c r="E46" s="3">
-        <v>513700</v>
+        <v>462800</v>
       </c>
       <c r="F46" s="3">
-        <v>472600</v>
+        <v>483100</v>
       </c>
       <c r="G46" s="3">
-        <v>469900</v>
+        <v>444400</v>
       </c>
       <c r="H46" s="3">
-        <v>503300</v>
+        <v>441900</v>
       </c>
       <c r="I46" s="3">
-        <v>496900</v>
+        <v>473300</v>
       </c>
       <c r="J46" s="3">
+        <v>467300</v>
+      </c>
+      <c r="K46" s="3">
         <v>549900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>547000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>449600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>519400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>494200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>536800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>546500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>533700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="E47" s="3">
-        <v>9600</v>
+        <v>3900</v>
       </c>
       <c r="F47" s="3">
-        <v>12100</v>
+        <v>9000</v>
       </c>
       <c r="G47" s="3">
+        <v>11400</v>
+      </c>
+      <c r="H47" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I47" s="3">
         <v>5500</v>
       </c>
-      <c r="H47" s="3">
-        <v>5900</v>
-      </c>
-      <c r="I47" s="3">
-        <v>12800</v>
-      </c>
       <c r="J47" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K47" s="3">
         <v>8300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>22700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>23400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>23200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>24600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>24500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>340600</v>
+        <v>309900</v>
       </c>
       <c r="E48" s="3">
-        <v>354600</v>
+        <v>320300</v>
       </c>
       <c r="F48" s="3">
-        <v>380900</v>
+        <v>333500</v>
       </c>
       <c r="G48" s="3">
-        <v>403400</v>
+        <v>358200</v>
       </c>
       <c r="H48" s="3">
-        <v>417800</v>
+        <v>379400</v>
       </c>
       <c r="I48" s="3">
-        <v>418100</v>
+        <v>392900</v>
       </c>
       <c r="J48" s="3">
+        <v>393200</v>
+      </c>
+      <c r="K48" s="3">
         <v>431600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>413800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>379200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>337100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>309600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>317500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>314700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>351900</v>
+        <v>326200</v>
       </c>
       <c r="E49" s="3">
-        <v>357900</v>
+        <v>331000</v>
       </c>
       <c r="F49" s="3">
-        <v>383700</v>
+        <v>336600</v>
       </c>
       <c r="G49" s="3">
-        <v>389500</v>
+        <v>360900</v>
       </c>
       <c r="H49" s="3">
-        <v>402000</v>
+        <v>366300</v>
       </c>
       <c r="I49" s="3">
-        <v>538200</v>
+        <v>378100</v>
       </c>
       <c r="J49" s="3">
+        <v>506200</v>
+      </c>
+      <c r="K49" s="3">
         <v>625000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>600500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>378300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>385000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>354200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>380100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>378700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27300</v>
+        <v>22900</v>
       </c>
       <c r="E52" s="3">
-        <v>28900</v>
+        <v>25700</v>
       </c>
       <c r="F52" s="3">
-        <v>31400</v>
+        <v>27200</v>
       </c>
       <c r="G52" s="3">
-        <v>31400</v>
+        <v>29500</v>
       </c>
       <c r="H52" s="3">
-        <v>33100</v>
+        <v>29500</v>
       </c>
       <c r="I52" s="3">
-        <v>35500</v>
+        <v>31100</v>
       </c>
       <c r="J52" s="3">
+        <v>33400</v>
+      </c>
+      <c r="K52" s="3">
         <v>29500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>27000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>33600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>30600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>29800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>31500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>29700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1216100</v>
+        <v>1085700</v>
       </c>
       <c r="E54" s="3">
-        <v>1264800</v>
+        <v>1143700</v>
       </c>
       <c r="F54" s="3">
-        <v>1280700</v>
+        <v>1189500</v>
       </c>
       <c r="G54" s="3">
-        <v>1299700</v>
+        <v>1204400</v>
       </c>
       <c r="H54" s="3">
-        <v>1362100</v>
+        <v>1222300</v>
       </c>
       <c r="I54" s="3">
-        <v>1501500</v>
+        <v>1281000</v>
       </c>
       <c r="J54" s="3">
+        <v>1412000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1644300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1596100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1263400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1295500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1210900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1290500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1294000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1278200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>136600</v>
+        <v>133100</v>
       </c>
       <c r="E57" s="3">
-        <v>146900</v>
+        <v>128500</v>
       </c>
       <c r="F57" s="3">
-        <v>163600</v>
+        <v>138100</v>
       </c>
       <c r="G57" s="3">
-        <v>150000</v>
+        <v>153900</v>
       </c>
       <c r="H57" s="3">
-        <v>157900</v>
+        <v>141000</v>
       </c>
       <c r="I57" s="3">
-        <v>147100</v>
+        <v>148500</v>
       </c>
       <c r="J57" s="3">
+        <v>138400</v>
+      </c>
+      <c r="K57" s="3">
         <v>186900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>176300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>174700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>157400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>146000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>165000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>160400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>151300</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15100</v>
+        <v>13200</v>
       </c>
       <c r="E58" s="3">
-        <v>15400</v>
+        <v>14200</v>
       </c>
       <c r="F58" s="3">
-        <v>16800</v>
+        <v>14500</v>
       </c>
       <c r="G58" s="3">
-        <v>378800</v>
+        <v>15800</v>
       </c>
       <c r="H58" s="3">
-        <v>18600</v>
+        <v>356300</v>
       </c>
       <c r="I58" s="3">
-        <v>17800</v>
+        <v>17500</v>
       </c>
       <c r="J58" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K58" s="3">
         <v>15800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>51200</v>
+        <v>49100</v>
       </c>
       <c r="E59" s="3">
-        <v>61200</v>
+        <v>48200</v>
       </c>
       <c r="F59" s="3">
-        <v>76400</v>
+        <v>57600</v>
       </c>
       <c r="G59" s="3">
-        <v>81500</v>
+        <v>71900</v>
       </c>
       <c r="H59" s="3">
+        <v>76600</v>
+      </c>
+      <c r="I59" s="3">
+        <v>71900</v>
+      </c>
+      <c r="J59" s="3">
         <v>76500</v>
       </c>
-      <c r="I59" s="3">
-        <v>81400</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>73000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>77400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>64100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>61800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>69600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>76700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>85900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>203000</v>
+        <v>195300</v>
       </c>
       <c r="E60" s="3">
-        <v>223500</v>
+        <v>190900</v>
       </c>
       <c r="F60" s="3">
-        <v>256800</v>
+        <v>210200</v>
       </c>
       <c r="G60" s="3">
-        <v>610300</v>
+        <v>241500</v>
       </c>
       <c r="H60" s="3">
-        <v>253000</v>
+        <v>573900</v>
       </c>
       <c r="I60" s="3">
-        <v>246300</v>
+        <v>237900</v>
       </c>
       <c r="J60" s="3">
+        <v>231600</v>
+      </c>
+      <c r="K60" s="3">
         <v>275700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>269200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>252900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>220100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>215700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>242200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>246900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>249200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>400800</v>
+        <v>315300</v>
       </c>
       <c r="E61" s="3">
-        <v>403700</v>
+        <v>376900</v>
       </c>
       <c r="F61" s="3">
-        <v>412000</v>
+        <v>379700</v>
       </c>
       <c r="G61" s="3">
-        <v>56500</v>
+        <v>387400</v>
       </c>
       <c r="H61" s="3">
-        <v>415800</v>
+        <v>53100</v>
       </c>
       <c r="I61" s="3">
-        <v>417200</v>
+        <v>391000</v>
       </c>
       <c r="J61" s="3">
+        <v>392400</v>
+      </c>
+      <c r="K61" s="3">
         <v>424600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>422800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>166900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>211700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>192500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>202900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>199100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>193500</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>39100</v>
+        <v>38300</v>
       </c>
       <c r="E62" s="3">
-        <v>43400</v>
+        <v>36800</v>
       </c>
       <c r="F62" s="3">
-        <v>43900</v>
+        <v>40800</v>
       </c>
       <c r="G62" s="3">
-        <v>43800</v>
+        <v>41300</v>
       </c>
       <c r="H62" s="3">
-        <v>51400</v>
+        <v>41200</v>
       </c>
       <c r="I62" s="3">
-        <v>50400</v>
+        <v>48400</v>
       </c>
       <c r="J62" s="3">
+        <v>47400</v>
+      </c>
+      <c r="K62" s="3">
         <v>70300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>64400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>46100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>49500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>47700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>49700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>47500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>49100</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>645800</v>
+        <v>551800</v>
       </c>
       <c r="E66" s="3">
-        <v>673900</v>
+        <v>607300</v>
       </c>
       <c r="F66" s="3">
-        <v>716200</v>
+        <v>633800</v>
       </c>
       <c r="G66" s="3">
-        <v>714200</v>
+        <v>673500</v>
       </c>
       <c r="H66" s="3">
-        <v>724200</v>
+        <v>671700</v>
       </c>
       <c r="I66" s="3">
-        <v>717800</v>
+        <v>681100</v>
       </c>
       <c r="J66" s="3">
+        <v>675000</v>
+      </c>
+      <c r="K66" s="3">
         <v>774600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>760600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>469900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>485500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>459400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>498900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>498100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>496100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-55600</v>
+        <v>-50200</v>
       </c>
       <c r="E72" s="3">
-        <v>-42900</v>
+        <v>-52300</v>
       </c>
       <c r="F72" s="3">
-        <v>-89100</v>
+        <v>-40300</v>
       </c>
       <c r="G72" s="3">
-        <v>-73900</v>
+        <v>-83800</v>
       </c>
       <c r="H72" s="3">
-        <v>-43500</v>
+        <v>-69500</v>
       </c>
       <c r="I72" s="3">
-        <v>160000</v>
+        <v>-40900</v>
       </c>
       <c r="J72" s="3">
+        <v>150500</v>
+      </c>
+      <c r="K72" s="3">
         <v>236600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>229400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>191500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>206600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>201700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>223100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>223500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>227500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>570300</v>
+        <v>534000</v>
       </c>
       <c r="E76" s="3">
-        <v>590900</v>
+        <v>536300</v>
       </c>
       <c r="F76" s="3">
-        <v>564500</v>
+        <v>555700</v>
       </c>
       <c r="G76" s="3">
-        <v>585400</v>
+        <v>530900</v>
       </c>
       <c r="H76" s="3">
-        <v>638000</v>
+        <v>550600</v>
       </c>
       <c r="I76" s="3">
-        <v>783700</v>
+        <v>600000</v>
       </c>
       <c r="J76" s="3">
+        <v>737000</v>
+      </c>
+      <c r="K76" s="3">
         <v>869800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>835500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>793500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>810000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>751500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>791500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>795900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>782100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-12700</v>
+        <v>2100</v>
       </c>
       <c r="E81" s="3">
-        <v>46300</v>
+        <v>-12000</v>
       </c>
       <c r="F81" s="3">
-        <v>-15200</v>
+        <v>43500</v>
       </c>
       <c r="G81" s="3">
-        <v>-30500</v>
+        <v>-14300</v>
       </c>
       <c r="H81" s="3">
-        <v>-194700</v>
+        <v>-28700</v>
       </c>
       <c r="I81" s="3">
-        <v>-67800</v>
+        <v>-183100</v>
       </c>
       <c r="J81" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="K81" s="3">
         <v>5400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>40500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16600</v>
+        <v>15200</v>
       </c>
       <c r="E83" s="3">
-        <v>18500</v>
+        <v>15600</v>
       </c>
       <c r="F83" s="3">
-        <v>18500</v>
+        <v>17400</v>
       </c>
       <c r="G83" s="3">
-        <v>19400</v>
+        <v>17400</v>
       </c>
       <c r="H83" s="3">
-        <v>20400</v>
+        <v>18200</v>
       </c>
       <c r="I83" s="3">
-        <v>22600</v>
+        <v>19200</v>
       </c>
       <c r="J83" s="3">
+        <v>21300</v>
+      </c>
+      <c r="K83" s="3">
         <v>20700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>22200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>15900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>15100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>16400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>18400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-16000</v>
+        <v>19200</v>
       </c>
       <c r="E89" s="3">
-        <v>8600</v>
+        <v>-15000</v>
       </c>
       <c r="F89" s="3">
-        <v>6100</v>
+        <v>8100</v>
       </c>
       <c r="G89" s="3">
-        <v>22100</v>
+        <v>5700</v>
       </c>
       <c r="H89" s="3">
+        <v>20700</v>
+      </c>
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
-        <v>40600</v>
-      </c>
       <c r="J89" s="3">
+        <v>38200</v>
+      </c>
+      <c r="K89" s="3">
         <v>6800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-16600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>13800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>39100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-14600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>21300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-21800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3600</v>
+        <v>-3900</v>
       </c>
       <c r="E91" s="3">
-        <v>-5900</v>
+        <v>-3400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2700</v>
+        <v>-5500</v>
       </c>
       <c r="G91" s="3">
-        <v>-3100</v>
+        <v>-2600</v>
       </c>
       <c r="H91" s="3">
-        <v>-8200</v>
+        <v>-2900</v>
       </c>
       <c r="I91" s="3">
-        <v>-8500</v>
+        <v>-7700</v>
       </c>
       <c r="J91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-8300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>4200</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>87500</v>
+        <v>3900</v>
       </c>
       <c r="F94" s="3">
-        <v>2300</v>
+        <v>82300</v>
       </c>
       <c r="G94" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>-6000</v>
-      </c>
       <c r="J94" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-178700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-17200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-18900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4400,28 +4634,28 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-8700</v>
       </c>
-      <c r="I96" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-8100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-8000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-7600</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-7900</v>
       </c>
       <c r="P96" s="3">
         <v>-7900</v>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>-7900</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-7900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4800</v>
+        <v>-62300</v>
       </c>
       <c r="E100" s="3">
-        <v>-6400</v>
+        <v>-4500</v>
       </c>
       <c r="F100" s="3">
-        <v>-5500</v>
+        <v>-6000</v>
       </c>
       <c r="G100" s="3">
-        <v>-4700</v>
+        <v>-5100</v>
       </c>
       <c r="H100" s="3">
-        <v>-14000</v>
+        <v>-4500</v>
       </c>
       <c r="I100" s="3">
-        <v>-22000</v>
+        <v>-13100</v>
       </c>
       <c r="J100" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-37100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>214700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-90600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>500</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1700</v>
       </c>
-      <c r="H101" s="3">
-        <v>4300</v>
-      </c>
-      <c r="I101" s="3">
-        <v>600</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>6600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-16800</v>
+        <v>-42300</v>
       </c>
       <c r="E102" s="3">
-        <v>89300</v>
+        <v>-15800</v>
       </c>
       <c r="F102" s="3">
-        <v>2600</v>
+        <v>84000</v>
       </c>
       <c r="G102" s="3">
-        <v>14400</v>
+        <v>2400</v>
       </c>
       <c r="H102" s="3">
-        <v>-9800</v>
+        <v>13500</v>
       </c>
       <c r="I102" s="3">
-        <v>13200</v>
+        <v>-9300</v>
       </c>
       <c r="J102" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-33300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>19400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-91900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>20600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-37500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-30600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>58500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>238500</v>
+        <v>228800</v>
       </c>
       <c r="E8" s="3">
-        <v>217800</v>
+        <v>240100</v>
       </c>
       <c r="F8" s="3">
-        <v>253900</v>
+        <v>219300</v>
       </c>
       <c r="G8" s="3">
-        <v>208700</v>
+        <v>255700</v>
       </c>
       <c r="H8" s="3">
-        <v>207500</v>
+        <v>210200</v>
       </c>
       <c r="I8" s="3">
-        <v>248700</v>
+        <v>208900</v>
       </c>
       <c r="J8" s="3">
+        <v>250400</v>
+      </c>
+      <c r="K8" s="3">
         <v>260500</v>
-      </c>
-      <c r="K8" s="3">
-        <v>326600</v>
       </c>
       <c r="L8" s="3">
         <v>326600</v>
       </c>
       <c r="M8" s="3">
+        <v>326600</v>
+      </c>
+      <c r="N8" s="3">
         <v>269100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>269500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>254800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>266000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>264100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>170100</v>
+        <v>162900</v>
       </c>
       <c r="E9" s="3">
-        <v>161100</v>
+        <v>171300</v>
       </c>
       <c r="F9" s="3">
-        <v>179700</v>
+        <v>162200</v>
       </c>
       <c r="G9" s="3">
-        <v>150700</v>
+        <v>181000</v>
       </c>
       <c r="H9" s="3">
-        <v>154600</v>
+        <v>151800</v>
       </c>
       <c r="I9" s="3">
-        <v>182200</v>
+        <v>155700</v>
       </c>
       <c r="J9" s="3">
+        <v>183500</v>
+      </c>
+      <c r="K9" s="3">
         <v>185000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>231600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>233400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>193500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>193600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>179600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>180200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>176100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>68400</v>
+        <v>65900</v>
       </c>
       <c r="E10" s="3">
-        <v>56700</v>
+        <v>68800</v>
       </c>
       <c r="F10" s="3">
-        <v>74200</v>
+        <v>57100</v>
       </c>
       <c r="G10" s="3">
-        <v>58000</v>
+        <v>74700</v>
       </c>
       <c r="H10" s="3">
-        <v>52800</v>
+        <v>58400</v>
       </c>
       <c r="I10" s="3">
-        <v>66500</v>
+        <v>53200</v>
       </c>
       <c r="J10" s="3">
+        <v>66900</v>
+      </c>
+      <c r="K10" s="3">
         <v>75500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>95000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>93100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>75600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>75900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>75200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>85800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>88000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E12" s="3">
         <v>1400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1800</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2600</v>
       </c>
       <c r="I12" s="3">
         <v>2700</v>
       </c>
       <c r="J12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K12" s="3">
         <v>1700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,108 +1026,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>7000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7800</v>
       </c>
-      <c r="I14" s="3">
-        <v>158700</v>
-      </c>
       <c r="J14" s="3">
+        <v>159800</v>
+      </c>
+      <c r="K14" s="3">
         <v>82400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>10000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2100</v>
-      </c>
-      <c r="O14" s="3">
-        <v>600</v>
       </c>
       <c r="P14" s="3">
         <v>600</v>
       </c>
       <c r="Q14" s="3">
+        <v>600</v>
+      </c>
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>15200</v>
+        <v>15100</v>
       </c>
       <c r="E15" s="3">
-        <v>15600</v>
+        <v>15300</v>
       </c>
       <c r="F15" s="3">
-        <v>17400</v>
+        <v>15700</v>
       </c>
       <c r="G15" s="3">
-        <v>17400</v>
+        <v>17500</v>
       </c>
       <c r="H15" s="3">
-        <v>18200</v>
+        <v>17500</v>
       </c>
       <c r="I15" s="3">
-        <v>19200</v>
+        <v>18300</v>
       </c>
       <c r="J15" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K15" s="3">
         <v>21300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>20700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>22200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>15900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>15100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>12500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>16400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>18400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>231700</v>
+        <v>228100</v>
       </c>
       <c r="E17" s="3">
-        <v>222200</v>
+        <v>233300</v>
       </c>
       <c r="F17" s="3">
-        <v>241900</v>
+        <v>223800</v>
       </c>
       <c r="G17" s="3">
-        <v>224000</v>
+        <v>243600</v>
       </c>
       <c r="H17" s="3">
-        <v>236000</v>
+        <v>225600</v>
       </c>
       <c r="I17" s="3">
-        <v>422100</v>
+        <v>237600</v>
       </c>
       <c r="J17" s="3">
+        <v>425000</v>
+      </c>
+      <c r="K17" s="3">
         <v>340100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>312900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>304200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>273200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>264500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>243000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>256400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>256300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>295400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>700</v>
+      </c>
+      <c r="E18" s="3">
         <v>6800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4500</v>
       </c>
-      <c r="F18" s="3">
-        <v>12000</v>
-      </c>
       <c r="G18" s="3">
-        <v>-15300</v>
+        <v>12100</v>
       </c>
       <c r="H18" s="3">
-        <v>-28500</v>
+        <v>-15400</v>
       </c>
       <c r="I18" s="3">
-        <v>-173300</v>
+        <v>-28700</v>
       </c>
       <c r="J18" s="3">
+        <v>-174500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-79600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>22300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>11800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1246,258 +1279,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>42400</v>
-      </c>
       <c r="G20" s="3">
+        <v>42700</v>
+      </c>
+      <c r="H20" s="3">
         <v>6300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>800</v>
       </c>
       <c r="P20" s="3">
         <v>800</v>
       </c>
       <c r="Q20" s="3">
+        <v>800</v>
+      </c>
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>22100</v>
+        <v>17100</v>
       </c>
       <c r="E21" s="3">
-        <v>11000</v>
+        <v>22300</v>
       </c>
       <c r="F21" s="3">
-        <v>71800</v>
+        <v>11100</v>
       </c>
       <c r="G21" s="3">
+        <v>72300</v>
+      </c>
+      <c r="H21" s="3">
         <v>8400</v>
       </c>
-      <c r="H21" s="3">
-        <v>-10300</v>
-      </c>
       <c r="I21" s="3">
-        <v>-153900</v>
+        <v>-10400</v>
       </c>
       <c r="J21" s="3">
+        <v>-155000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-53800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>34700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>52400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>20400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>25100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>26800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>26700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E22" s="3">
         <v>4600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="L22" s="3">
         <v>5500</v>
       </c>
-      <c r="F22" s="3">
-        <v>5700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>4700</v>
       </c>
-      <c r="K22" s="3">
-        <v>5500</v>
-      </c>
-      <c r="L22" s="3">
-        <v>4700</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2400</v>
       </c>
-      <c r="E23" s="3">
-        <v>-10100</v>
-      </c>
       <c r="F23" s="3">
-        <v>48700</v>
+        <v>-10200</v>
       </c>
       <c r="G23" s="3">
-        <v>-14200</v>
+        <v>49000</v>
       </c>
       <c r="H23" s="3">
-        <v>-32600</v>
+        <v>-14300</v>
       </c>
       <c r="I23" s="3">
-        <v>-178000</v>
+        <v>-32800</v>
       </c>
       <c r="J23" s="3">
+        <v>-179300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-79800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>25500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3800</v>
       </c>
-      <c r="I24" s="3">
-        <v>5200</v>
-      </c>
       <c r="J24" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-15900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-14900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E26" s="3">
         <v>2000</v>
       </c>
-      <c r="E26" s="3">
-        <v>-12300</v>
-      </c>
       <c r="F26" s="3">
-        <v>43500</v>
+        <v>-12400</v>
       </c>
       <c r="G26" s="3">
-        <v>-14300</v>
+        <v>43800</v>
       </c>
       <c r="H26" s="3">
-        <v>-28800</v>
+        <v>-14400</v>
       </c>
       <c r="I26" s="3">
-        <v>-183300</v>
+        <v>-29000</v>
       </c>
       <c r="J26" s="3">
+        <v>-184500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-64000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>40400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E27" s="3">
         <v>2100</v>
       </c>
-      <c r="E27" s="3">
-        <v>-12000</v>
-      </c>
       <c r="F27" s="3">
-        <v>43500</v>
+        <v>-12100</v>
       </c>
       <c r="G27" s="3">
-        <v>-14300</v>
+        <v>43800</v>
       </c>
       <c r="H27" s="3">
-        <v>-28700</v>
+        <v>-14400</v>
       </c>
       <c r="I27" s="3">
-        <v>-183100</v>
+        <v>-28900</v>
       </c>
       <c r="J27" s="3">
+        <v>-184400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-63800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>40500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1725,17 +1786,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -1743,11 +1804,14 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>-42400</v>
-      </c>
       <c r="G32" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="H32" s="3">
         <v>-6300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-800</v>
       </c>
       <c r="P32" s="3">
         <v>-800</v>
       </c>
       <c r="Q32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E33" s="3">
         <v>2100</v>
       </c>
-      <c r="E33" s="3">
-        <v>-12000</v>
-      </c>
       <c r="F33" s="3">
-        <v>43500</v>
+        <v>-12100</v>
       </c>
       <c r="G33" s="3">
-        <v>-14300</v>
+        <v>43800</v>
       </c>
       <c r="H33" s="3">
-        <v>-28700</v>
+        <v>-14400</v>
       </c>
       <c r="I33" s="3">
-        <v>-183100</v>
+        <v>-28900</v>
       </c>
       <c r="J33" s="3">
+        <v>-184400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-63800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>40500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E35" s="3">
         <v>2100</v>
       </c>
-      <c r="E35" s="3">
-        <v>-12000</v>
-      </c>
       <c r="F35" s="3">
-        <v>43500</v>
+        <v>-12100</v>
       </c>
       <c r="G35" s="3">
-        <v>-14300</v>
+        <v>43800</v>
       </c>
       <c r="H35" s="3">
-        <v>-28700</v>
+        <v>-14400</v>
       </c>
       <c r="I35" s="3">
-        <v>-183100</v>
+        <v>-28900</v>
       </c>
       <c r="J35" s="3">
+        <v>-184400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-63800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>40500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>109100</v>
+        <v>91800</v>
       </c>
       <c r="E41" s="3">
-        <v>151500</v>
+        <v>109900</v>
       </c>
       <c r="F41" s="3">
-        <v>167300</v>
+        <v>152500</v>
       </c>
       <c r="G41" s="3">
-        <v>83300</v>
+        <v>168400</v>
       </c>
       <c r="H41" s="3">
-        <v>80900</v>
+        <v>83900</v>
       </c>
       <c r="I41" s="3">
-        <v>67300</v>
+        <v>81400</v>
       </c>
       <c r="J41" s="3">
+        <v>67800</v>
+      </c>
+      <c r="K41" s="3">
         <v>76600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>68200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>97100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>75400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>165400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>138300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>182000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>187000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2224,13 +2314,13 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>4000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1600</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>24</v>
@@ -2238,361 +2328,385 @@
       <c r="Q42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>208000</v>
+        <v>214900</v>
       </c>
       <c r="E43" s="3">
-        <v>199300</v>
+        <v>209500</v>
       </c>
       <c r="F43" s="3">
-        <v>207200</v>
+        <v>200700</v>
       </c>
       <c r="G43" s="3">
-        <v>211900</v>
+        <v>208600</v>
       </c>
       <c r="H43" s="3">
-        <v>214100</v>
+        <v>213400</v>
       </c>
       <c r="I43" s="3">
-        <v>254400</v>
+        <v>215600</v>
       </c>
       <c r="J43" s="3">
+        <v>256200</v>
+      </c>
+      <c r="K43" s="3">
         <v>251500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>321500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>296400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>249400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>230500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>234100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>232400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>242500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>212700</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>98100</v>
+        <v>101200</v>
       </c>
       <c r="E44" s="3">
-        <v>102200</v>
+        <v>98800</v>
       </c>
       <c r="F44" s="3">
-        <v>98500</v>
+        <v>102900</v>
       </c>
       <c r="G44" s="3">
-        <v>133900</v>
+        <v>99200</v>
       </c>
       <c r="H44" s="3">
-        <v>136100</v>
+        <v>134800</v>
       </c>
       <c r="I44" s="3">
-        <v>137400</v>
+        <v>137000</v>
       </c>
       <c r="J44" s="3">
+        <v>138300</v>
+      </c>
+      <c r="K44" s="3">
         <v>125400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>140200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>143600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>111000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>104300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>100400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>104300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>95500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>86600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E45" s="3">
         <v>7400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>9900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>10300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>15500</v>
+      </c>
+      <c r="I45" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K45" s="3">
+        <v>13800</v>
+      </c>
+      <c r="L45" s="3">
+        <v>20100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="N45" s="3">
         <v>9800</v>
       </c>
-      <c r="F45" s="3">
-        <v>10200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>15400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>10800</v>
-      </c>
-      <c r="I45" s="3">
-        <v>14200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>13800</v>
-      </c>
-      <c r="K45" s="3">
-        <v>20100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M45" s="3">
-        <v>9800</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>17700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>21500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>21500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>422700</v>
+        <v>419600</v>
       </c>
       <c r="E46" s="3">
-        <v>462800</v>
+        <v>425600</v>
       </c>
       <c r="F46" s="3">
-        <v>483100</v>
+        <v>466000</v>
       </c>
       <c r="G46" s="3">
-        <v>444400</v>
+        <v>486500</v>
       </c>
       <c r="H46" s="3">
-        <v>441900</v>
+        <v>447500</v>
       </c>
       <c r="I46" s="3">
-        <v>473300</v>
+        <v>445000</v>
       </c>
       <c r="J46" s="3">
+        <v>476600</v>
+      </c>
+      <c r="K46" s="3">
         <v>467300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>549900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>547000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>449600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>519400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>494200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>536800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>546500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>533700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E47" s="3">
         <v>4000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3900</v>
       </c>
-      <c r="F47" s="3">
-        <v>9000</v>
-      </c>
       <c r="G47" s="3">
-        <v>11400</v>
+        <v>9100</v>
       </c>
       <c r="H47" s="3">
+        <v>11500</v>
+      </c>
+      <c r="I47" s="3">
         <v>5200</v>
       </c>
-      <c r="I47" s="3">
-        <v>5500</v>
-      </c>
       <c r="J47" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K47" s="3">
         <v>12000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>22700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>23400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>23200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>24600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>24500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>309900</v>
+        <v>301400</v>
       </c>
       <c r="E48" s="3">
-        <v>320300</v>
+        <v>312100</v>
       </c>
       <c r="F48" s="3">
-        <v>333500</v>
+        <v>322500</v>
       </c>
       <c r="G48" s="3">
-        <v>358200</v>
+        <v>335800</v>
       </c>
       <c r="H48" s="3">
-        <v>379400</v>
+        <v>360700</v>
       </c>
       <c r="I48" s="3">
-        <v>392900</v>
+        <v>382000</v>
       </c>
       <c r="J48" s="3">
+        <v>395600</v>
+      </c>
+      <c r="K48" s="3">
         <v>393200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>431600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>413800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>379200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>337100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>309600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>317500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>314700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>326200</v>
+        <v>324700</v>
       </c>
       <c r="E49" s="3">
-        <v>331000</v>
+        <v>328500</v>
       </c>
       <c r="F49" s="3">
-        <v>336600</v>
+        <v>333200</v>
       </c>
       <c r="G49" s="3">
-        <v>360900</v>
+        <v>338900</v>
       </c>
       <c r="H49" s="3">
-        <v>366300</v>
+        <v>363400</v>
       </c>
       <c r="I49" s="3">
-        <v>378100</v>
+        <v>368800</v>
       </c>
       <c r="J49" s="3">
+        <v>380700</v>
+      </c>
+      <c r="K49" s="3">
         <v>506200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>625000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>600500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>378300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>385000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>354200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>380100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>378700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>22900</v>
+        <v>22000</v>
       </c>
       <c r="E52" s="3">
-        <v>25700</v>
+        <v>23100</v>
       </c>
       <c r="F52" s="3">
-        <v>27200</v>
+        <v>25800</v>
       </c>
       <c r="G52" s="3">
+        <v>27400</v>
+      </c>
+      <c r="H52" s="3">
+        <v>29700</v>
+      </c>
+      <c r="I52" s="3">
+        <v>29700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>31300</v>
+      </c>
+      <c r="K52" s="3">
+        <v>33400</v>
+      </c>
+      <c r="L52" s="3">
         <v>29500</v>
       </c>
-      <c r="H52" s="3">
-        <v>29500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>31100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>33400</v>
-      </c>
-      <c r="K52" s="3">
-        <v>29500</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>27000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>33600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>30600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>29800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>31500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>29700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1085700</v>
+        <v>1070700</v>
       </c>
       <c r="E54" s="3">
-        <v>1143700</v>
+        <v>1093200</v>
       </c>
       <c r="F54" s="3">
-        <v>1189500</v>
+        <v>1151500</v>
       </c>
       <c r="G54" s="3">
-        <v>1204400</v>
+        <v>1197700</v>
       </c>
       <c r="H54" s="3">
-        <v>1222300</v>
+        <v>1212700</v>
       </c>
       <c r="I54" s="3">
-        <v>1281000</v>
+        <v>1230700</v>
       </c>
       <c r="J54" s="3">
+        <v>1289900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1412000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1644300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1596100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1263400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1295500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1210900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1290500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1294000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1278200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3011,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>133100</v>
+        <v>137600</v>
       </c>
       <c r="E57" s="3">
-        <v>128500</v>
+        <v>134000</v>
       </c>
       <c r="F57" s="3">
-        <v>138100</v>
+        <v>129400</v>
       </c>
       <c r="G57" s="3">
-        <v>153900</v>
+        <v>139100</v>
       </c>
       <c r="H57" s="3">
-        <v>141000</v>
+        <v>154900</v>
       </c>
       <c r="I57" s="3">
-        <v>148500</v>
+        <v>142000</v>
       </c>
       <c r="J57" s="3">
+        <v>149500</v>
+      </c>
+      <c r="K57" s="3">
         <v>138400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>186900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>176300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>174700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>157400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>146000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>165000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>160400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>151300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13200</v>
+        <v>12100</v>
       </c>
       <c r="E58" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>14300</v>
+      </c>
+      <c r="G58" s="3">
+        <v>14600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>15900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>358700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K58" s="3">
+        <v>16700</v>
+      </c>
+      <c r="L58" s="3">
+        <v>15800</v>
+      </c>
+      <c r="M58" s="3">
+        <v>15500</v>
+      </c>
+      <c r="N58" s="3">
         <v>14200</v>
       </c>
-      <c r="F58" s="3">
-        <v>14500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>15800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>356300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>17500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>16700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>15800</v>
-      </c>
-      <c r="L58" s="3">
-        <v>15500</v>
-      </c>
-      <c r="M58" s="3">
-        <v>14200</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>49100</v>
+        <v>50000</v>
       </c>
       <c r="E59" s="3">
-        <v>48200</v>
+        <v>49400</v>
       </c>
       <c r="F59" s="3">
-        <v>57600</v>
+        <v>48500</v>
       </c>
       <c r="G59" s="3">
-        <v>71900</v>
+        <v>58000</v>
       </c>
       <c r="H59" s="3">
-        <v>76600</v>
+        <v>72400</v>
       </c>
       <c r="I59" s="3">
-        <v>71900</v>
+        <v>77100</v>
       </c>
       <c r="J59" s="3">
+        <v>72400</v>
+      </c>
+      <c r="K59" s="3">
         <v>76500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>73000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>77400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>64100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>61800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>69600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>76700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>85900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>195300</v>
+        <v>199700</v>
       </c>
       <c r="E60" s="3">
-        <v>190900</v>
+        <v>196700</v>
       </c>
       <c r="F60" s="3">
-        <v>210200</v>
+        <v>192200</v>
       </c>
       <c r="G60" s="3">
-        <v>241500</v>
+        <v>211600</v>
       </c>
       <c r="H60" s="3">
-        <v>573900</v>
+        <v>243200</v>
       </c>
       <c r="I60" s="3">
-        <v>237900</v>
+        <v>577900</v>
       </c>
       <c r="J60" s="3">
+        <v>239600</v>
+      </c>
+      <c r="K60" s="3">
         <v>231600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>275700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>269200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>252900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>220100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>215700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>242200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>246900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>249200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>315300</v>
+        <v>288800</v>
       </c>
       <c r="E61" s="3">
-        <v>376900</v>
+        <v>317500</v>
       </c>
       <c r="F61" s="3">
-        <v>379700</v>
+        <v>379500</v>
       </c>
       <c r="G61" s="3">
-        <v>387400</v>
+        <v>382300</v>
       </c>
       <c r="H61" s="3">
-        <v>53100</v>
+        <v>390100</v>
       </c>
       <c r="I61" s="3">
-        <v>391000</v>
+        <v>53500</v>
       </c>
       <c r="J61" s="3">
+        <v>393700</v>
+      </c>
+      <c r="K61" s="3">
         <v>392400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>424600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>422800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>166900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>211700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>192500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>202900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>199100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>193500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>38300</v>
+        <v>36400</v>
       </c>
       <c r="E62" s="3">
-        <v>36800</v>
+        <v>38600</v>
       </c>
       <c r="F62" s="3">
-        <v>40800</v>
+        <v>37000</v>
       </c>
       <c r="G62" s="3">
-        <v>41300</v>
+        <v>41100</v>
       </c>
       <c r="H62" s="3">
-        <v>41200</v>
+        <v>41600</v>
       </c>
       <c r="I62" s="3">
-        <v>48400</v>
+        <v>41500</v>
       </c>
       <c r="J62" s="3">
+        <v>48700</v>
+      </c>
+      <c r="K62" s="3">
         <v>47400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>70300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>64400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>46100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>49500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>47700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>49700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>47500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>49100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>551800</v>
+        <v>527700</v>
       </c>
       <c r="E66" s="3">
-        <v>607300</v>
+        <v>555600</v>
       </c>
       <c r="F66" s="3">
-        <v>633800</v>
+        <v>611500</v>
       </c>
       <c r="G66" s="3">
-        <v>673500</v>
+        <v>638200</v>
       </c>
       <c r="H66" s="3">
-        <v>671700</v>
+        <v>678200</v>
       </c>
       <c r="I66" s="3">
-        <v>681100</v>
+        <v>676300</v>
       </c>
       <c r="J66" s="3">
+        <v>685800</v>
+      </c>
+      <c r="K66" s="3">
         <v>675000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>774600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>760600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>469900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>485500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>459400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>498900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>498100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>496100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-50200</v>
+        <v>-57100</v>
       </c>
       <c r="E72" s="3">
-        <v>-52300</v>
+        <v>-50600</v>
       </c>
       <c r="F72" s="3">
-        <v>-40300</v>
+        <v>-52600</v>
       </c>
       <c r="G72" s="3">
-        <v>-83800</v>
+        <v>-40600</v>
       </c>
       <c r="H72" s="3">
-        <v>-69500</v>
+        <v>-84400</v>
       </c>
       <c r="I72" s="3">
-        <v>-40900</v>
+        <v>-70000</v>
       </c>
       <c r="J72" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="K72" s="3">
         <v>150500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>236600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>229400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>191500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>206600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>201700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>223100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>223500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>227500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>534000</v>
+        <v>543000</v>
       </c>
       <c r="E76" s="3">
-        <v>536300</v>
+        <v>537700</v>
       </c>
       <c r="F76" s="3">
-        <v>555700</v>
+        <v>540100</v>
       </c>
       <c r="G76" s="3">
-        <v>530900</v>
+        <v>559500</v>
       </c>
       <c r="H76" s="3">
-        <v>550600</v>
+        <v>534500</v>
       </c>
       <c r="I76" s="3">
-        <v>600000</v>
+        <v>554400</v>
       </c>
       <c r="J76" s="3">
+        <v>604100</v>
+      </c>
+      <c r="K76" s="3">
         <v>737000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>869800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>835500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>793500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>810000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>751500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>791500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>795900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>782100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E81" s="3">
         <v>2100</v>
       </c>
-      <c r="E81" s="3">
-        <v>-12000</v>
-      </c>
       <c r="F81" s="3">
-        <v>43500</v>
+        <v>-12100</v>
       </c>
       <c r="G81" s="3">
-        <v>-14300</v>
+        <v>43800</v>
       </c>
       <c r="H81" s="3">
-        <v>-28700</v>
+        <v>-14400</v>
       </c>
       <c r="I81" s="3">
-        <v>-183100</v>
+        <v>-28900</v>
       </c>
       <c r="J81" s="3">
+        <v>-184400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-63800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>40500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15200</v>
+        <v>15100</v>
       </c>
       <c r="E83" s="3">
-        <v>15600</v>
+        <v>15300</v>
       </c>
       <c r="F83" s="3">
-        <v>17400</v>
+        <v>15700</v>
       </c>
       <c r="G83" s="3">
-        <v>17400</v>
+        <v>17500</v>
       </c>
       <c r="H83" s="3">
-        <v>18200</v>
+        <v>17500</v>
       </c>
       <c r="I83" s="3">
-        <v>19200</v>
+        <v>18300</v>
       </c>
       <c r="J83" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K83" s="3">
         <v>21300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>15900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>15100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>16400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>18400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>19200</v>
+        <v>13300</v>
       </c>
       <c r="E89" s="3">
-        <v>-15000</v>
+        <v>19400</v>
       </c>
       <c r="F89" s="3">
-        <v>8100</v>
+        <v>-15100</v>
       </c>
       <c r="G89" s="3">
+        <v>8200</v>
+      </c>
+      <c r="H89" s="3">
         <v>5700</v>
       </c>
-      <c r="H89" s="3">
-        <v>20700</v>
-      </c>
       <c r="I89" s="3">
+        <v>20900</v>
+      </c>
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>38200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-16600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>13800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>39100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-14600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>21300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-21800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3400</v>
       </c>
-      <c r="F91" s="3">
-        <v>-5500</v>
-      </c>
       <c r="G91" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="H91" s="3">
         <v>-2600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2900</v>
       </c>
-      <c r="I91" s="3">
-        <v>-7700</v>
-      </c>
       <c r="J91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-8000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>3900</v>
-      </c>
       <c r="F94" s="3">
-        <v>82300</v>
+        <v>4000</v>
       </c>
       <c r="G94" s="3">
+        <v>82900</v>
+      </c>
+      <c r="H94" s="3">
         <v>2100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-178700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-17200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4637,28 +4871,28 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-8200</v>
       </c>
-      <c r="J96" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-8300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-8100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-8000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-7600</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-7900</v>
       </c>
       <c r="Q96" s="3">
         <v>-7900</v>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>-7900</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-7900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-62300</v>
+        <v>-31700</v>
       </c>
       <c r="E100" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-4500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6000</v>
       </c>
-      <c r="G100" s="3">
-        <v>-5100</v>
-      </c>
       <c r="H100" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="I100" s="3">
         <v>-4500</v>
       </c>
-      <c r="I100" s="3">
-        <v>-13100</v>
-      </c>
       <c r="J100" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-20600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-37100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>214700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-90600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>6600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-42300</v>
+        <v>-18100</v>
       </c>
       <c r="E102" s="3">
-        <v>-15800</v>
+        <v>-42600</v>
       </c>
       <c r="F102" s="3">
-        <v>84000</v>
+        <v>-15900</v>
       </c>
       <c r="G102" s="3">
+        <v>84500</v>
+      </c>
+      <c r="H102" s="3">
         <v>2400</v>
       </c>
-      <c r="H102" s="3">
-        <v>13500</v>
-      </c>
       <c r="I102" s="3">
+        <v>13600</v>
+      </c>
+      <c r="J102" s="3">
         <v>-9300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-33300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>19400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-91900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>20600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-37500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-30600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>58500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>228800</v>
+        <v>209100</v>
       </c>
       <c r="E8" s="3">
+        <v>228700</v>
+      </c>
+      <c r="F8" s="3">
         <v>240100</v>
       </c>
-      <c r="F8" s="3">
-        <v>219300</v>
-      </c>
       <c r="G8" s="3">
-        <v>255700</v>
+        <v>219200</v>
       </c>
       <c r="H8" s="3">
-        <v>210200</v>
+        <v>255600</v>
       </c>
       <c r="I8" s="3">
-        <v>208900</v>
+        <v>210100</v>
       </c>
       <c r="J8" s="3">
+        <v>208800</v>
+      </c>
+      <c r="K8" s="3">
         <v>250400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>260500</v>
-      </c>
-      <c r="L8" s="3">
-        <v>326600</v>
       </c>
       <c r="M8" s="3">
         <v>326600</v>
       </c>
       <c r="N8" s="3">
+        <v>326600</v>
+      </c>
+      <c r="O8" s="3">
         <v>269100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>269500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>254800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>266000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>264100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>162900</v>
+        <v>153600</v>
       </c>
       <c r="E9" s="3">
-        <v>171300</v>
+        <v>162800</v>
       </c>
       <c r="F9" s="3">
-        <v>162200</v>
+        <v>171200</v>
       </c>
       <c r="G9" s="3">
-        <v>181000</v>
+        <v>162100</v>
       </c>
       <c r="H9" s="3">
-        <v>151800</v>
+        <v>180900</v>
       </c>
       <c r="I9" s="3">
-        <v>155700</v>
+        <v>151700</v>
       </c>
       <c r="J9" s="3">
+        <v>155600</v>
+      </c>
+      <c r="K9" s="3">
         <v>183500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>185000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>231600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>233400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>193500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>193600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>179600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>180200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>176100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>65900</v>
+        <v>55400</v>
       </c>
       <c r="E10" s="3">
+        <v>65800</v>
+      </c>
+      <c r="F10" s="3">
         <v>68800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>57100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>74700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>58400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>53200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>66900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>75500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>95000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>93100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>75600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>75900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>75200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>85800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>88000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E12" s="3">
         <v>1800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1800</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2700</v>
       </c>
       <c r="J12" s="3">
         <v>2700</v>
       </c>
       <c r="K12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L12" s="3">
         <v>1700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,114 +1045,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E14" s="3">
         <v>10000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>159800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>82400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2100</v>
-      </c>
-      <c r="P14" s="3">
-        <v>600</v>
       </c>
       <c r="Q14" s="3">
         <v>600</v>
       </c>
       <c r="R14" s="3">
+        <v>600</v>
+      </c>
+      <c r="S14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E15" s="3">
         <v>15100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>15300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>15700</v>
-      </c>
-      <c r="G15" s="3">
-        <v>17500</v>
       </c>
       <c r="H15" s="3">
         <v>17500</v>
       </c>
       <c r="I15" s="3">
+        <v>17500</v>
+      </c>
+      <c r="J15" s="3">
         <v>18300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>19300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>21300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>20700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>22200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>15900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>15100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>12500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>16400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>18400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>228100</v>
+        <v>252300</v>
       </c>
       <c r="E17" s="3">
-        <v>233300</v>
+        <v>228000</v>
       </c>
       <c r="F17" s="3">
-        <v>223800</v>
+        <v>233200</v>
       </c>
       <c r="G17" s="3">
-        <v>243600</v>
+        <v>223700</v>
       </c>
       <c r="H17" s="3">
-        <v>225600</v>
+        <v>243500</v>
       </c>
       <c r="I17" s="3">
-        <v>237600</v>
+        <v>225500</v>
       </c>
       <c r="J17" s="3">
+        <v>237500</v>
+      </c>
+      <c r="K17" s="3">
         <v>425000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>340100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>312900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>304200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>273200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>264500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>243000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>256400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>256300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>295400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="E18" s="3">
         <v>700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-15400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-28700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-174500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-79600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>22300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>11800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1280,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>42700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>800</v>
       </c>
       <c r="Q20" s="3">
         <v>800</v>
       </c>
       <c r="R20" s="3">
+        <v>800</v>
+      </c>
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="E21" s="3">
         <v>17100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>22300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>72300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-155000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-53800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>34700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>52400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>20400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>25100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>26800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>26700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E22" s="3">
         <v>4100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5800</v>
       </c>
-      <c r="H22" s="3">
-        <v>5300</v>
-      </c>
       <c r="I22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J22" s="3">
         <v>4100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>49000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-14300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-32800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-179300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-79800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>25500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>10000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E24" s="3">
         <v>4600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-15900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-14900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>43800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14400</v>
       </c>
-      <c r="I26" s="3">
-        <v>-29000</v>
-      </c>
       <c r="J26" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-184500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-64000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>40400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>43800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-28900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-184400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-63800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>40500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1789,17 +1849,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -1807,11 +1867,14 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-42700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-800</v>
       </c>
       <c r="Q32" s="3">
         <v>-800</v>
       </c>
       <c r="R32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>43800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-28900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-184400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-63800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>40500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>43800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-28900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-184400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-63800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>40500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>91800</v>
+        <v>97700</v>
       </c>
       <c r="E41" s="3">
+        <v>91700</v>
+      </c>
+      <c r="F41" s="3">
         <v>109900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>152500</v>
       </c>
-      <c r="G41" s="3">
-        <v>168400</v>
-      </c>
       <c r="H41" s="3">
-        <v>83900</v>
+        <v>168300</v>
       </c>
       <c r="I41" s="3">
+        <v>83800</v>
+      </c>
+      <c r="J41" s="3">
         <v>81400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>67800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>76600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>68200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>97100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>75400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>165400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>138300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>182000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>187000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2317,13 +2406,13 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>4000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1600</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>24</v>
@@ -2331,382 +2420,406 @@
       <c r="R42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>214900</v>
+        <v>184900</v>
       </c>
       <c r="E43" s="3">
-        <v>209500</v>
+        <v>214800</v>
       </c>
       <c r="F43" s="3">
-        <v>200700</v>
+        <v>209400</v>
       </c>
       <c r="G43" s="3">
-        <v>208600</v>
+        <v>200600</v>
       </c>
       <c r="H43" s="3">
-        <v>213400</v>
+        <v>208500</v>
       </c>
       <c r="I43" s="3">
-        <v>215600</v>
+        <v>213300</v>
       </c>
       <c r="J43" s="3">
+        <v>215500</v>
+      </c>
+      <c r="K43" s="3">
         <v>256200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>251500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>321500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>296400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>249400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>230500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>234100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>232400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>242500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>212700</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>101200</v>
+        <v>96300</v>
       </c>
       <c r="E44" s="3">
+        <v>101100</v>
+      </c>
+      <c r="F44" s="3">
         <v>98800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>102900</v>
       </c>
-      <c r="G44" s="3">
-        <v>99200</v>
-      </c>
       <c r="H44" s="3">
-        <v>134800</v>
+        <v>99100</v>
       </c>
       <c r="I44" s="3">
+        <v>134700</v>
+      </c>
+      <c r="J44" s="3">
         <v>137000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>138300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>125400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>140200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>143600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>111000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>104300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>100400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>104300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>95500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>86600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E45" s="3">
         <v>11800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>17700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>18100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>21500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>419600</v>
+        <v>386300</v>
       </c>
       <c r="E46" s="3">
-        <v>425600</v>
+        <v>419400</v>
       </c>
       <c r="F46" s="3">
-        <v>466000</v>
+        <v>425400</v>
       </c>
       <c r="G46" s="3">
-        <v>486500</v>
+        <v>465800</v>
       </c>
       <c r="H46" s="3">
-        <v>447500</v>
+        <v>486300</v>
       </c>
       <c r="I46" s="3">
-        <v>445000</v>
+        <v>447300</v>
       </c>
       <c r="J46" s="3">
+        <v>444800</v>
+      </c>
+      <c r="K46" s="3">
         <v>476600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>467300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>549900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>547000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>449600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>519400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>494200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>536800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>546500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>533700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>3100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>9100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>11500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>22700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>23400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>23200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>24600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>24500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>301400</v>
+        <v>283700</v>
       </c>
       <c r="E48" s="3">
-        <v>312100</v>
+        <v>301300</v>
       </c>
       <c r="F48" s="3">
-        <v>322500</v>
+        <v>312000</v>
       </c>
       <c r="G48" s="3">
-        <v>335800</v>
+        <v>322400</v>
       </c>
       <c r="H48" s="3">
-        <v>360700</v>
+        <v>335600</v>
       </c>
       <c r="I48" s="3">
-        <v>382000</v>
+        <v>360500</v>
       </c>
       <c r="J48" s="3">
+        <v>381900</v>
+      </c>
+      <c r="K48" s="3">
         <v>395600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>393200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>431600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>413800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>379200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>337100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>309600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>317500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>314700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>324700</v>
+        <v>304500</v>
       </c>
       <c r="E49" s="3">
-        <v>328500</v>
+        <v>324500</v>
       </c>
       <c r="F49" s="3">
-        <v>333200</v>
+        <v>328300</v>
       </c>
       <c r="G49" s="3">
-        <v>338900</v>
+        <v>333100</v>
       </c>
       <c r="H49" s="3">
-        <v>363400</v>
+        <v>338800</v>
       </c>
       <c r="I49" s="3">
-        <v>368800</v>
+        <v>363200</v>
       </c>
       <c r="J49" s="3">
+        <v>368600</v>
+      </c>
+      <c r="K49" s="3">
         <v>380700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>506200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>625000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>600500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>378300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>385000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>354200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>380100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>378700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E52" s="3">
         <v>22000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>23100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>25800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>27400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>29700</v>
       </c>
       <c r="I52" s="3">
         <v>29700</v>
       </c>
       <c r="J52" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K52" s="3">
         <v>31300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>33400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>29500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>27000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>33600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>30600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>29800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>31500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>29700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1070700</v>
+        <v>994900</v>
       </c>
       <c r="E54" s="3">
-        <v>1093200</v>
+        <v>1070300</v>
       </c>
       <c r="F54" s="3">
-        <v>1151500</v>
+        <v>1092800</v>
       </c>
       <c r="G54" s="3">
-        <v>1197700</v>
+        <v>1151100</v>
       </c>
       <c r="H54" s="3">
-        <v>1212700</v>
+        <v>1197200</v>
       </c>
       <c r="I54" s="3">
-        <v>1230700</v>
+        <v>1212200</v>
       </c>
       <c r="J54" s="3">
+        <v>1230200</v>
+      </c>
+      <c r="K54" s="3">
         <v>1289900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1412000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1644300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1596100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1263400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1295500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1210900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1290500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1294000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1278200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>144900</v>
+      </c>
+      <c r="E57" s="3">
         <v>137600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>134000</v>
       </c>
-      <c r="F57" s="3">
-        <v>129400</v>
-      </c>
       <c r="G57" s="3">
-        <v>139100</v>
+        <v>129300</v>
       </c>
       <c r="H57" s="3">
+        <v>139000</v>
+      </c>
+      <c r="I57" s="3">
         <v>154900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>142000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>149500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>138400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>186900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>176300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>174700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>157400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>146000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>165000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>160400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>151300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E58" s="3">
         <v>12100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>13300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15900</v>
       </c>
-      <c r="I58" s="3">
-        <v>358700</v>
-      </c>
       <c r="J58" s="3">
+        <v>358600</v>
+      </c>
+      <c r="K58" s="3">
         <v>17600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>16700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>14200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>50000</v>
+        <v>48700</v>
       </c>
       <c r="E59" s="3">
+        <v>49900</v>
+      </c>
+      <c r="F59" s="3">
         <v>49400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>48500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>58000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
+        <v>72300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>77100</v>
+      </c>
+      <c r="K59" s="3">
         <v>72400</v>
       </c>
-      <c r="I59" s="3">
-        <v>77100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>72400</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>76500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>73000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>77400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>64100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>61800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>69600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>76700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>85900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>199700</v>
+        <v>204100</v>
       </c>
       <c r="E60" s="3">
-        <v>196700</v>
+        <v>199600</v>
       </c>
       <c r="F60" s="3">
-        <v>192200</v>
+        <v>196600</v>
       </c>
       <c r="G60" s="3">
+        <v>192100</v>
+      </c>
+      <c r="H60" s="3">
         <v>211600</v>
       </c>
-      <c r="H60" s="3">
-        <v>243200</v>
-      </c>
       <c r="I60" s="3">
-        <v>577900</v>
+        <v>243100</v>
       </c>
       <c r="J60" s="3">
+        <v>577700</v>
+      </c>
+      <c r="K60" s="3">
         <v>239600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>231600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>275700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>269200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>252900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>220100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>215700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>242200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>246900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>249200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>288800</v>
+        <v>261500</v>
       </c>
       <c r="E61" s="3">
-        <v>317500</v>
+        <v>288700</v>
       </c>
       <c r="F61" s="3">
-        <v>379500</v>
+        <v>317400</v>
       </c>
       <c r="G61" s="3">
-        <v>382300</v>
+        <v>379300</v>
       </c>
       <c r="H61" s="3">
-        <v>390100</v>
+        <v>382100</v>
       </c>
       <c r="I61" s="3">
-        <v>53500</v>
+        <v>390000</v>
       </c>
       <c r="J61" s="3">
+        <v>53400</v>
+      </c>
+      <c r="K61" s="3">
         <v>393700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>392400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>424600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>422800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>166900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>211700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>192500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>202900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>199100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>193500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E62" s="3">
         <v>36400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>38600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>37000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>41100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>41600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>41500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>48700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>47400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>70300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>64400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>46100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>49500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>47700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>49700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>47500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>49100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>527700</v>
+        <v>493200</v>
       </c>
       <c r="E66" s="3">
-        <v>555600</v>
+        <v>527500</v>
       </c>
       <c r="F66" s="3">
-        <v>611500</v>
+        <v>555300</v>
       </c>
       <c r="G66" s="3">
-        <v>638200</v>
+        <v>611300</v>
       </c>
       <c r="H66" s="3">
-        <v>678200</v>
+        <v>637900</v>
       </c>
       <c r="I66" s="3">
-        <v>676300</v>
+        <v>677900</v>
       </c>
       <c r="J66" s="3">
+        <v>676000</v>
+      </c>
+      <c r="K66" s="3">
         <v>685800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>675000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>774600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>760600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>469900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>485500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>459400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>498900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>498100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>496100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-57100</v>
+        <v>-102600</v>
       </c>
       <c r="E72" s="3">
-        <v>-50600</v>
+        <v>-57000</v>
       </c>
       <c r="F72" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="G72" s="3">
         <v>-52600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-40600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-84400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-70000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-41200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>150500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>236600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>229400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>191500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>206600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>201700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>223100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>223500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>227500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>543000</v>
+        <v>501700</v>
       </c>
       <c r="E76" s="3">
-        <v>537700</v>
+        <v>542700</v>
       </c>
       <c r="F76" s="3">
-        <v>540100</v>
+        <v>537500</v>
       </c>
       <c r="G76" s="3">
-        <v>559500</v>
+        <v>539800</v>
       </c>
       <c r="H76" s="3">
-        <v>534500</v>
+        <v>559300</v>
       </c>
       <c r="I76" s="3">
-        <v>554400</v>
+        <v>534300</v>
       </c>
       <c r="J76" s="3">
+        <v>554200</v>
+      </c>
+      <c r="K76" s="3">
         <v>604100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>737000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>869800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>835500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>793500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>810000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>751500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>791500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>795900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>782100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>43800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-28900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-184400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-63800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>40500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E83" s="3">
         <v>15100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>15300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>15700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>17500</v>
       </c>
       <c r="H83" s="3">
         <v>17500</v>
       </c>
       <c r="I83" s="3">
+        <v>17500</v>
+      </c>
+      <c r="J83" s="3">
         <v>18300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>15900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>15100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>16400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>18400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E89" s="3">
         <v>13300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>19400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-15100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>20900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>38200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-16600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>13800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>39100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>21300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-21800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>82900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-178700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-17200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-18900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4874,28 +5107,28 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-8300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-8700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-8300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-8100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-8000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-7600</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-7900</v>
       </c>
       <c r="R96" s="3">
         <v>-7900</v>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>-7900</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-7900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-31700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-62700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-13200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-20600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-37100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>214700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-90600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-7100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>2200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-1700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>6600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-42600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-15900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>84500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-33300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>19400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-91900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>20600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-37500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-30600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>58500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>SAWLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>209100</v>
+        <v>205300</v>
       </c>
       <c r="E8" s="3">
-        <v>228700</v>
+        <v>204200</v>
       </c>
       <c r="F8" s="3">
-        <v>240100</v>
+        <v>223400</v>
       </c>
       <c r="G8" s="3">
-        <v>219200</v>
+        <v>234500</v>
       </c>
       <c r="H8" s="3">
-        <v>255600</v>
+        <v>214100</v>
       </c>
       <c r="I8" s="3">
-        <v>210100</v>
+        <v>249700</v>
       </c>
       <c r="J8" s="3">
+        <v>205200</v>
+      </c>
+      <c r="K8" s="3">
         <v>208800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>250400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>260500</v>
-      </c>
-      <c r="M8" s="3">
-        <v>326600</v>
       </c>
       <c r="N8" s="3">
         <v>326600</v>
       </c>
       <c r="O8" s="3">
+        <v>326600</v>
+      </c>
+      <c r="P8" s="3">
         <v>269100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>269500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>254800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>266000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>264100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>153600</v>
+        <v>149500</v>
       </c>
       <c r="E9" s="3">
-        <v>162800</v>
+        <v>150100</v>
       </c>
       <c r="F9" s="3">
-        <v>171200</v>
+        <v>159100</v>
       </c>
       <c r="G9" s="3">
-        <v>162100</v>
+        <v>167300</v>
       </c>
       <c r="H9" s="3">
-        <v>180900</v>
+        <v>158400</v>
       </c>
       <c r="I9" s="3">
-        <v>151700</v>
+        <v>176700</v>
       </c>
       <c r="J9" s="3">
+        <v>148200</v>
+      </c>
+      <c r="K9" s="3">
         <v>155600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>183500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>185000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>231600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>233400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>193500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>193600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>179600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>180200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>176100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>55400</v>
+        <v>55800</v>
       </c>
       <c r="E10" s="3">
-        <v>65800</v>
+        <v>54200</v>
       </c>
       <c r="F10" s="3">
-        <v>68800</v>
+        <v>64300</v>
       </c>
       <c r="G10" s="3">
-        <v>57100</v>
+        <v>67200</v>
       </c>
       <c r="H10" s="3">
-        <v>74700</v>
+        <v>55700</v>
       </c>
       <c r="I10" s="3">
-        <v>58400</v>
+        <v>73000</v>
       </c>
       <c r="J10" s="3">
+        <v>57000</v>
+      </c>
+      <c r="K10" s="3">
         <v>53200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>66900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>75500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>95000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>93100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>75600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>75900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>75200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>85800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>88000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,55 +959,58 @@
         <v>1600</v>
       </c>
       <c r="E12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F12" s="3">
         <v>1800</v>
       </c>
-      <c r="F12" s="3">
-        <v>1400</v>
-      </c>
       <c r="G12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H12" s="3">
         <v>1500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1800</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2700</v>
       </c>
       <c r="K12" s="3">
         <v>2700</v>
       </c>
       <c r="L12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M12" s="3">
         <v>1700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,120 +1065,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>38700</v>
+        <v>-1500</v>
       </c>
       <c r="E14" s="3">
+        <v>37800</v>
+      </c>
+      <c r="F14" s="3">
+        <v>9700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I14" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J14" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K14" s="3">
+        <v>7800</v>
+      </c>
+      <c r="L14" s="3">
+        <v>159800</v>
+      </c>
+      <c r="M14" s="3">
+        <v>82400</v>
+      </c>
+      <c r="N14" s="3">
+        <v>400</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P14" s="3">
         <v>10000</v>
       </c>
-      <c r="F14" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H14" s="3">
-        <v>4900</v>
-      </c>
-      <c r="I14" s="3">
-        <v>7000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>7800</v>
-      </c>
-      <c r="K14" s="3">
-        <v>159800</v>
-      </c>
-      <c r="L14" s="3">
-        <v>82400</v>
-      </c>
-      <c r="M14" s="3">
-        <v>400</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O14" s="3">
-        <v>10000</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2100</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>600</v>
       </c>
       <c r="R14" s="3">
         <v>600</v>
       </c>
       <c r="S14" s="3">
+        <v>600</v>
+      </c>
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>15000</v>
+        <v>13400</v>
       </c>
       <c r="E15" s="3">
+        <v>14700</v>
+      </c>
+      <c r="F15" s="3">
+        <v>14700</v>
+      </c>
+      <c r="G15" s="3">
+        <v>14900</v>
+      </c>
+      <c r="H15" s="3">
+        <v>15300</v>
+      </c>
+      <c r="I15" s="3">
+        <v>17100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K15" s="3">
+        <v>18300</v>
+      </c>
+      <c r="L15" s="3">
+        <v>19300</v>
+      </c>
+      <c r="M15" s="3">
+        <v>21300</v>
+      </c>
+      <c r="N15" s="3">
+        <v>20700</v>
+      </c>
+      <c r="O15" s="3">
+        <v>22200</v>
+      </c>
+      <c r="P15" s="3">
+        <v>15900</v>
+      </c>
+      <c r="Q15" s="3">
         <v>15100</v>
       </c>
-      <c r="F15" s="3">
-        <v>15300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>15700</v>
-      </c>
-      <c r="H15" s="3">
-        <v>17500</v>
-      </c>
-      <c r="I15" s="3">
-        <v>17500</v>
-      </c>
-      <c r="J15" s="3">
-        <v>18300</v>
-      </c>
-      <c r="K15" s="3">
-        <v>19300</v>
-      </c>
-      <c r="L15" s="3">
-        <v>21300</v>
-      </c>
-      <c r="M15" s="3">
-        <v>20700</v>
-      </c>
-      <c r="N15" s="3">
-        <v>22200</v>
-      </c>
-      <c r="O15" s="3">
-        <v>15900</v>
-      </c>
-      <c r="P15" s="3">
-        <v>15100</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>12500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>16400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>18400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>252300</v>
+        <v>205700</v>
       </c>
       <c r="E17" s="3">
-        <v>228000</v>
+        <v>246500</v>
       </c>
       <c r="F17" s="3">
-        <v>233200</v>
+        <v>222700</v>
       </c>
       <c r="G17" s="3">
-        <v>223700</v>
+        <v>227900</v>
       </c>
       <c r="H17" s="3">
-        <v>243500</v>
+        <v>218500</v>
       </c>
       <c r="I17" s="3">
-        <v>225500</v>
+        <v>237900</v>
       </c>
       <c r="J17" s="3">
+        <v>220300</v>
+      </c>
+      <c r="K17" s="3">
         <v>237500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>425000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>340100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>312900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>304200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>273200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>264500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>243000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>256400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>256300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>295400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-43300</v>
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="F18" s="3">
         <v>700</v>
       </c>
-      <c r="F18" s="3">
-        <v>6800</v>
-      </c>
       <c r="G18" s="3">
-        <v>-4500</v>
+        <v>6700</v>
       </c>
       <c r="H18" s="3">
-        <v>12100</v>
+        <v>-4400</v>
       </c>
       <c r="I18" s="3">
-        <v>-15400</v>
+        <v>11800</v>
       </c>
       <c r="J18" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-28700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-174500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-79600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>22300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>11800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,288 +1346,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2600</v>
+        <v>500</v>
       </c>
       <c r="E20" s="3">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="F20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>42700</v>
-      </c>
       <c r="I20" s="3">
-        <v>6300</v>
+        <v>41700</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>800</v>
       </c>
       <c r="R20" s="3">
         <v>800</v>
       </c>
       <c r="S20" s="3">
+        <v>800</v>
+      </c>
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-25700</v>
+        <v>13500</v>
       </c>
       <c r="E21" s="3">
-        <v>17100</v>
+        <v>-25100</v>
       </c>
       <c r="F21" s="3">
-        <v>22300</v>
+        <v>16700</v>
       </c>
       <c r="G21" s="3">
-        <v>11100</v>
+        <v>21800</v>
       </c>
       <c r="H21" s="3">
-        <v>72300</v>
+        <v>10800</v>
       </c>
       <c r="I21" s="3">
-        <v>8400</v>
+        <v>70600</v>
       </c>
       <c r="J21" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-10400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-155000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-53800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>34700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>52400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>20400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>25100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>26800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>26700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="N22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="O22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="P22" s="3">
         <v>3400</v>
       </c>
-      <c r="E22" s="3">
-        <v>4100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G22" s="3">
-        <v>5600</v>
-      </c>
-      <c r="H22" s="3">
-        <v>5800</v>
-      </c>
-      <c r="I22" s="3">
-        <v>5200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>4100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>5000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>4700</v>
-      </c>
-      <c r="M22" s="3">
-        <v>5500</v>
-      </c>
-      <c r="N22" s="3">
-        <v>4700</v>
-      </c>
-      <c r="O22" s="3">
-        <v>3400</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-44100</v>
+        <v>-3700</v>
       </c>
       <c r="E23" s="3">
-        <v>-2000</v>
+        <v>-43100</v>
       </c>
       <c r="F23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G23" s="3">
         <v>2400</v>
       </c>
-      <c r="G23" s="3">
-        <v>-10200</v>
-      </c>
       <c r="H23" s="3">
-        <v>49000</v>
+        <v>-9900</v>
       </c>
       <c r="I23" s="3">
-        <v>-14300</v>
+        <v>47900</v>
       </c>
       <c r="J23" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-32800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-179300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-79800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>25500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>10000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>2200</v>
       </c>
-      <c r="E24" s="3">
-        <v>4600</v>
-      </c>
       <c r="F24" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2200</v>
       </c>
-      <c r="H24" s="3">
-        <v>5200</v>
-      </c>
       <c r="I24" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-15900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-14900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-46300</v>
+        <v>-5500</v>
       </c>
       <c r="E26" s="3">
-        <v>-6600</v>
+        <v>-45200</v>
       </c>
       <c r="F26" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="G26" s="3">
         <v>2000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-12400</v>
-      </c>
       <c r="H26" s="3">
-        <v>43800</v>
+        <v>-12100</v>
       </c>
       <c r="I26" s="3">
-        <v>-14400</v>
+        <v>42800</v>
       </c>
       <c r="J26" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-28900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-184500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-64000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>40400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-45600</v>
+        <v>-5300</v>
       </c>
       <c r="E27" s="3">
-        <v>-6500</v>
+        <v>-44500</v>
       </c>
       <c r="F27" s="3">
-        <v>2100</v>
+        <v>-6400</v>
       </c>
       <c r="G27" s="3">
-        <v>-12100</v>
+        <v>2000</v>
       </c>
       <c r="H27" s="3">
-        <v>43800</v>
+        <v>-11800</v>
       </c>
       <c r="I27" s="3">
-        <v>-14400</v>
+        <v>42800</v>
       </c>
       <c r="J27" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-28900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-184400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-63800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>40500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1852,17 +1913,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -1870,11 +1931,14 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2600</v>
+        <v>-500</v>
       </c>
       <c r="E32" s="3">
-        <v>-1400</v>
+        <v>-2500</v>
       </c>
       <c r="F32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>-42700</v>
-      </c>
       <c r="I32" s="3">
-        <v>-6300</v>
+        <v>-41700</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-6200</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-800</v>
       </c>
       <c r="R32" s="3">
         <v>-800</v>
       </c>
       <c r="S32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-45600</v>
+        <v>-5300</v>
       </c>
       <c r="E33" s="3">
-        <v>-6500</v>
+        <v>-44500</v>
       </c>
       <c r="F33" s="3">
-        <v>2100</v>
+        <v>-6400</v>
       </c>
       <c r="G33" s="3">
-        <v>-12100</v>
+        <v>2000</v>
       </c>
       <c r="H33" s="3">
-        <v>43800</v>
+        <v>-11800</v>
       </c>
       <c r="I33" s="3">
-        <v>-14400</v>
+        <v>42800</v>
       </c>
       <c r="J33" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-28900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-184400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-63800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>40500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-45600</v>
+        <v>-5300</v>
       </c>
       <c r="E35" s="3">
-        <v>-6500</v>
+        <v>-44500</v>
       </c>
       <c r="F35" s="3">
-        <v>2100</v>
+        <v>-6400</v>
       </c>
       <c r="G35" s="3">
-        <v>-12100</v>
+        <v>2000</v>
       </c>
       <c r="H35" s="3">
-        <v>43800</v>
+        <v>-11800</v>
       </c>
       <c r="I35" s="3">
-        <v>-14400</v>
+        <v>42800</v>
       </c>
       <c r="J35" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-28900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-184400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-63800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>40500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>97700</v>
+        <v>65800</v>
       </c>
       <c r="E41" s="3">
-        <v>91700</v>
+        <v>95400</v>
       </c>
       <c r="F41" s="3">
-        <v>109900</v>
+        <v>89600</v>
       </c>
       <c r="G41" s="3">
-        <v>152500</v>
+        <v>107300</v>
       </c>
       <c r="H41" s="3">
-        <v>168300</v>
+        <v>149000</v>
       </c>
       <c r="I41" s="3">
-        <v>83800</v>
+        <v>164500</v>
       </c>
       <c r="J41" s="3">
+        <v>81900</v>
+      </c>
+      <c r="K41" s="3">
         <v>81400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>67800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>76600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>68200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>97100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>75400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>165400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>138300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>182000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>187000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2409,13 +2499,13 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>4000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>24</v>
@@ -2423,403 +2513,427 @@
       <c r="S42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>184900</v>
+        <v>189800</v>
       </c>
       <c r="E43" s="3">
-        <v>214800</v>
+        <v>180700</v>
       </c>
       <c r="F43" s="3">
-        <v>209400</v>
+        <v>209800</v>
       </c>
       <c r="G43" s="3">
-        <v>200600</v>
+        <v>204600</v>
       </c>
       <c r="H43" s="3">
-        <v>208500</v>
+        <v>195900</v>
       </c>
       <c r="I43" s="3">
-        <v>213300</v>
+        <v>203700</v>
       </c>
       <c r="J43" s="3">
+        <v>208400</v>
+      </c>
+      <c r="K43" s="3">
         <v>215500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>256200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>251500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>321500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>296400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>249400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>230500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>234100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>232400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>242500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>212700</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>96300</v>
+        <v>110900</v>
       </c>
       <c r="E44" s="3">
-        <v>101100</v>
+        <v>94100</v>
       </c>
       <c r="F44" s="3">
         <v>98800</v>
       </c>
       <c r="G44" s="3">
-        <v>102900</v>
+        <v>96500</v>
       </c>
       <c r="H44" s="3">
-        <v>99100</v>
+        <v>100500</v>
       </c>
       <c r="I44" s="3">
-        <v>134700</v>
+        <v>96800</v>
       </c>
       <c r="J44" s="3">
+        <v>131600</v>
+      </c>
+      <c r="K44" s="3">
         <v>137000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>138300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>125400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>140200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>143600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>111000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>104300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>100400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>104300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>95500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>86600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7400</v>
+        <v>8500</v>
       </c>
       <c r="E45" s="3">
-        <v>11800</v>
+        <v>7200</v>
       </c>
       <c r="F45" s="3">
-        <v>7400</v>
+        <v>11500</v>
       </c>
       <c r="G45" s="3">
-        <v>9900</v>
+        <v>7200</v>
       </c>
       <c r="H45" s="3">
-        <v>10300</v>
+        <v>9700</v>
       </c>
       <c r="I45" s="3">
-        <v>15500</v>
+        <v>10100</v>
       </c>
       <c r="J45" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K45" s="3">
         <v>10900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>20100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>17700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>21500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>18100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>21500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>386300</v>
+        <v>374900</v>
       </c>
       <c r="E46" s="3">
-        <v>419400</v>
+        <v>377400</v>
       </c>
       <c r="F46" s="3">
-        <v>425400</v>
+        <v>409800</v>
       </c>
       <c r="G46" s="3">
-        <v>465800</v>
+        <v>415600</v>
       </c>
       <c r="H46" s="3">
-        <v>486300</v>
+        <v>455100</v>
       </c>
       <c r="I46" s="3">
-        <v>447300</v>
+        <v>475100</v>
       </c>
       <c r="J46" s="3">
+        <v>437000</v>
+      </c>
+      <c r="K46" s="3">
         <v>444800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>476600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>467300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>549900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>547000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>449600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>519400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>494200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>536800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>546500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>533700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E47" s="3">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="G47" s="3">
         <v>3900</v>
       </c>
       <c r="H47" s="3">
-        <v>9100</v>
+        <v>3800</v>
       </c>
       <c r="I47" s="3">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J47" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K47" s="3">
         <v>5200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>22700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>23400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>23200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>24600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>24500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>283700</v>
+        <v>273800</v>
       </c>
       <c r="E48" s="3">
-        <v>301300</v>
+        <v>277200</v>
       </c>
       <c r="F48" s="3">
-        <v>312000</v>
+        <v>294300</v>
       </c>
       <c r="G48" s="3">
-        <v>322400</v>
+        <v>304800</v>
       </c>
       <c r="H48" s="3">
-        <v>335600</v>
+        <v>315000</v>
       </c>
       <c r="I48" s="3">
-        <v>360500</v>
+        <v>327900</v>
       </c>
       <c r="J48" s="3">
+        <v>352200</v>
+      </c>
+      <c r="K48" s="3">
         <v>381900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>395600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>393200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>431600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>413800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>379200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>337100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>309600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>317500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>314700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>304500</v>
+        <v>293000</v>
       </c>
       <c r="E49" s="3">
-        <v>324500</v>
+        <v>297400</v>
       </c>
       <c r="F49" s="3">
-        <v>328300</v>
+        <v>317000</v>
       </c>
       <c r="G49" s="3">
-        <v>333100</v>
+        <v>320800</v>
       </c>
       <c r="H49" s="3">
-        <v>338800</v>
+        <v>325400</v>
       </c>
       <c r="I49" s="3">
-        <v>363200</v>
+        <v>331000</v>
       </c>
       <c r="J49" s="3">
+        <v>354900</v>
+      </c>
+      <c r="K49" s="3">
         <v>368600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>380700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>506200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>625000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>600500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>378300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>385000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>354200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>380100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>378700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>20400</v>
+        <v>19900</v>
       </c>
       <c r="E52" s="3">
-        <v>22000</v>
+        <v>19900</v>
       </c>
       <c r="F52" s="3">
-        <v>23100</v>
+        <v>21500</v>
       </c>
       <c r="G52" s="3">
-        <v>25800</v>
+        <v>22500</v>
       </c>
       <c r="H52" s="3">
-        <v>27400</v>
+        <v>25200</v>
       </c>
       <c r="I52" s="3">
+        <v>26800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>29000</v>
+      </c>
+      <c r="K52" s="3">
         <v>29700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
+        <v>31300</v>
+      </c>
+      <c r="M52" s="3">
+        <v>33400</v>
+      </c>
+      <c r="N52" s="3">
+        <v>29500</v>
+      </c>
+      <c r="O52" s="3">
+        <v>27000</v>
+      </c>
+      <c r="P52" s="3">
+        <v>33600</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>30600</v>
+      </c>
+      <c r="R52" s="3">
+        <v>29800</v>
+      </c>
+      <c r="S52" s="3">
+        <v>31500</v>
+      </c>
+      <c r="T52" s="3">
         <v>29700</v>
       </c>
-      <c r="K52" s="3">
-        <v>31300</v>
-      </c>
-      <c r="L52" s="3">
-        <v>33400</v>
-      </c>
-      <c r="M52" s="3">
-        <v>29500</v>
-      </c>
-      <c r="N52" s="3">
-        <v>27000</v>
-      </c>
-      <c r="O52" s="3">
-        <v>33600</v>
-      </c>
-      <c r="P52" s="3">
-        <v>30600</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>29800</v>
-      </c>
-      <c r="R52" s="3">
-        <v>31500</v>
-      </c>
-      <c r="S52" s="3">
-        <v>29700</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>994900</v>
+        <v>961500</v>
       </c>
       <c r="E54" s="3">
-        <v>1070300</v>
+        <v>971900</v>
       </c>
       <c r="F54" s="3">
-        <v>1092800</v>
+        <v>1045600</v>
       </c>
       <c r="G54" s="3">
-        <v>1151100</v>
+        <v>1067600</v>
       </c>
       <c r="H54" s="3">
-        <v>1197200</v>
+        <v>1124500</v>
       </c>
       <c r="I54" s="3">
-        <v>1212200</v>
+        <v>1169600</v>
       </c>
       <c r="J54" s="3">
+        <v>1184300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1230200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1289900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1412000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1644300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1596100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1263400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1295500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1210900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1290500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1294000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1278200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,288 +3272,304 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>144900</v>
+        <v>152300</v>
       </c>
       <c r="E57" s="3">
-        <v>137600</v>
+        <v>141600</v>
       </c>
       <c r="F57" s="3">
-        <v>134000</v>
+        <v>134400</v>
       </c>
       <c r="G57" s="3">
-        <v>129300</v>
+        <v>130900</v>
       </c>
       <c r="H57" s="3">
-        <v>139000</v>
+        <v>126300</v>
       </c>
       <c r="I57" s="3">
-        <v>154900</v>
+        <v>135800</v>
       </c>
       <c r="J57" s="3">
+        <v>151300</v>
+      </c>
+      <c r="K57" s="3">
         <v>142000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>149500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>138400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>186900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>176300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>174700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>157400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>146000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>165000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>160400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>151300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="E58" s="3">
-        <v>12100</v>
+        <v>10300</v>
       </c>
       <c r="F58" s="3">
-        <v>13300</v>
+        <v>11800</v>
       </c>
       <c r="G58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I58" s="3">
         <v>14300</v>
       </c>
-      <c r="H58" s="3">
-        <v>14600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>15900</v>
-      </c>
       <c r="J58" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K58" s="3">
         <v>358600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>16700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>14200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>48700</v>
+        <v>49900</v>
       </c>
       <c r="E59" s="3">
-        <v>49900</v>
+        <v>47500</v>
       </c>
       <c r="F59" s="3">
-        <v>49400</v>
+        <v>48800</v>
       </c>
       <c r="G59" s="3">
-        <v>48500</v>
+        <v>48200</v>
       </c>
       <c r="H59" s="3">
-        <v>58000</v>
+        <v>47400</v>
       </c>
       <c r="I59" s="3">
-        <v>72300</v>
+        <v>56600</v>
       </c>
       <c r="J59" s="3">
+        <v>70700</v>
+      </c>
+      <c r="K59" s="3">
         <v>77100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>72400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>76500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>73000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>77400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>64100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>61800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>69600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>76700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>85900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>204100</v>
+        <v>212900</v>
       </c>
       <c r="E60" s="3">
-        <v>199600</v>
+        <v>199400</v>
       </c>
       <c r="F60" s="3">
-        <v>196600</v>
+        <v>195000</v>
       </c>
       <c r="G60" s="3">
         <v>192100</v>
       </c>
       <c r="H60" s="3">
-        <v>211600</v>
+        <v>187700</v>
       </c>
       <c r="I60" s="3">
-        <v>243100</v>
+        <v>206700</v>
       </c>
       <c r="J60" s="3">
+        <v>237500</v>
+      </c>
+      <c r="K60" s="3">
         <v>577700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>239600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>231600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>275700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>269200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>252900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>220100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>215700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>242200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>246900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>249200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>261500</v>
+        <v>243300</v>
       </c>
       <c r="E61" s="3">
-        <v>288700</v>
+        <v>255400</v>
       </c>
       <c r="F61" s="3">
-        <v>317400</v>
+        <v>282100</v>
       </c>
       <c r="G61" s="3">
-        <v>379300</v>
+        <v>310100</v>
       </c>
       <c r="H61" s="3">
-        <v>382100</v>
+        <v>370600</v>
       </c>
       <c r="I61" s="3">
-        <v>390000</v>
+        <v>373300</v>
       </c>
       <c r="J61" s="3">
+        <v>381000</v>
+      </c>
+      <c r="K61" s="3">
         <v>53400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>393700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>392400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>424600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>422800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>166900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>211700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>192500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>202900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>199100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>193500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3431,55 +3577,58 @@
         <v>25400</v>
       </c>
       <c r="E62" s="3">
-        <v>36400</v>
+        <v>24900</v>
       </c>
       <c r="F62" s="3">
-        <v>38600</v>
+        <v>35500</v>
       </c>
       <c r="G62" s="3">
-        <v>37000</v>
+        <v>37700</v>
       </c>
       <c r="H62" s="3">
-        <v>41100</v>
+        <v>36200</v>
       </c>
       <c r="I62" s="3">
-        <v>41600</v>
+        <v>40100</v>
       </c>
       <c r="J62" s="3">
+        <v>40600</v>
+      </c>
+      <c r="K62" s="3">
         <v>41500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>48700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>47400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>70300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>64400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>46100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>49500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>47700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>49700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>47500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>49100</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>493200</v>
+        <v>483700</v>
       </c>
       <c r="E66" s="3">
-        <v>527500</v>
+        <v>481800</v>
       </c>
       <c r="F66" s="3">
-        <v>555300</v>
+        <v>515400</v>
       </c>
       <c r="G66" s="3">
-        <v>611300</v>
+        <v>542500</v>
       </c>
       <c r="H66" s="3">
-        <v>637900</v>
+        <v>597200</v>
       </c>
       <c r="I66" s="3">
-        <v>677900</v>
+        <v>623200</v>
       </c>
       <c r="J66" s="3">
+        <v>662300</v>
+      </c>
+      <c r="K66" s="3">
         <v>676000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>685800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>675000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>774600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>760600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>469900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>485500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>459400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>498900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>498100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>496100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-102600</v>
+        <v>-105600</v>
       </c>
       <c r="E72" s="3">
-        <v>-57000</v>
+        <v>-100300</v>
       </c>
       <c r="F72" s="3">
-        <v>-50500</v>
+        <v>-55700</v>
       </c>
       <c r="G72" s="3">
-        <v>-52600</v>
+        <v>-49400</v>
       </c>
       <c r="H72" s="3">
-        <v>-40600</v>
+        <v>-51400</v>
       </c>
       <c r="I72" s="3">
-        <v>-84400</v>
+        <v>-39600</v>
       </c>
       <c r="J72" s="3">
+        <v>-82400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-70000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-41200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>150500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>236600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>229400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>191500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>206600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>201700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>223100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>223500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>227500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>501700</v>
+        <v>477800</v>
       </c>
       <c r="E76" s="3">
-        <v>542700</v>
+        <v>490100</v>
       </c>
       <c r="F76" s="3">
-        <v>537500</v>
+        <v>530200</v>
       </c>
       <c r="G76" s="3">
-        <v>539800</v>
+        <v>525100</v>
       </c>
       <c r="H76" s="3">
-        <v>559300</v>
+        <v>527400</v>
       </c>
       <c r="I76" s="3">
-        <v>534300</v>
+        <v>546400</v>
       </c>
       <c r="J76" s="3">
+        <v>522000</v>
+      </c>
+      <c r="K76" s="3">
         <v>554200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>604100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>737000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>869800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>835500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>793500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>810000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>751500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>791500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>795900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>782100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-45600</v>
+        <v>-5300</v>
       </c>
       <c r="E81" s="3">
-        <v>-6500</v>
+        <v>-44500</v>
       </c>
       <c r="F81" s="3">
-        <v>2100</v>
+        <v>-6400</v>
       </c>
       <c r="G81" s="3">
-        <v>-12100</v>
+        <v>2000</v>
       </c>
       <c r="H81" s="3">
-        <v>43800</v>
+        <v>-11800</v>
       </c>
       <c r="I81" s="3">
-        <v>-14400</v>
+        <v>42800</v>
       </c>
       <c r="J81" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-28900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-184400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-63800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>40500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15000</v>
+        <v>13400</v>
       </c>
       <c r="E83" s="3">
+        <v>14700</v>
+      </c>
+      <c r="F83" s="3">
+        <v>14700</v>
+      </c>
+      <c r="G83" s="3">
+        <v>14900</v>
+      </c>
+      <c r="H83" s="3">
+        <v>15300</v>
+      </c>
+      <c r="I83" s="3">
+        <v>17100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K83" s="3">
+        <v>18300</v>
+      </c>
+      <c r="L83" s="3">
+        <v>19300</v>
+      </c>
+      <c r="M83" s="3">
+        <v>21300</v>
+      </c>
+      <c r="N83" s="3">
+        <v>20700</v>
+      </c>
+      <c r="O83" s="3">
+        <v>22200</v>
+      </c>
+      <c r="P83" s="3">
+        <v>15900</v>
+      </c>
+      <c r="Q83" s="3">
         <v>15100</v>
       </c>
-      <c r="F83" s="3">
-        <v>15300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>15700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>17500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>17500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>18300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>19300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>21300</v>
-      </c>
-      <c r="M83" s="3">
-        <v>20700</v>
-      </c>
-      <c r="N83" s="3">
-        <v>22200</v>
-      </c>
-      <c r="O83" s="3">
-        <v>15900</v>
-      </c>
-      <c r="P83" s="3">
-        <v>15100</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>16400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>18400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>33200</v>
+        <v>-9800</v>
       </c>
       <c r="E89" s="3">
-        <v>13300</v>
+        <v>32400</v>
       </c>
       <c r="F89" s="3">
-        <v>19400</v>
+        <v>13000</v>
       </c>
       <c r="G89" s="3">
-        <v>-15100</v>
+        <v>18900</v>
       </c>
       <c r="H89" s="3">
-        <v>8200</v>
+        <v>-14800</v>
       </c>
       <c r="I89" s="3">
-        <v>5700</v>
+        <v>8000</v>
       </c>
       <c r="J89" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K89" s="3">
         <v>20900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>38200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-16600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>13800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>39100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-14600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>21300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-21800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="L91" s="3">
         <v>-7800</v>
       </c>
-      <c r="E91" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E94" s="3">
         <v>1100</v>
       </c>
-      <c r="E94" s="3">
-        <v>-2000</v>
-      </c>
       <c r="F94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>4000</v>
-      </c>
       <c r="H94" s="3">
-        <v>82900</v>
+        <v>3900</v>
       </c>
       <c r="I94" s="3">
+        <v>81000</v>
+      </c>
+      <c r="J94" s="3">
         <v>2100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-178700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-12400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-18900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5110,28 +5344,28 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-8300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-8200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-8700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-8300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-8100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-7600</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-7900</v>
       </c>
       <c r="S96" s="3">
         <v>-7900</v>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>-7900</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-7900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-29400</v>
+        <v>-13300</v>
       </c>
       <c r="E100" s="3">
-        <v>-31700</v>
+        <v>-28700</v>
       </c>
       <c r="F100" s="3">
-        <v>-62700</v>
+        <v>-31000</v>
       </c>
       <c r="G100" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4500</v>
       </c>
-      <c r="H100" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-20600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-37100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>214700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-90600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-7100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-1700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5900</v>
+        <v>-29600</v>
       </c>
       <c r="E102" s="3">
-        <v>-18100</v>
+        <v>5800</v>
       </c>
       <c r="F102" s="3">
-        <v>-42600</v>
+        <v>-17700</v>
       </c>
       <c r="G102" s="3">
-        <v>-15900</v>
+        <v>-41600</v>
       </c>
       <c r="H102" s="3">
-        <v>84500</v>
+        <v>-15500</v>
       </c>
       <c r="I102" s="3">
+        <v>82600</v>
+      </c>
+      <c r="J102" s="3">
         <v>2400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-33300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>19400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-91900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>20600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-37500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-30600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>58500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>SAWLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>205300</v>
+        <v>237500</v>
       </c>
       <c r="E8" s="3">
-        <v>204200</v>
+        <v>207200</v>
       </c>
       <c r="F8" s="3">
-        <v>223400</v>
+        <v>206100</v>
       </c>
       <c r="G8" s="3">
-        <v>234500</v>
+        <v>225500</v>
       </c>
       <c r="H8" s="3">
-        <v>214100</v>
+        <v>236700</v>
       </c>
       <c r="I8" s="3">
-        <v>249700</v>
+        <v>216100</v>
       </c>
       <c r="J8" s="3">
+        <v>252000</v>
+      </c>
+      <c r="K8" s="3">
         <v>205200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>208800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>250400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>260500</v>
-      </c>
-      <c r="N8" s="3">
-        <v>326600</v>
       </c>
       <c r="O8" s="3">
         <v>326600</v>
       </c>
       <c r="P8" s="3">
+        <v>326600</v>
+      </c>
+      <c r="Q8" s="3">
         <v>269100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>269500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>254800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>266000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>264100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>149500</v>
+        <v>170900</v>
       </c>
       <c r="E9" s="3">
-        <v>150100</v>
+        <v>150800</v>
       </c>
       <c r="F9" s="3">
-        <v>159100</v>
+        <v>151500</v>
       </c>
       <c r="G9" s="3">
-        <v>167300</v>
+        <v>160600</v>
       </c>
       <c r="H9" s="3">
-        <v>158400</v>
+        <v>168800</v>
       </c>
       <c r="I9" s="3">
-        <v>176700</v>
+        <v>159900</v>
       </c>
       <c r="J9" s="3">
+        <v>178400</v>
+      </c>
+      <c r="K9" s="3">
         <v>148200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>155600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>183500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>185000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>231600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>233400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>193500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>193600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>179600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>180200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>176100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>55800</v>
+        <v>66600</v>
       </c>
       <c r="E10" s="3">
-        <v>54200</v>
+        <v>56400</v>
       </c>
       <c r="F10" s="3">
-        <v>64300</v>
+        <v>54700</v>
       </c>
       <c r="G10" s="3">
-        <v>67200</v>
+        <v>64900</v>
       </c>
       <c r="H10" s="3">
-        <v>55700</v>
+        <v>67800</v>
       </c>
       <c r="I10" s="3">
-        <v>73000</v>
+        <v>56300</v>
       </c>
       <c r="J10" s="3">
+        <v>73600</v>
+      </c>
+      <c r="K10" s="3">
         <v>57000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>53200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>66900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>75500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>95000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>93100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>75600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>75900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>75200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>85800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>88000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="E12" s="3">
         <v>1600</v>
       </c>
       <c r="F12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G12" s="3">
         <v>1800</v>
       </c>
-      <c r="G12" s="3">
-        <v>1300</v>
-      </c>
       <c r="H12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I12" s="3">
         <v>1500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>2700</v>
       </c>
       <c r="L12" s="3">
         <v>2700</v>
       </c>
       <c r="M12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N12" s="3">
         <v>1700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,126 +1085,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-1500</v>
+        <v>19200</v>
       </c>
       <c r="E14" s="3">
-        <v>37800</v>
+        <v>2400</v>
       </c>
       <c r="F14" s="3">
-        <v>9700</v>
+        <v>38200</v>
       </c>
       <c r="G14" s="3">
+        <v>9800</v>
+      </c>
+      <c r="H14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1600</v>
       </c>
-      <c r="I14" s="3">
-        <v>4800</v>
-      </c>
       <c r="J14" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K14" s="3">
         <v>6900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>159800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>82400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>10000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2100</v>
-      </c>
-      <c r="R14" s="3">
-        <v>600</v>
       </c>
       <c r="S14" s="3">
         <v>600</v>
       </c>
       <c r="T14" s="3">
+        <v>600</v>
+      </c>
+      <c r="U14" s="3">
         <v>400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="E15" s="3">
-        <v>14700</v>
+        <v>13500</v>
       </c>
       <c r="F15" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="G15" s="3">
         <v>14900</v>
       </c>
       <c r="H15" s="3">
-        <v>15300</v>
+        <v>15100</v>
       </c>
       <c r="I15" s="3">
+        <v>15500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K15" s="3">
         <v>17100</v>
       </c>
-      <c r="J15" s="3">
-        <v>17100</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>18300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>19300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>21300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>20700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>22200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>15900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>15100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>12500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>16400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>18400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>205700</v>
+        <v>212600</v>
       </c>
       <c r="E17" s="3">
-        <v>246500</v>
+        <v>207600</v>
       </c>
       <c r="F17" s="3">
-        <v>222700</v>
+        <v>248800</v>
       </c>
       <c r="G17" s="3">
-        <v>227900</v>
+        <v>224800</v>
       </c>
       <c r="H17" s="3">
-        <v>218500</v>
+        <v>230000</v>
       </c>
       <c r="I17" s="3">
-        <v>237900</v>
+        <v>220600</v>
       </c>
       <c r="J17" s="3">
+        <v>240100</v>
+      </c>
+      <c r="K17" s="3">
         <v>220300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>237500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>425000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>340100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>312900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>304200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>273200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>264500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>243000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>256400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>256300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>295400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
-        <v>-42300</v>
-      </c>
       <c r="F18" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="G18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6700</v>
       </c>
-      <c r="H18" s="3">
-        <v>-4400</v>
-      </c>
       <c r="I18" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-174500</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-79600</v>
+      </c>
+      <c r="O18" s="3">
+        <v>13800</v>
+      </c>
+      <c r="P18" s="3">
+        <v>22300</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="S18" s="3">
         <v>11800</v>
       </c>
-      <c r="J18" s="3">
-        <v>-15100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-28700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-174500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-79600</v>
-      </c>
-      <c r="N18" s="3">
-        <v>13800</v>
-      </c>
-      <c r="O18" s="3">
-        <v>22300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>5000</v>
-      </c>
-      <c r="R18" s="3">
-        <v>11800</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1347,303 +1380,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
-        <v>2500</v>
-      </c>
       <c r="F20" s="3">
-        <v>1300</v>
+        <v>2600</v>
       </c>
       <c r="G20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>41700</v>
-      </c>
       <c r="J20" s="3">
+        <v>42100</v>
+      </c>
+      <c r="K20" s="3">
         <v>6200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
-      </c>
-      <c r="R20" s="3">
-        <v>800</v>
       </c>
       <c r="S20" s="3">
         <v>800</v>
       </c>
       <c r="T20" s="3">
+        <v>800</v>
+      </c>
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>13500</v>
+        <v>38600</v>
       </c>
       <c r="E21" s="3">
-        <v>-25100</v>
+        <v>13600</v>
       </c>
       <c r="F21" s="3">
-        <v>16700</v>
+        <v>-25300</v>
       </c>
       <c r="G21" s="3">
-        <v>21800</v>
+        <v>16900</v>
       </c>
       <c r="H21" s="3">
-        <v>10800</v>
+        <v>22000</v>
       </c>
       <c r="I21" s="3">
-        <v>70600</v>
+        <v>10900</v>
       </c>
       <c r="J21" s="3">
+        <v>71300</v>
+      </c>
+      <c r="K21" s="3">
         <v>8300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-155000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-53800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>34700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>52400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>20400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>25100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>26800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>26700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E22" s="3">
         <v>3800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="M22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="O22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="P22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="R22" s="3">
         <v>3300</v>
       </c>
-      <c r="F22" s="3">
-        <v>4000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>5400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>5600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>5100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>4100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>5000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>4700</v>
-      </c>
-      <c r="N22" s="3">
-        <v>5500</v>
-      </c>
-      <c r="O22" s="3">
-        <v>4700</v>
-      </c>
-      <c r="P22" s="3">
-        <v>3400</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>3300</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-3700</v>
+        <v>20200</v>
       </c>
       <c r="E23" s="3">
-        <v>-43100</v>
+        <v>-3800</v>
       </c>
       <c r="F23" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2400</v>
       </c>
-      <c r="H23" s="3">
-        <v>-9900</v>
-      </c>
       <c r="I23" s="3">
-        <v>47900</v>
+        <v>-10000</v>
       </c>
       <c r="J23" s="3">
+        <v>48300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-14000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-32800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-179300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-79800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>25500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2200</v>
       </c>
-      <c r="F24" s="3">
-        <v>4500</v>
-      </c>
       <c r="G24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2200</v>
       </c>
-      <c r="I24" s="3">
-        <v>5100</v>
-      </c>
       <c r="J24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-15900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-14900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5500</v>
       </c>
-      <c r="E26" s="3">
-        <v>-45200</v>
-      </c>
       <c r="F26" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="G26" s="3">
         <v>-6500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2000</v>
       </c>
-      <c r="H26" s="3">
-        <v>-12100</v>
-      </c>
       <c r="I26" s="3">
-        <v>42800</v>
+        <v>-12200</v>
       </c>
       <c r="J26" s="3">
+        <v>43200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-14100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-28900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-184500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-64000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>40400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-5300</v>
+        <v>15700</v>
       </c>
       <c r="E27" s="3">
-        <v>-44500</v>
+        <v>-5400</v>
       </c>
       <c r="F27" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="G27" s="3">
         <v>-6400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2000</v>
       </c>
-      <c r="H27" s="3">
-        <v>-11800</v>
-      </c>
       <c r="I27" s="3">
-        <v>42800</v>
+        <v>-11900</v>
       </c>
       <c r="J27" s="3">
+        <v>43200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-14000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-28900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-184400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-63800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>40500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1916,17 +1977,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -1934,11 +1995,14 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V29" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
-        <v>-2500</v>
-      </c>
       <c r="F32" s="3">
-        <v>-1300</v>
+        <v>-2600</v>
       </c>
       <c r="G32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>-41700</v>
-      </c>
       <c r="J32" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-6200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-800</v>
       </c>
       <c r="S32" s="3">
         <v>-800</v>
       </c>
       <c r="T32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5300</v>
+        <v>15700</v>
       </c>
       <c r="E33" s="3">
-        <v>-44500</v>
+        <v>-5400</v>
       </c>
       <c r="F33" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="G33" s="3">
         <v>-6400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2000</v>
       </c>
-      <c r="H33" s="3">
-        <v>-11800</v>
-      </c>
       <c r="I33" s="3">
-        <v>42800</v>
+        <v>-11900</v>
       </c>
       <c r="J33" s="3">
+        <v>43200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-14000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-28900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-184400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-63800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>40500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5300</v>
+        <v>15700</v>
       </c>
       <c r="E35" s="3">
-        <v>-44500</v>
+        <v>-5400</v>
       </c>
       <c r="F35" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="G35" s="3">
         <v>-6400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2000</v>
       </c>
-      <c r="H35" s="3">
-        <v>-11800</v>
-      </c>
       <c r="I35" s="3">
-        <v>42800</v>
+        <v>-11900</v>
       </c>
       <c r="J35" s="3">
+        <v>43200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-14000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-28900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-184400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-63800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>40500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>65800</v>
+        <v>89600</v>
       </c>
       <c r="E41" s="3">
-        <v>95400</v>
+        <v>66400</v>
       </c>
       <c r="F41" s="3">
-        <v>89600</v>
+        <v>96300</v>
       </c>
       <c r="G41" s="3">
-        <v>107300</v>
+        <v>90500</v>
       </c>
       <c r="H41" s="3">
-        <v>149000</v>
+        <v>108300</v>
       </c>
       <c r="I41" s="3">
-        <v>164500</v>
+        <v>150300</v>
       </c>
       <c r="J41" s="3">
+        <v>166000</v>
+      </c>
+      <c r="K41" s="3">
         <v>81900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>81400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>67800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>76600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>68200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>97100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>75400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>165400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>138300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>182000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>187000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2502,13 +2592,13 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>4000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1600</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>24</v>
@@ -2516,424 +2606,448 @@
       <c r="T42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>189800</v>
+        <v>213000</v>
       </c>
       <c r="E43" s="3">
-        <v>180700</v>
+        <v>191500</v>
       </c>
       <c r="F43" s="3">
-        <v>209800</v>
+        <v>182400</v>
       </c>
       <c r="G43" s="3">
-        <v>204600</v>
+        <v>211800</v>
       </c>
       <c r="H43" s="3">
-        <v>195900</v>
+        <v>206500</v>
       </c>
       <c r="I43" s="3">
-        <v>203700</v>
+        <v>197800</v>
       </c>
       <c r="J43" s="3">
+        <v>205600</v>
+      </c>
+      <c r="K43" s="3">
         <v>208400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>215500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>256200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>251500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>321500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>296400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>249400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>230500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>234100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>232400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>242500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>212700</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>110900</v>
+        <v>128100</v>
       </c>
       <c r="E44" s="3">
-        <v>94100</v>
+        <v>111900</v>
       </c>
       <c r="F44" s="3">
-        <v>98800</v>
+        <v>95000</v>
       </c>
       <c r="G44" s="3">
-        <v>96500</v>
+        <v>99700</v>
       </c>
       <c r="H44" s="3">
-        <v>100500</v>
+        <v>97400</v>
       </c>
       <c r="I44" s="3">
-        <v>96800</v>
+        <v>101400</v>
       </c>
       <c r="J44" s="3">
+        <v>97700</v>
+      </c>
+      <c r="K44" s="3">
         <v>131600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>137000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>138300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>125400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>140200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>143600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>111000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>104300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>100400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>104300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>95500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>86600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="E45" s="3">
-        <v>7200</v>
+        <v>8600</v>
       </c>
       <c r="F45" s="3">
-        <v>11500</v>
+        <v>7300</v>
       </c>
       <c r="G45" s="3">
-        <v>7200</v>
+        <v>11600</v>
       </c>
       <c r="H45" s="3">
-        <v>9700</v>
+        <v>7300</v>
       </c>
       <c r="I45" s="3">
-        <v>10100</v>
+        <v>9800</v>
       </c>
       <c r="J45" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K45" s="3">
         <v>15100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>20100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>17700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>21500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>18100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>21500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>374900</v>
+        <v>439700</v>
       </c>
       <c r="E46" s="3">
-        <v>377400</v>
+        <v>378300</v>
       </c>
       <c r="F46" s="3">
-        <v>409800</v>
+        <v>380900</v>
       </c>
       <c r="G46" s="3">
-        <v>415600</v>
+        <v>413600</v>
       </c>
       <c r="H46" s="3">
-        <v>455100</v>
+        <v>419500</v>
       </c>
       <c r="I46" s="3">
-        <v>475100</v>
+        <v>459300</v>
       </c>
       <c r="J46" s="3">
+        <v>479500</v>
+      </c>
+      <c r="K46" s="3">
         <v>437000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>444800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>476600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>467300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>549900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>547000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>449600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>519400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>494200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>536800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>546500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>533700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>3000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I47" s="3">
         <v>3900</v>
       </c>
-      <c r="H47" s="3">
-        <v>3800</v>
-      </c>
-      <c r="I47" s="3">
-        <v>8900</v>
-      </c>
       <c r="J47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K47" s="3">
         <v>11200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>22700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>23400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>23200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>24600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>24500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>273800</v>
+        <v>247000</v>
       </c>
       <c r="E48" s="3">
-        <v>277200</v>
+        <v>276300</v>
       </c>
       <c r="F48" s="3">
-        <v>294300</v>
+        <v>279800</v>
       </c>
       <c r="G48" s="3">
-        <v>304800</v>
+        <v>297100</v>
       </c>
       <c r="H48" s="3">
-        <v>315000</v>
+        <v>307600</v>
       </c>
       <c r="I48" s="3">
-        <v>327900</v>
+        <v>317900</v>
       </c>
       <c r="J48" s="3">
+        <v>330900</v>
+      </c>
+      <c r="K48" s="3">
         <v>352200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>381900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>395600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>393200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>431600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>413800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>379200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>337100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>309600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>317500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>314700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>293000</v>
+        <v>294500</v>
       </c>
       <c r="E49" s="3">
-        <v>297400</v>
+        <v>295700</v>
       </c>
       <c r="F49" s="3">
-        <v>317000</v>
+        <v>300200</v>
       </c>
       <c r="G49" s="3">
-        <v>320800</v>
+        <v>320000</v>
       </c>
       <c r="H49" s="3">
-        <v>325400</v>
+        <v>323700</v>
       </c>
       <c r="I49" s="3">
-        <v>331000</v>
+        <v>328400</v>
       </c>
       <c r="J49" s="3">
+        <v>334100</v>
+      </c>
+      <c r="K49" s="3">
         <v>354900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>368600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>380700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>506200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>625000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>600500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>378300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>385000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>354200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>380100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>378700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>19900</v>
+        <v>19000</v>
       </c>
       <c r="E52" s="3">
-        <v>19900</v>
+        <v>20100</v>
       </c>
       <c r="F52" s="3">
-        <v>21500</v>
+        <v>20100</v>
       </c>
       <c r="G52" s="3">
-        <v>22500</v>
+        <v>21700</v>
       </c>
       <c r="H52" s="3">
-        <v>25200</v>
+        <v>22700</v>
       </c>
       <c r="I52" s="3">
-        <v>26800</v>
+        <v>25500</v>
       </c>
       <c r="J52" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K52" s="3">
         <v>29000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>29700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>31300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>33400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>29500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>27000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>33600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>30600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>29800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>31500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>29700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>961500</v>
+        <v>1000100</v>
       </c>
       <c r="E54" s="3">
-        <v>971900</v>
+        <v>970400</v>
       </c>
       <c r="F54" s="3">
-        <v>1045600</v>
+        <v>980900</v>
       </c>
       <c r="G54" s="3">
-        <v>1067600</v>
+        <v>1055300</v>
       </c>
       <c r="H54" s="3">
-        <v>1124500</v>
+        <v>1077500</v>
       </c>
       <c r="I54" s="3">
-        <v>1169600</v>
+        <v>1135000</v>
       </c>
       <c r="J54" s="3">
+        <v>1180400</v>
+      </c>
+      <c r="K54" s="3">
         <v>1184300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1230200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1289900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1412000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1644300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1596100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1263400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1295500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1210900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1290500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1294000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1278200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,362 +3403,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>152300</v>
+        <v>157700</v>
       </c>
       <c r="E57" s="3">
-        <v>141600</v>
+        <v>153800</v>
       </c>
       <c r="F57" s="3">
-        <v>134400</v>
+        <v>142900</v>
       </c>
       <c r="G57" s="3">
-        <v>130900</v>
+        <v>135700</v>
       </c>
       <c r="H57" s="3">
-        <v>126300</v>
+        <v>132100</v>
       </c>
       <c r="I57" s="3">
-        <v>135800</v>
+        <v>127500</v>
       </c>
       <c r="J57" s="3">
+        <v>137100</v>
+      </c>
+      <c r="K57" s="3">
         <v>151300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>142000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>149500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>138400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>186900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>176300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>174700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>157400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>146000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>165000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>160400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>151300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10700</v>
+        <v>11100</v>
       </c>
       <c r="E58" s="3">
-        <v>10300</v>
+        <v>10800</v>
       </c>
       <c r="F58" s="3">
-        <v>11800</v>
+        <v>10400</v>
       </c>
       <c r="G58" s="3">
-        <v>13000</v>
+        <v>11900</v>
       </c>
       <c r="H58" s="3">
-        <v>14000</v>
+        <v>13100</v>
       </c>
       <c r="I58" s="3">
-        <v>14300</v>
+        <v>14100</v>
       </c>
       <c r="J58" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K58" s="3">
         <v>15500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>358600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>17600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>16700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>15500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>14200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>49900</v>
+        <v>65400</v>
       </c>
       <c r="E59" s="3">
-        <v>47500</v>
+        <v>50400</v>
       </c>
       <c r="F59" s="3">
-        <v>48800</v>
+        <v>48000</v>
       </c>
       <c r="G59" s="3">
-        <v>48200</v>
+        <v>49200</v>
       </c>
       <c r="H59" s="3">
-        <v>47400</v>
+        <v>48700</v>
       </c>
       <c r="I59" s="3">
-        <v>56600</v>
+        <v>47800</v>
       </c>
       <c r="J59" s="3">
+        <v>57100</v>
+      </c>
+      <c r="K59" s="3">
         <v>70700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>77100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>72400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>76500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>73000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>77400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>64100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>61800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>69600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>76700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>85900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>212900</v>
+        <v>234300</v>
       </c>
       <c r="E60" s="3">
-        <v>199400</v>
+        <v>214900</v>
       </c>
       <c r="F60" s="3">
-        <v>195000</v>
+        <v>201200</v>
       </c>
       <c r="G60" s="3">
-        <v>192100</v>
+        <v>196800</v>
       </c>
       <c r="H60" s="3">
-        <v>187700</v>
+        <v>193900</v>
       </c>
       <c r="I60" s="3">
-        <v>206700</v>
+        <v>189500</v>
       </c>
       <c r="J60" s="3">
+        <v>208600</v>
+      </c>
+      <c r="K60" s="3">
         <v>237500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>577700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>239600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>231600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>275700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>269200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>252900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>220100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>215700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>242200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>246900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>249200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>243300</v>
+        <v>238800</v>
       </c>
       <c r="E61" s="3">
-        <v>255400</v>
+        <v>245600</v>
       </c>
       <c r="F61" s="3">
-        <v>282100</v>
+        <v>257800</v>
       </c>
       <c r="G61" s="3">
-        <v>310100</v>
+        <v>284700</v>
       </c>
       <c r="H61" s="3">
-        <v>370600</v>
+        <v>312900</v>
       </c>
       <c r="I61" s="3">
-        <v>373300</v>
+        <v>374000</v>
       </c>
       <c r="J61" s="3">
+        <v>376800</v>
+      </c>
+      <c r="K61" s="3">
         <v>381000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>53400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>393700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>392400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>424600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>422800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>166900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>211700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>192500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>202900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>199100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>193500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25400</v>
+        <v>25300</v>
       </c>
       <c r="E62" s="3">
-        <v>24900</v>
+        <v>25600</v>
       </c>
       <c r="F62" s="3">
-        <v>35500</v>
+        <v>25100</v>
       </c>
       <c r="G62" s="3">
-        <v>37700</v>
+        <v>35900</v>
       </c>
       <c r="H62" s="3">
-        <v>36200</v>
+        <v>38000</v>
       </c>
       <c r="I62" s="3">
-        <v>40100</v>
+        <v>36500</v>
       </c>
       <c r="J62" s="3">
+        <v>40500</v>
+      </c>
+      <c r="K62" s="3">
         <v>40600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>41500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>48700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>47400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>70300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>64400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>46100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>49500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>47700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>49700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>47500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>49100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>483700</v>
+        <v>500000</v>
       </c>
       <c r="E66" s="3">
-        <v>481800</v>
+        <v>488200</v>
       </c>
       <c r="F66" s="3">
-        <v>515400</v>
+        <v>486300</v>
       </c>
       <c r="G66" s="3">
-        <v>542500</v>
+        <v>520200</v>
       </c>
       <c r="H66" s="3">
-        <v>597200</v>
+        <v>547600</v>
       </c>
       <c r="I66" s="3">
-        <v>623200</v>
+        <v>602700</v>
       </c>
       <c r="J66" s="3">
+        <v>629000</v>
+      </c>
+      <c r="K66" s="3">
         <v>662300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>676000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>685800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>675000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>774600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>760600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>469900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>485500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>459400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>498900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>498100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>496100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-105600</v>
+        <v>-90800</v>
       </c>
       <c r="E72" s="3">
-        <v>-100300</v>
+        <v>-106600</v>
       </c>
       <c r="F72" s="3">
-        <v>-55700</v>
+        <v>-101200</v>
       </c>
       <c r="G72" s="3">
-        <v>-49400</v>
+        <v>-56200</v>
       </c>
       <c r="H72" s="3">
-        <v>-51400</v>
+        <v>-49800</v>
       </c>
       <c r="I72" s="3">
-        <v>-39600</v>
+        <v>-51900</v>
       </c>
       <c r="J72" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-82400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-70000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-41200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>150500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>236600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>229400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>191500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>206600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>201700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>223100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>223500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>227500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>477800</v>
+        <v>500100</v>
       </c>
       <c r="E76" s="3">
-        <v>490100</v>
+        <v>482300</v>
       </c>
       <c r="F76" s="3">
-        <v>530200</v>
+        <v>494600</v>
       </c>
       <c r="G76" s="3">
-        <v>525100</v>
+        <v>535100</v>
       </c>
       <c r="H76" s="3">
-        <v>527400</v>
+        <v>529900</v>
       </c>
       <c r="I76" s="3">
-        <v>546400</v>
+        <v>532300</v>
       </c>
       <c r="J76" s="3">
+        <v>551500</v>
+      </c>
+      <c r="K76" s="3">
         <v>522000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>554200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>604100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>737000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>869800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>835500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>793500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>810000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>751500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>791500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>795900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>782100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5300</v>
+        <v>15700</v>
       </c>
       <c r="E81" s="3">
-        <v>-44500</v>
+        <v>-5400</v>
       </c>
       <c r="F81" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="G81" s="3">
         <v>-6400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2000</v>
       </c>
-      <c r="H81" s="3">
-        <v>-11800</v>
-      </c>
       <c r="I81" s="3">
-        <v>42800</v>
+        <v>-11900</v>
       </c>
       <c r="J81" s="3">
+        <v>43200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-14000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-28900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-184400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-63800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>40500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="E83" s="3">
-        <v>14700</v>
+        <v>13500</v>
       </c>
       <c r="F83" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="G83" s="3">
         <v>14900</v>
       </c>
       <c r="H83" s="3">
-        <v>15300</v>
+        <v>15100</v>
       </c>
       <c r="I83" s="3">
+        <v>15500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K83" s="3">
         <v>17100</v>
       </c>
-      <c r="J83" s="3">
-        <v>17100</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>18300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>15900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>15100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>16400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>18400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-9800</v>
+        <v>-6800</v>
       </c>
       <c r="E89" s="3">
-        <v>32400</v>
+        <v>-9900</v>
       </c>
       <c r="F89" s="3">
-        <v>13000</v>
+        <v>32700</v>
       </c>
       <c r="G89" s="3">
-        <v>18900</v>
+        <v>13200</v>
       </c>
       <c r="H89" s="3">
-        <v>-14800</v>
+        <v>19100</v>
       </c>
       <c r="I89" s="3">
-        <v>8000</v>
+        <v>-14900</v>
       </c>
       <c r="J89" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K89" s="3">
         <v>5600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>20900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>38200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-16600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>39100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-14600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>21300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-21800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="N91" s="3">
         <v>-8000</v>
       </c>
-      <c r="E91" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7200</v>
+        <v>34700</v>
       </c>
       <c r="E94" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F94" s="3">
         <v>1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3900</v>
       </c>
-      <c r="I94" s="3">
-        <v>81000</v>
-      </c>
       <c r="J94" s="3">
+        <v>81700</v>
+      </c>
+      <c r="K94" s="3">
         <v>2100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-178700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-17200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-12400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-18900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5347,28 +5581,28 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-8300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-8200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-8700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-8300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-8000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-7600</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-7900</v>
       </c>
       <c r="T96" s="3">
         <v>-7900</v>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>-7900</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-7900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5796,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-13300</v>
+        <v>-6000</v>
       </c>
       <c r="E100" s="3">
-        <v>-28700</v>
+        <v>-13400</v>
       </c>
       <c r="F100" s="3">
-        <v>-31000</v>
+        <v>-29000</v>
       </c>
       <c r="G100" s="3">
-        <v>-61200</v>
+        <v>-31300</v>
       </c>
       <c r="H100" s="3">
-        <v>-4400</v>
+        <v>-61800</v>
       </c>
       <c r="I100" s="3">
-        <v>-5900</v>
+        <v>-4500</v>
       </c>
       <c r="J100" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-13200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-20600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-37100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>214700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-90600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-7600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-7100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>6600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-29600</v>
+        <v>23300</v>
       </c>
       <c r="E102" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="F102" s="3">
         <v>5800</v>
       </c>
-      <c r="F102" s="3">
-        <v>-17700</v>
-      </c>
       <c r="G102" s="3">
-        <v>-41600</v>
+        <v>-17900</v>
       </c>
       <c r="H102" s="3">
-        <v>-15500</v>
+        <v>-42000</v>
       </c>
       <c r="I102" s="3">
-        <v>82600</v>
+        <v>-15600</v>
       </c>
       <c r="J102" s="3">
+        <v>83300</v>
+      </c>
+      <c r="K102" s="3">
         <v>2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-33300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>19400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-91900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>20600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-37500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-30600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>58500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
@@ -760,25 +760,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>237500</v>
+        <v>230500</v>
       </c>
       <c r="E8" s="3">
-        <v>207200</v>
+        <v>201100</v>
       </c>
       <c r="F8" s="3">
-        <v>206100</v>
+        <v>200000</v>
       </c>
       <c r="G8" s="3">
-        <v>225500</v>
+        <v>218800</v>
       </c>
       <c r="H8" s="3">
-        <v>236700</v>
+        <v>229700</v>
       </c>
       <c r="I8" s="3">
-        <v>216100</v>
+        <v>209700</v>
       </c>
       <c r="J8" s="3">
-        <v>252000</v>
+        <v>244600</v>
       </c>
       <c r="K8" s="3">
         <v>205200</v>
@@ -822,25 +822,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>170900</v>
+        <v>165900</v>
       </c>
       <c r="E9" s="3">
-        <v>150800</v>
+        <v>146400</v>
       </c>
       <c r="F9" s="3">
-        <v>151500</v>
+        <v>147000</v>
       </c>
       <c r="G9" s="3">
-        <v>160600</v>
+        <v>155800</v>
       </c>
       <c r="H9" s="3">
-        <v>168800</v>
+        <v>163800</v>
       </c>
       <c r="I9" s="3">
-        <v>159900</v>
+        <v>155100</v>
       </c>
       <c r="J9" s="3">
-        <v>178400</v>
+        <v>173100</v>
       </c>
       <c r="K9" s="3">
         <v>148200</v>
@@ -884,25 +884,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>66600</v>
+        <v>64600</v>
       </c>
       <c r="E10" s="3">
-        <v>56400</v>
+        <v>54700</v>
       </c>
       <c r="F10" s="3">
-        <v>54700</v>
+        <v>53000</v>
       </c>
       <c r="G10" s="3">
-        <v>64900</v>
+        <v>63000</v>
       </c>
       <c r="H10" s="3">
-        <v>67800</v>
+        <v>65800</v>
       </c>
       <c r="I10" s="3">
-        <v>56300</v>
+        <v>54600</v>
       </c>
       <c r="J10" s="3">
-        <v>73600</v>
+        <v>71400</v>
       </c>
       <c r="K10" s="3">
         <v>57000</v>
@@ -970,19 +970,19 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E12" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F12" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G12" s="3">
         <v>1800</v>
       </c>
       <c r="H12" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I12" s="3">
         <v>1500</v>
@@ -1094,25 +1094,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>19200</v>
+        <v>18600</v>
       </c>
       <c r="E14" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F14" s="3">
-        <v>38200</v>
+        <v>37100</v>
       </c>
       <c r="G14" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="H14" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="I14" s="3">
         <v>1600</v>
       </c>
       <c r="J14" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="K14" s="3">
         <v>6900</v>
@@ -1156,25 +1156,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>13500</v>
+        <v>13100</v>
       </c>
       <c r="E15" s="3">
-        <v>13500</v>
+        <v>13100</v>
       </c>
       <c r="F15" s="3">
-        <v>14800</v>
+        <v>14300</v>
       </c>
       <c r="G15" s="3">
-        <v>14900</v>
+        <v>14400</v>
       </c>
       <c r="H15" s="3">
-        <v>15100</v>
+        <v>14600</v>
       </c>
       <c r="I15" s="3">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="J15" s="3">
-        <v>17200</v>
+        <v>16700</v>
       </c>
       <c r="K15" s="3">
         <v>17100</v>
@@ -1239,25 +1239,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>212600</v>
+        <v>206300</v>
       </c>
       <c r="E17" s="3">
-        <v>207600</v>
+        <v>201500</v>
       </c>
       <c r="F17" s="3">
-        <v>248800</v>
+        <v>241400</v>
       </c>
       <c r="G17" s="3">
-        <v>224800</v>
+        <v>218100</v>
       </c>
       <c r="H17" s="3">
-        <v>230000</v>
+        <v>223200</v>
       </c>
       <c r="I17" s="3">
-        <v>220600</v>
+        <v>214000</v>
       </c>
       <c r="J17" s="3">
-        <v>240100</v>
+        <v>233000</v>
       </c>
       <c r="K17" s="3">
         <v>220300</v>
@@ -1301,25 +1301,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>24900</v>
+        <v>24200</v>
       </c>
       <c r="E18" s="3">
         <v>-400</v>
       </c>
       <c r="F18" s="3">
-        <v>-42700</v>
+        <v>-41400</v>
       </c>
       <c r="G18" s="3">
         <v>700</v>
       </c>
       <c r="H18" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="I18" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="J18" s="3">
-        <v>11900</v>
+        <v>11600</v>
       </c>
       <c r="K18" s="3">
         <v>-15100</v>
@@ -1393,10 +1393,10 @@
         <v>500</v>
       </c>
       <c r="F20" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G20" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
@@ -1405,7 +1405,7 @@
         <v>-100</v>
       </c>
       <c r="J20" s="3">
-        <v>42100</v>
+        <v>40900</v>
       </c>
       <c r="K20" s="3">
         <v>6200</v>
@@ -1449,25 +1449,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>38600</v>
+        <v>37400</v>
       </c>
       <c r="E21" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="F21" s="3">
-        <v>-25300</v>
+        <v>-24600</v>
       </c>
       <c r="G21" s="3">
-        <v>16900</v>
+        <v>16400</v>
       </c>
       <c r="H21" s="3">
-        <v>22000</v>
+        <v>21300</v>
       </c>
       <c r="I21" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="J21" s="3">
-        <v>71300</v>
+        <v>69200</v>
       </c>
       <c r="K21" s="3">
         <v>8300</v>
@@ -1511,25 +1511,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="E22" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="F22" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="G22" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="H22" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="I22" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J22" s="3">
         <v>5500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>5700</v>
       </c>
       <c r="K22" s="3">
         <v>5100</v>
@@ -1573,25 +1573,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>20200</v>
+        <v>19600</v>
       </c>
       <c r="E23" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="F23" s="3">
-        <v>-43500</v>
+        <v>-42200</v>
       </c>
       <c r="G23" s="3">
         <v>-1900</v>
       </c>
       <c r="H23" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I23" s="3">
-        <v>-10000</v>
+        <v>-9700</v>
       </c>
       <c r="J23" s="3">
-        <v>48300</v>
+        <v>46900</v>
       </c>
       <c r="K23" s="3">
         <v>-14000</v>
@@ -1635,25 +1635,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="E24" s="3">
         <v>1700</v>
       </c>
       <c r="F24" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G24" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="H24" s="3">
         <v>400</v>
       </c>
       <c r="I24" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J24" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
@@ -1759,25 +1759,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>15400</v>
+        <v>15000</v>
       </c>
       <c r="E26" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="F26" s="3">
-        <v>-45600</v>
+        <v>-44300</v>
       </c>
       <c r="G26" s="3">
-        <v>-6500</v>
+        <v>-6300</v>
       </c>
       <c r="H26" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I26" s="3">
-        <v>-12200</v>
+        <v>-11900</v>
       </c>
       <c r="J26" s="3">
-        <v>43200</v>
+        <v>41900</v>
       </c>
       <c r="K26" s="3">
         <v>-14100</v>
@@ -1821,25 +1821,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>15700</v>
+        <v>15300</v>
       </c>
       <c r="E27" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="F27" s="3">
-        <v>-45000</v>
+        <v>-43600</v>
       </c>
       <c r="G27" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="H27" s="3">
         <v>2000</v>
       </c>
       <c r="I27" s="3">
-        <v>-11900</v>
+        <v>-11500</v>
       </c>
       <c r="J27" s="3">
-        <v>43200</v>
+        <v>41900</v>
       </c>
       <c r="K27" s="3">
         <v>-14000</v>
@@ -2137,10 +2137,10 @@
         <v>-500</v>
       </c>
       <c r="F32" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="G32" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
@@ -2149,7 +2149,7 @@
         <v>100</v>
       </c>
       <c r="J32" s="3">
-        <v>-42100</v>
+        <v>-40900</v>
       </c>
       <c r="K32" s="3">
         <v>-6200</v>
@@ -2193,25 +2193,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>15700</v>
+        <v>15300</v>
       </c>
       <c r="E33" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="F33" s="3">
-        <v>-45000</v>
+        <v>-43600</v>
       </c>
       <c r="G33" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="H33" s="3">
         <v>2000</v>
       </c>
       <c r="I33" s="3">
-        <v>-11900</v>
+        <v>-11500</v>
       </c>
       <c r="J33" s="3">
-        <v>43200</v>
+        <v>41900</v>
       </c>
       <c r="K33" s="3">
         <v>-14000</v>
@@ -2317,25 +2317,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>15700</v>
+        <v>15300</v>
       </c>
       <c r="E35" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="F35" s="3">
-        <v>-45000</v>
+        <v>-43600</v>
       </c>
       <c r="G35" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="H35" s="3">
         <v>2000</v>
       </c>
       <c r="I35" s="3">
-        <v>-11900</v>
+        <v>-11500</v>
       </c>
       <c r="J35" s="3">
-        <v>43200</v>
+        <v>41900</v>
       </c>
       <c r="K35" s="3">
         <v>-14000</v>
@@ -2494,25 +2494,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>89600</v>
+        <v>87000</v>
       </c>
       <c r="E41" s="3">
-        <v>66400</v>
+        <v>64400</v>
       </c>
       <c r="F41" s="3">
-        <v>96300</v>
+        <v>93400</v>
       </c>
       <c r="G41" s="3">
-        <v>90500</v>
+        <v>87800</v>
       </c>
       <c r="H41" s="3">
-        <v>108300</v>
+        <v>105100</v>
       </c>
       <c r="I41" s="3">
-        <v>150300</v>
+        <v>145900</v>
       </c>
       <c r="J41" s="3">
-        <v>166000</v>
+        <v>161100</v>
       </c>
       <c r="K41" s="3">
         <v>81900</v>
@@ -2618,25 +2618,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>213000</v>
+        <v>206700</v>
       </c>
       <c r="E43" s="3">
-        <v>191500</v>
+        <v>185900</v>
       </c>
       <c r="F43" s="3">
-        <v>182400</v>
+        <v>177000</v>
       </c>
       <c r="G43" s="3">
-        <v>211800</v>
+        <v>205500</v>
       </c>
       <c r="H43" s="3">
-        <v>206500</v>
+        <v>200300</v>
       </c>
       <c r="I43" s="3">
-        <v>197800</v>
+        <v>191900</v>
       </c>
       <c r="J43" s="3">
-        <v>205600</v>
+        <v>199500</v>
       </c>
       <c r="K43" s="3">
         <v>208400</v>
@@ -2680,25 +2680,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>128100</v>
+        <v>124300</v>
       </c>
       <c r="E44" s="3">
-        <v>111900</v>
+        <v>108600</v>
       </c>
       <c r="F44" s="3">
-        <v>95000</v>
+        <v>92200</v>
       </c>
       <c r="G44" s="3">
-        <v>99700</v>
+        <v>96800</v>
       </c>
       <c r="H44" s="3">
-        <v>97400</v>
+        <v>94500</v>
       </c>
       <c r="I44" s="3">
-        <v>101400</v>
+        <v>98400</v>
       </c>
       <c r="J44" s="3">
-        <v>97700</v>
+        <v>94900</v>
       </c>
       <c r="K44" s="3">
         <v>131600</v>
@@ -2742,25 +2742,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="E45" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="F45" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="G45" s="3">
-        <v>11600</v>
+        <v>11200</v>
       </c>
       <c r="H45" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="I45" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="J45" s="3">
-        <v>10200</v>
+        <v>9900</v>
       </c>
       <c r="K45" s="3">
         <v>15100</v>
@@ -2804,25 +2804,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>439700</v>
+        <v>426700</v>
       </c>
       <c r="E46" s="3">
-        <v>378300</v>
+        <v>367200</v>
       </c>
       <c r="F46" s="3">
-        <v>380900</v>
+        <v>369600</v>
       </c>
       <c r="G46" s="3">
-        <v>413600</v>
+        <v>401300</v>
       </c>
       <c r="H46" s="3">
-        <v>419500</v>
+        <v>407100</v>
       </c>
       <c r="I46" s="3">
-        <v>459300</v>
+        <v>445700</v>
       </c>
       <c r="J46" s="3">
-        <v>479500</v>
+        <v>465300</v>
       </c>
       <c r="K46" s="3">
         <v>437000</v>
@@ -2878,13 +2878,13 @@
         <v>3000</v>
       </c>
       <c r="H47" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="I47" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="J47" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="K47" s="3">
         <v>11200</v>
@@ -2928,25 +2928,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>247000</v>
+        <v>239700</v>
       </c>
       <c r="E48" s="3">
-        <v>276300</v>
+        <v>268100</v>
       </c>
       <c r="F48" s="3">
-        <v>279800</v>
+        <v>271500</v>
       </c>
       <c r="G48" s="3">
-        <v>297100</v>
+        <v>288300</v>
       </c>
       <c r="H48" s="3">
-        <v>307600</v>
+        <v>298500</v>
       </c>
       <c r="I48" s="3">
-        <v>317900</v>
+        <v>308500</v>
       </c>
       <c r="J48" s="3">
-        <v>330900</v>
+        <v>321100</v>
       </c>
       <c r="K48" s="3">
         <v>352200</v>
@@ -2990,25 +2990,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>294500</v>
+        <v>285800</v>
       </c>
       <c r="E49" s="3">
-        <v>295700</v>
+        <v>287000</v>
       </c>
       <c r="F49" s="3">
-        <v>300200</v>
+        <v>291300</v>
       </c>
       <c r="G49" s="3">
-        <v>320000</v>
+        <v>310500</v>
       </c>
       <c r="H49" s="3">
-        <v>323700</v>
+        <v>314200</v>
       </c>
       <c r="I49" s="3">
-        <v>328400</v>
+        <v>318700</v>
       </c>
       <c r="J49" s="3">
-        <v>334100</v>
+        <v>324200</v>
       </c>
       <c r="K49" s="3">
         <v>354900</v>
@@ -3176,25 +3176,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>19000</v>
+        <v>18400</v>
       </c>
       <c r="E52" s="3">
-        <v>20100</v>
+        <v>19500</v>
       </c>
       <c r="F52" s="3">
-        <v>20100</v>
+        <v>19500</v>
       </c>
       <c r="G52" s="3">
-        <v>21700</v>
+        <v>21000</v>
       </c>
       <c r="H52" s="3">
-        <v>22700</v>
+        <v>22100</v>
       </c>
       <c r="I52" s="3">
-        <v>25500</v>
+        <v>24700</v>
       </c>
       <c r="J52" s="3">
-        <v>27000</v>
+        <v>26200</v>
       </c>
       <c r="K52" s="3">
         <v>29000</v>
@@ -3300,25 +3300,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1000100</v>
+        <v>970500</v>
       </c>
       <c r="E54" s="3">
-        <v>970400</v>
+        <v>941700</v>
       </c>
       <c r="F54" s="3">
-        <v>980900</v>
+        <v>951900</v>
       </c>
       <c r="G54" s="3">
-        <v>1055300</v>
+        <v>1024100</v>
       </c>
       <c r="H54" s="3">
-        <v>1077500</v>
+        <v>1045600</v>
       </c>
       <c r="I54" s="3">
-        <v>1135000</v>
+        <v>1101400</v>
       </c>
       <c r="J54" s="3">
-        <v>1180400</v>
+        <v>1145500</v>
       </c>
       <c r="K54" s="3">
         <v>1184300</v>
@@ -3410,25 +3410,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>157700</v>
+        <v>153100</v>
       </c>
       <c r="E57" s="3">
-        <v>153800</v>
+        <v>149200</v>
       </c>
       <c r="F57" s="3">
-        <v>142900</v>
+        <v>138700</v>
       </c>
       <c r="G57" s="3">
-        <v>135700</v>
+        <v>131600</v>
       </c>
       <c r="H57" s="3">
-        <v>132100</v>
+        <v>128200</v>
       </c>
       <c r="I57" s="3">
-        <v>127500</v>
+        <v>123700</v>
       </c>
       <c r="J57" s="3">
-        <v>137100</v>
+        <v>133000</v>
       </c>
       <c r="K57" s="3">
         <v>151300</v>
@@ -3472,25 +3472,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11100</v>
+        <v>10800</v>
       </c>
       <c r="E58" s="3">
-        <v>10800</v>
+        <v>10400</v>
       </c>
       <c r="F58" s="3">
-        <v>10400</v>
+        <v>10100</v>
       </c>
       <c r="G58" s="3">
-        <v>11900</v>
+        <v>11600</v>
       </c>
       <c r="H58" s="3">
-        <v>13100</v>
+        <v>12700</v>
       </c>
       <c r="I58" s="3">
-        <v>14100</v>
+        <v>13700</v>
       </c>
       <c r="J58" s="3">
-        <v>14400</v>
+        <v>14000</v>
       </c>
       <c r="K58" s="3">
         <v>15500</v>
@@ -3534,25 +3534,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>65400</v>
+        <v>63500</v>
       </c>
       <c r="E59" s="3">
-        <v>50400</v>
+        <v>48900</v>
       </c>
       <c r="F59" s="3">
-        <v>48000</v>
+        <v>46600</v>
       </c>
       <c r="G59" s="3">
-        <v>49200</v>
+        <v>47800</v>
       </c>
       <c r="H59" s="3">
-        <v>48700</v>
+        <v>47200</v>
       </c>
       <c r="I59" s="3">
-        <v>47800</v>
+        <v>46400</v>
       </c>
       <c r="J59" s="3">
-        <v>57100</v>
+        <v>55500</v>
       </c>
       <c r="K59" s="3">
         <v>70700</v>
@@ -3596,25 +3596,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>234300</v>
+        <v>227300</v>
       </c>
       <c r="E60" s="3">
-        <v>214900</v>
+        <v>208600</v>
       </c>
       <c r="F60" s="3">
-        <v>201200</v>
+        <v>195300</v>
       </c>
       <c r="G60" s="3">
-        <v>196800</v>
+        <v>191000</v>
       </c>
       <c r="H60" s="3">
-        <v>193900</v>
+        <v>188100</v>
       </c>
       <c r="I60" s="3">
-        <v>189500</v>
+        <v>183900</v>
       </c>
       <c r="J60" s="3">
-        <v>208600</v>
+        <v>202400</v>
       </c>
       <c r="K60" s="3">
         <v>237500</v>
@@ -3658,25 +3658,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>238800</v>
+        <v>231700</v>
       </c>
       <c r="E61" s="3">
-        <v>245600</v>
+        <v>238300</v>
       </c>
       <c r="F61" s="3">
-        <v>257800</v>
+        <v>250200</v>
       </c>
       <c r="G61" s="3">
-        <v>284700</v>
+        <v>276300</v>
       </c>
       <c r="H61" s="3">
-        <v>312900</v>
+        <v>303700</v>
       </c>
       <c r="I61" s="3">
-        <v>374000</v>
+        <v>363000</v>
       </c>
       <c r="J61" s="3">
-        <v>376800</v>
+        <v>365600</v>
       </c>
       <c r="K61" s="3">
         <v>381000</v>
@@ -3720,25 +3720,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25300</v>
+        <v>24500</v>
       </c>
       <c r="E62" s="3">
-        <v>25600</v>
+        <v>24800</v>
       </c>
       <c r="F62" s="3">
-        <v>25100</v>
+        <v>24300</v>
       </c>
       <c r="G62" s="3">
-        <v>35900</v>
+        <v>34800</v>
       </c>
       <c r="H62" s="3">
-        <v>38000</v>
+        <v>36900</v>
       </c>
       <c r="I62" s="3">
-        <v>36500</v>
+        <v>35400</v>
       </c>
       <c r="J62" s="3">
-        <v>40500</v>
+        <v>39300</v>
       </c>
       <c r="K62" s="3">
         <v>40600</v>
@@ -3968,25 +3968,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>500000</v>
+        <v>485200</v>
       </c>
       <c r="E66" s="3">
-        <v>488200</v>
+        <v>473700</v>
       </c>
       <c r="F66" s="3">
-        <v>486300</v>
+        <v>471900</v>
       </c>
       <c r="G66" s="3">
-        <v>520200</v>
+        <v>504800</v>
       </c>
       <c r="H66" s="3">
-        <v>547600</v>
+        <v>531400</v>
       </c>
       <c r="I66" s="3">
-        <v>602700</v>
+        <v>584900</v>
       </c>
       <c r="J66" s="3">
-        <v>629000</v>
+        <v>610400</v>
       </c>
       <c r="K66" s="3">
         <v>662300</v>
@@ -4302,25 +4302,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-90800</v>
+        <v>-88100</v>
       </c>
       <c r="E72" s="3">
-        <v>-106600</v>
+        <v>-103400</v>
       </c>
       <c r="F72" s="3">
-        <v>-101200</v>
+        <v>-98200</v>
       </c>
       <c r="G72" s="3">
-        <v>-56200</v>
+        <v>-54600</v>
       </c>
       <c r="H72" s="3">
-        <v>-49800</v>
+        <v>-48400</v>
       </c>
       <c r="I72" s="3">
-        <v>-51900</v>
+        <v>-50400</v>
       </c>
       <c r="J72" s="3">
-        <v>-40000</v>
+        <v>-38800</v>
       </c>
       <c r="K72" s="3">
         <v>-82400</v>
@@ -4550,25 +4550,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>500100</v>
+        <v>485300</v>
       </c>
       <c r="E76" s="3">
-        <v>482300</v>
+        <v>468000</v>
       </c>
       <c r="F76" s="3">
-        <v>494600</v>
+        <v>480000</v>
       </c>
       <c r="G76" s="3">
+        <v>519300</v>
+      </c>
+      <c r="H76" s="3">
+        <v>514200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>516500</v>
+      </c>
+      <c r="J76" s="3">
         <v>535100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>529900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>532300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>551500</v>
       </c>
       <c r="K76" s="3">
         <v>522000</v>
@@ -4741,25 +4741,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>15700</v>
+        <v>15300</v>
       </c>
       <c r="E81" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="F81" s="3">
-        <v>-45000</v>
+        <v>-43600</v>
       </c>
       <c r="G81" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="H81" s="3">
         <v>2000</v>
       </c>
       <c r="I81" s="3">
-        <v>-11900</v>
+        <v>-11500</v>
       </c>
       <c r="J81" s="3">
-        <v>43200</v>
+        <v>41900</v>
       </c>
       <c r="K81" s="3">
         <v>-14000</v>
@@ -4827,25 +4827,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13500</v>
+        <v>13100</v>
       </c>
       <c r="E83" s="3">
-        <v>13500</v>
+        <v>13100</v>
       </c>
       <c r="F83" s="3">
-        <v>14800</v>
+        <v>14300</v>
       </c>
       <c r="G83" s="3">
-        <v>14900</v>
+        <v>14400</v>
       </c>
       <c r="H83" s="3">
-        <v>15100</v>
+        <v>14600</v>
       </c>
       <c r="I83" s="3">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="J83" s="3">
-        <v>17200</v>
+        <v>16700</v>
       </c>
       <c r="K83" s="3">
         <v>17100</v>
@@ -5199,25 +5199,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="E89" s="3">
-        <v>-9900</v>
+        <v>-9600</v>
       </c>
       <c r="F89" s="3">
-        <v>32700</v>
+        <v>31700</v>
       </c>
       <c r="G89" s="3">
-        <v>13200</v>
+        <v>12800</v>
       </c>
       <c r="H89" s="3">
-        <v>19100</v>
+        <v>18500</v>
       </c>
       <c r="I89" s="3">
-        <v>-14900</v>
+        <v>-14500</v>
       </c>
       <c r="J89" s="3">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="K89" s="3">
         <v>5600</v>
@@ -5285,25 +5285,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8100</v>
+        <v>-7900</v>
       </c>
       <c r="E91" s="3">
-        <v>-8100</v>
+        <v>-7800</v>
       </c>
       <c r="F91" s="3">
-        <v>-7700</v>
+        <v>-7400</v>
       </c>
       <c r="G91" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="H91" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="I91" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="J91" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="K91" s="3">
         <v>-2500</v>
@@ -5471,10 +5471,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>34700</v>
+        <v>33700</v>
       </c>
       <c r="E94" s="3">
-        <v>-7300</v>
+        <v>-7000</v>
       </c>
       <c r="F94" s="3">
         <v>1100</v>
@@ -5486,10 +5486,10 @@
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="J94" s="3">
-        <v>81700</v>
+        <v>79300</v>
       </c>
       <c r="K94" s="3">
         <v>2100</v>
@@ -5805,25 +5805,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6000</v>
+        <v>-5800</v>
       </c>
       <c r="E100" s="3">
-        <v>-13400</v>
+        <v>-13000</v>
       </c>
       <c r="F100" s="3">
-        <v>-29000</v>
+        <v>-28100</v>
       </c>
       <c r="G100" s="3">
-        <v>-31300</v>
+        <v>-30300</v>
       </c>
       <c r="H100" s="3">
-        <v>-61800</v>
+        <v>-60000</v>
       </c>
       <c r="I100" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="J100" s="3">
-        <v>-6000</v>
+        <v>-5800</v>
       </c>
       <c r="K100" s="3">
         <v>-5100</v>
@@ -5867,7 +5867,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E101" s="3">
         <v>600</v>
@@ -5876,7 +5876,7 @@
         <v>1000</v>
       </c>
       <c r="G101" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H101" s="3">
         <v>800</v>
@@ -5929,25 +5929,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>23300</v>
+        <v>22600</v>
       </c>
       <c r="E102" s="3">
-        <v>-29900</v>
+        <v>-29000</v>
       </c>
       <c r="F102" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="G102" s="3">
-        <v>-17900</v>
+        <v>-17300</v>
       </c>
       <c r="H102" s="3">
-        <v>-42000</v>
+        <v>-40800</v>
       </c>
       <c r="I102" s="3">
-        <v>-15600</v>
+        <v>-15200</v>
       </c>
       <c r="J102" s="3">
-        <v>83300</v>
+        <v>80900</v>
       </c>
       <c r="K102" s="3">
         <v>2400</v>

--- a/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>SAWLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,308 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>230500</v>
+        <v>249900</v>
       </c>
       <c r="E8" s="3">
-        <v>201100</v>
+        <v>242300</v>
       </c>
       <c r="F8" s="3">
-        <v>200000</v>
+        <v>222000</v>
       </c>
       <c r="G8" s="3">
-        <v>218800</v>
+        <v>193700</v>
       </c>
       <c r="H8" s="3">
-        <v>229700</v>
+        <v>192700</v>
       </c>
       <c r="I8" s="3">
+        <v>210700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>221200</v>
+      </c>
+      <c r="K8" s="3">
         <v>209700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>244600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>205200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>208800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>250400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>260500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>326600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>326600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>269100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>269500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>254800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>266000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>264100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>165900</v>
+        <v>171500</v>
       </c>
       <c r="E9" s="3">
-        <v>146400</v>
+        <v>171800</v>
       </c>
       <c r="F9" s="3">
-        <v>147000</v>
+        <v>159800</v>
       </c>
       <c r="G9" s="3">
-        <v>155800</v>
+        <v>141000</v>
       </c>
       <c r="H9" s="3">
-        <v>163800</v>
+        <v>141600</v>
       </c>
       <c r="I9" s="3">
+        <v>150100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>157800</v>
+      </c>
+      <c r="K9" s="3">
         <v>155100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>173100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>148200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>155600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>183500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>185000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>231600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>233400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>193500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>193600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>179600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>180200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>176100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>64600</v>
+        <v>78400</v>
       </c>
       <c r="E10" s="3">
-        <v>54700</v>
+        <v>70500</v>
       </c>
       <c r="F10" s="3">
-        <v>53000</v>
+        <v>62200</v>
       </c>
       <c r="G10" s="3">
-        <v>63000</v>
+        <v>52700</v>
       </c>
       <c r="H10" s="3">
-        <v>65800</v>
+        <v>51100</v>
       </c>
       <c r="I10" s="3">
+        <v>60700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>63400</v>
+      </c>
+      <c r="K10" s="3">
         <v>54600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>71400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>57000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>53200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>66900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>75500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>95000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>93100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>75600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>75900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>75200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>85800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>88000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,70 +989,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F12" s="3">
         <v>1800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M12" s="3">
         <v>1800</v>
       </c>
-      <c r="H12" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="N12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="W12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="X12" s="3">
         <v>1500</v>
       </c>
-      <c r="J12" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1800</v>
-      </c>
-      <c r="L12" s="3">
-        <v>2700</v>
-      </c>
-      <c r="M12" s="3">
-        <v>2700</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1700</v>
-      </c>
-      <c r="O12" s="3">
-        <v>3100</v>
-      </c>
-      <c r="P12" s="3">
-        <v>2700</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>2500</v>
-      </c>
-      <c r="R12" s="3">
-        <v>2100</v>
-      </c>
-      <c r="S12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="T12" s="3">
-        <v>2500</v>
-      </c>
-      <c r="U12" s="3">
-        <v>2300</v>
-      </c>
-      <c r="V12" s="3">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,132 +1121,150 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>18600</v>
+        <v>7700</v>
       </c>
       <c r="E14" s="3">
-        <v>2300</v>
+        <v>5700</v>
       </c>
       <c r="F14" s="3">
-        <v>37100</v>
+        <v>17900</v>
       </c>
       <c r="G14" s="3">
-        <v>9500</v>
+        <v>2200</v>
       </c>
       <c r="H14" s="3">
-        <v>2900</v>
+        <v>35700</v>
       </c>
       <c r="I14" s="3">
+        <v>9200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K14" s="3">
         <v>1600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>4700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>6900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>7800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>159800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>82400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>10000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>2100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>13100</v>
+        <v>14500</v>
       </c>
       <c r="E15" s="3">
-        <v>13100</v>
+        <v>11900</v>
       </c>
       <c r="F15" s="3">
-        <v>14300</v>
+        <v>12600</v>
       </c>
       <c r="G15" s="3">
-        <v>14400</v>
+        <v>12600</v>
       </c>
       <c r="H15" s="3">
-        <v>14600</v>
+        <v>13800</v>
       </c>
       <c r="I15" s="3">
+        <v>13900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K15" s="3">
         <v>15000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>16700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>17100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>18300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>19300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>21300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>20700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>22200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>15900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>15100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>12500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>16400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>18400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>206300</v>
+        <v>244400</v>
       </c>
       <c r="E17" s="3">
-        <v>201500</v>
+        <v>230000</v>
       </c>
       <c r="F17" s="3">
-        <v>241400</v>
+        <v>198700</v>
       </c>
       <c r="G17" s="3">
-        <v>218100</v>
+        <v>194100</v>
       </c>
       <c r="H17" s="3">
-        <v>223200</v>
+        <v>232600</v>
       </c>
       <c r="I17" s="3">
+        <v>210100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>214900</v>
+      </c>
+      <c r="K17" s="3">
         <v>214000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>233000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>220300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>237500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>425000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>340100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>312900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>304200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>273200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>264500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>243000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>256400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>256300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>295400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>24200</v>
+        <v>5400</v>
       </c>
       <c r="E18" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>23300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
-        <v>-41400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>700</v>
-      </c>
       <c r="H18" s="3">
-        <v>6500</v>
+        <v>-39900</v>
       </c>
       <c r="I18" s="3">
+        <v>600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>11600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-15100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-28700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-174500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-79600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>13800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>22300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-4100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>5000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>11800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>9600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>7800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1381,318 +1446,350 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-56600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2500</v>
-      </c>
       <c r="G20" s="3">
+        <v>400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>40900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>6200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>300</v>
-      </c>
       <c r="N20" s="3">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>300</v>
       </c>
       <c r="P20" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>300</v>
+      </c>
+      <c r="R20" s="3">
         <v>7900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>37400</v>
+        <v>-36700</v>
       </c>
       <c r="E21" s="3">
-        <v>13200</v>
+        <v>20100</v>
       </c>
       <c r="F21" s="3">
-        <v>-24600</v>
+        <v>36000</v>
       </c>
       <c r="G21" s="3">
-        <v>16400</v>
+        <v>12700</v>
       </c>
       <c r="H21" s="3">
-        <v>21300</v>
+        <v>-23700</v>
       </c>
       <c r="I21" s="3">
+        <v>15800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K21" s="3">
         <v>10600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>69200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>8300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-10400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-155000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-53800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>34700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>52400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>11900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>20400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>25100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>26800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>26700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>4700</v>
+        <v>3900</v>
       </c>
       <c r="E22" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I22" s="3">
         <v>3700</v>
       </c>
-      <c r="F22" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4400</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K22" s="3">
         <v>5300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>5500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>5100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>4100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>5000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>4700</v>
-      </c>
-      <c r="O22" s="3">
-        <v>5500</v>
       </c>
       <c r="P22" s="3">
         <v>4700</v>
       </c>
       <c r="Q22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="R22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="S22" s="3">
         <v>3400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>3300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>2500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>2800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>2600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>19600</v>
+        <v>-55100</v>
       </c>
       <c r="E23" s="3">
-        <v>-3700</v>
+        <v>3400</v>
       </c>
       <c r="F23" s="3">
-        <v>-42200</v>
+        <v>18900</v>
       </c>
       <c r="G23" s="3">
-        <v>-1900</v>
+        <v>-3500</v>
       </c>
       <c r="H23" s="3">
-        <v>2300</v>
+        <v>-40600</v>
       </c>
       <c r="I23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-9700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>46900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-14000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-32800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-179300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-79800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>8600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>25500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-7300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>2000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>10000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>7500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>5700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>4700</v>
+        <v>-6800</v>
       </c>
       <c r="E24" s="3">
-        <v>1700</v>
+        <v>-13300</v>
       </c>
       <c r="F24" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>300</v>
+      </c>
+      <c r="K24" s="3">
         <v>2100</v>
       </c>
-      <c r="G24" s="3">
-        <v>4400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-3800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>5300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-15900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>3000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>2400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>1900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>2700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1753,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>15000</v>
+        <v>-48300</v>
       </c>
       <c r="E26" s="3">
-        <v>-5300</v>
+        <v>16600</v>
       </c>
       <c r="F26" s="3">
-        <v>-44300</v>
+        <v>14400</v>
       </c>
       <c r="G26" s="3">
-        <v>-6300</v>
+        <v>-5100</v>
       </c>
       <c r="H26" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="J26" s="3">
         <v>1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-11900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>41900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-14100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-28900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-184500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-64000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>5600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>40400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-6900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>3100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>7700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>5700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>3000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>15300</v>
+        <v>-48000</v>
       </c>
       <c r="E27" s="3">
-        <v>-5200</v>
+        <v>16600</v>
       </c>
       <c r="F27" s="3">
-        <v>-43600</v>
+        <v>14700</v>
       </c>
       <c r="G27" s="3">
-        <v>-6200</v>
+        <v>-5000</v>
       </c>
       <c r="H27" s="3">
-        <v>2000</v>
+        <v>-42000</v>
       </c>
       <c r="I27" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-11500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>41900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-14000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-28900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-184400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-63800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>5400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>40500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-7000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>3300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>7500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>5500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>2900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1939,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1980,29 +2101,35 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X29" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-2500</v>
-      </c>
       <c r="G32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-40900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-6200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-300</v>
-      </c>
       <c r="N32" s="3">
-        <v>-4500</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>-300</v>
       </c>
       <c r="P32" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R32" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>14700</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="L33" s="3">
+        <v>41900</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-184400</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>5400</v>
+      </c>
+      <c r="R33" s="3">
+        <v>40500</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="T33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="U33" s="3">
+        <v>7500</v>
+      </c>
+      <c r="V33" s="3">
+        <v>5500</v>
+      </c>
+      <c r="W33" s="3">
+        <v>2900</v>
+      </c>
+      <c r="X33" s="3">
         <v>15300</v>
       </c>
-      <c r="E33" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-43600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>41900</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-28900</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-184400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-63800</v>
-      </c>
-      <c r="O33" s="3">
-        <v>5400</v>
-      </c>
-      <c r="P33" s="3">
-        <v>40500</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="R33" s="3">
-        <v>3300</v>
-      </c>
-      <c r="S33" s="3">
-        <v>7500</v>
-      </c>
-      <c r="T33" s="3">
-        <v>5500</v>
-      </c>
-      <c r="U33" s="3">
-        <v>2900</v>
-      </c>
-      <c r="V33" s="3">
-        <v>15300</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>14700</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="L35" s="3">
+        <v>41900</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-184400</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>5400</v>
+      </c>
+      <c r="R35" s="3">
+        <v>40500</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="T35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="U35" s="3">
+        <v>7500</v>
+      </c>
+      <c r="V35" s="3">
+        <v>5500</v>
+      </c>
+      <c r="W35" s="3">
+        <v>2900</v>
+      </c>
+      <c r="X35" s="3">
         <v>15300</v>
       </c>
-      <c r="E35" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-43600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>41900</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-28900</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-184400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-63800</v>
-      </c>
-      <c r="O35" s="3">
-        <v>5400</v>
-      </c>
-      <c r="P35" s="3">
-        <v>40500</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="R35" s="3">
-        <v>3300</v>
-      </c>
-      <c r="S35" s="3">
-        <v>7500</v>
-      </c>
-      <c r="T35" s="3">
-        <v>5500</v>
-      </c>
-      <c r="U35" s="3">
-        <v>2900</v>
-      </c>
-      <c r="V35" s="3">
-        <v>15300</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2659,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>87000</v>
+        <v>190900</v>
       </c>
       <c r="E41" s="3">
-        <v>64400</v>
+        <v>89800</v>
       </c>
       <c r="F41" s="3">
-        <v>93400</v>
+        <v>83800</v>
       </c>
       <c r="G41" s="3">
-        <v>87800</v>
+        <v>62000</v>
       </c>
       <c r="H41" s="3">
-        <v>105100</v>
+        <v>90000</v>
       </c>
       <c r="I41" s="3">
+        <v>84600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>101200</v>
+      </c>
+      <c r="K41" s="3">
         <v>145900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>161100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>81900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>81400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>67800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>76600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>68200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>97100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>75400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>165400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>138300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>182000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>187000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2595,273 +2774,303 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>4000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1600</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>206700</v>
+        <v>199100</v>
       </c>
       <c r="E43" s="3">
-        <v>185900</v>
+        <v>189100</v>
       </c>
       <c r="F43" s="3">
-        <v>177000</v>
+        <v>199100</v>
       </c>
       <c r="G43" s="3">
-        <v>205500</v>
+        <v>179000</v>
       </c>
       <c r="H43" s="3">
-        <v>200300</v>
+        <v>170400</v>
       </c>
       <c r="I43" s="3">
+        <v>198000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>193000</v>
+      </c>
+      <c r="K43" s="3">
         <v>191900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>199500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>208400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>215500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>256200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>251500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>321500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>296400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>249400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>230500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>234100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>232400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>242500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>212700</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>124300</v>
+        <v>131600</v>
       </c>
       <c r="E44" s="3">
-        <v>108600</v>
+        <v>118400</v>
       </c>
       <c r="F44" s="3">
-        <v>92200</v>
+        <v>119700</v>
       </c>
       <c r="G44" s="3">
-        <v>96800</v>
+        <v>104600</v>
       </c>
       <c r="H44" s="3">
-        <v>94500</v>
+        <v>88800</v>
       </c>
       <c r="I44" s="3">
+        <v>93200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>91000</v>
+      </c>
+      <c r="K44" s="3">
         <v>98400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>94900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>131600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>137000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>138300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>125400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>140200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>143600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>111000</v>
-      </c>
-      <c r="R44" s="3">
-        <v>104300</v>
-      </c>
-      <c r="S44" s="3">
-        <v>100400</v>
       </c>
       <c r="T44" s="3">
         <v>104300</v>
       </c>
       <c r="U44" s="3">
+        <v>100400</v>
+      </c>
+      <c r="V44" s="3">
+        <v>104300</v>
+      </c>
+      <c r="W44" s="3">
         <v>95500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>86600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8700</v>
+        <v>13800</v>
       </c>
       <c r="E45" s="3">
-        <v>8300</v>
+        <v>42200</v>
       </c>
       <c r="F45" s="3">
-        <v>7100</v>
+        <v>8400</v>
       </c>
       <c r="G45" s="3">
-        <v>11200</v>
+        <v>8000</v>
       </c>
       <c r="H45" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="I45" s="3">
+        <v>10800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K45" s="3">
         <v>9500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>9900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>15100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>10900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>14300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>13800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>20100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>10000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>9800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>17700</v>
-      </c>
-      <c r="S45" s="3">
-        <v>21500</v>
-      </c>
-      <c r="T45" s="3">
-        <v>18100</v>
       </c>
       <c r="U45" s="3">
         <v>21500</v>
       </c>
       <c r="V45" s="3">
+        <v>18100</v>
+      </c>
+      <c r="W45" s="3">
+        <v>21500</v>
+      </c>
+      <c r="X45" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>426700</v>
+        <v>535400</v>
       </c>
       <c r="E46" s="3">
-        <v>367200</v>
+        <v>439500</v>
       </c>
       <c r="F46" s="3">
-        <v>369600</v>
+        <v>411000</v>
       </c>
       <c r="G46" s="3">
-        <v>401300</v>
+        <v>353600</v>
       </c>
       <c r="H46" s="3">
-        <v>407100</v>
+        <v>356000</v>
       </c>
       <c r="I46" s="3">
+        <v>386500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>392100</v>
+      </c>
+      <c r="K46" s="3">
         <v>445700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>465300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>437000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>444800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>476600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>467300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>549900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>547000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>449600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>519400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>494200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>536800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>546500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>533700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2871,183 +3080,201 @@
       <c r="E47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>3000</v>
+      <c r="F47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K47" s="3">
         <v>3800</v>
       </c>
-      <c r="I47" s="3">
-        <v>3800</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>8700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>11200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>5200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>5600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>12000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>8300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>7800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>22700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>23400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>23200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>24600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>24500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>239700</v>
+        <v>251200</v>
       </c>
       <c r="E48" s="3">
-        <v>268100</v>
+        <v>247400</v>
       </c>
       <c r="F48" s="3">
-        <v>271500</v>
+        <v>230800</v>
       </c>
       <c r="G48" s="3">
-        <v>288300</v>
+        <v>258200</v>
       </c>
       <c r="H48" s="3">
-        <v>298500</v>
+        <v>261500</v>
       </c>
       <c r="I48" s="3">
+        <v>277700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>287500</v>
+      </c>
+      <c r="K48" s="3">
         <v>308500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>321100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>352200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>381900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>395600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>393200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>431600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>413800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>379200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>337100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>309600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>317500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>314700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>285800</v>
+        <v>280500</v>
       </c>
       <c r="E49" s="3">
-        <v>287000</v>
+        <v>278500</v>
       </c>
       <c r="F49" s="3">
-        <v>291300</v>
+        <v>275200</v>
       </c>
       <c r="G49" s="3">
-        <v>310500</v>
+        <v>276400</v>
       </c>
       <c r="H49" s="3">
-        <v>314200</v>
+        <v>280600</v>
       </c>
       <c r="I49" s="3">
+        <v>299100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>302600</v>
+      </c>
+      <c r="K49" s="3">
         <v>318700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>324200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>354900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>368600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>380700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>506200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>625000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>600500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>378300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>385000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>354200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>380100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>378700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3403,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18400</v>
+        <v>53200</v>
       </c>
       <c r="E52" s="3">
-        <v>19500</v>
+        <v>34500</v>
       </c>
       <c r="F52" s="3">
-        <v>19500</v>
+        <v>17800</v>
       </c>
       <c r="G52" s="3">
-        <v>21000</v>
+        <v>18800</v>
       </c>
       <c r="H52" s="3">
-        <v>22100</v>
+        <v>18800</v>
       </c>
       <c r="I52" s="3">
+        <v>20200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K52" s="3">
         <v>24700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>26200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>29000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>29700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>31300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>33400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>29500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>27000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>33600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>30600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>29800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>31500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>29700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>970500</v>
+        <v>1120300</v>
       </c>
       <c r="E54" s="3">
-        <v>941700</v>
+        <v>999900</v>
       </c>
       <c r="F54" s="3">
-        <v>951900</v>
+        <v>934800</v>
       </c>
       <c r="G54" s="3">
-        <v>1024100</v>
+        <v>907100</v>
       </c>
       <c r="H54" s="3">
-        <v>1045600</v>
+        <v>916900</v>
       </c>
       <c r="I54" s="3">
+        <v>986400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1007100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1101400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1145500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1184300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1230200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1289900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1412000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1644300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1596100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1263400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1295500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1210900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1290500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1294000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1278200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,380 +3663,418 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>153100</v>
+        <v>72100</v>
       </c>
       <c r="E57" s="3">
-        <v>149200</v>
+        <v>166700</v>
       </c>
       <c r="F57" s="3">
-        <v>138700</v>
+        <v>147400</v>
       </c>
       <c r="G57" s="3">
-        <v>131600</v>
+        <v>143700</v>
       </c>
       <c r="H57" s="3">
-        <v>128200</v>
+        <v>133600</v>
       </c>
       <c r="I57" s="3">
+        <v>126800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>123500</v>
+      </c>
+      <c r="K57" s="3">
         <v>123700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>133000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>151300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>142000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>149500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>138400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>186900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>176300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>174700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>157400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>146000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>165000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>160400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>151300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10800</v>
+        <v>18700</v>
       </c>
       <c r="E58" s="3">
+        <v>14700</v>
+      </c>
+      <c r="F58" s="3">
         <v>10400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10100</v>
       </c>
-      <c r="G58" s="3">
-        <v>11600</v>
-      </c>
       <c r="H58" s="3">
-        <v>12700</v>
+        <v>9700</v>
       </c>
       <c r="I58" s="3">
+        <v>11200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K58" s="3">
         <v>13700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>14000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>15500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>358600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>17600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>16700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>15800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>15500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>14200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>63500</v>
+        <v>275300</v>
       </c>
       <c r="E59" s="3">
-        <v>48900</v>
+        <v>98100</v>
       </c>
       <c r="F59" s="3">
-        <v>46600</v>
+        <v>61200</v>
       </c>
       <c r="G59" s="3">
-        <v>47800</v>
+        <v>47100</v>
       </c>
       <c r="H59" s="3">
-        <v>47200</v>
+        <v>44800</v>
       </c>
       <c r="I59" s="3">
+        <v>46000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>45500</v>
+      </c>
+      <c r="K59" s="3">
         <v>46400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>55500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>70700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>77100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>72400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>76500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>73000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>77400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>64100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>61800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>69600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>76700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>85900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>227300</v>
+        <v>366000</v>
       </c>
       <c r="E60" s="3">
-        <v>208600</v>
+        <v>279400</v>
       </c>
       <c r="F60" s="3">
-        <v>195300</v>
+        <v>219000</v>
       </c>
       <c r="G60" s="3">
-        <v>191000</v>
+        <v>200900</v>
       </c>
       <c r="H60" s="3">
         <v>188100</v>
       </c>
       <c r="I60" s="3">
+        <v>184000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>181200</v>
+      </c>
+      <c r="K60" s="3">
         <v>183900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>202400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>237500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>577700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>239600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>231600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>275700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>269200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>252900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>220100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>215700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>242200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>246900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>249200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>231700</v>
+        <v>176800</v>
       </c>
       <c r="E61" s="3">
-        <v>238300</v>
+        <v>193200</v>
       </c>
       <c r="F61" s="3">
-        <v>250200</v>
+        <v>223200</v>
       </c>
       <c r="G61" s="3">
-        <v>276300</v>
+        <v>229500</v>
       </c>
       <c r="H61" s="3">
-        <v>303700</v>
+        <v>241000</v>
       </c>
       <c r="I61" s="3">
+        <v>266100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>292500</v>
+      </c>
+      <c r="K61" s="3">
         <v>363000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>365600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>381000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>53400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>393700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>392400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>424600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>422800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>166900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>211700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>192500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>202900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>199100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>193500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24500</v>
+        <v>71500</v>
       </c>
       <c r="E62" s="3">
-        <v>24800</v>
+        <v>34800</v>
       </c>
       <c r="F62" s="3">
-        <v>24300</v>
+        <v>23600</v>
       </c>
       <c r="G62" s="3">
-        <v>34800</v>
+        <v>23900</v>
       </c>
       <c r="H62" s="3">
-        <v>36900</v>
+        <v>23400</v>
       </c>
       <c r="I62" s="3">
+        <v>33500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K62" s="3">
         <v>35400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>39300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>40600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>41500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>48700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>47400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>70300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>64400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>46100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>49500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>47700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>49700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>47500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>49100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3900,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>485200</v>
+        <v>614500</v>
       </c>
       <c r="E66" s="3">
-        <v>473700</v>
+        <v>509100</v>
       </c>
       <c r="F66" s="3">
-        <v>471900</v>
+        <v>467300</v>
       </c>
       <c r="G66" s="3">
-        <v>504800</v>
+        <v>456300</v>
       </c>
       <c r="H66" s="3">
-        <v>531400</v>
+        <v>454500</v>
       </c>
       <c r="I66" s="3">
+        <v>486200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>511800</v>
+      </c>
+      <c r="K66" s="3">
         <v>584900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>610400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>662300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>676000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>685800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>675000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>774600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>760600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>469900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>485500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>459400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>498900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>498100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>496100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-88100</v>
+        <v>-116600</v>
       </c>
       <c r="E72" s="3">
-        <v>-103400</v>
+        <v>-68300</v>
       </c>
       <c r="F72" s="3">
-        <v>-98200</v>
+        <v>-84900</v>
       </c>
       <c r="G72" s="3">
-        <v>-54600</v>
+        <v>-99600</v>
       </c>
       <c r="H72" s="3">
-        <v>-48400</v>
+        <v>-94600</v>
       </c>
       <c r="I72" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-50400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-38800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-82400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-70000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-41200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>150500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>236600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>229400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>191500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>206600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>201700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>223100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>223500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>227500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>485300</v>
+        <v>505800</v>
       </c>
       <c r="E76" s="3">
-        <v>468000</v>
+        <v>490800</v>
       </c>
       <c r="F76" s="3">
-        <v>480000</v>
+        <v>467500</v>
       </c>
       <c r="G76" s="3">
-        <v>519300</v>
+        <v>450800</v>
       </c>
       <c r="H76" s="3">
-        <v>514200</v>
+        <v>462300</v>
       </c>
       <c r="I76" s="3">
+        <v>500200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>495300</v>
+      </c>
+      <c r="K76" s="3">
         <v>516500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>535100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>522000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>554200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>604100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>737000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>869800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>835500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>793500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>810000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>751500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>791500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>795900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>782100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>14700</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="L81" s="3">
+        <v>41900</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-184400</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>5400</v>
+      </c>
+      <c r="R81" s="3">
+        <v>40500</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="T81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="U81" s="3">
+        <v>7500</v>
+      </c>
+      <c r="V81" s="3">
+        <v>5500</v>
+      </c>
+      <c r="W81" s="3">
+        <v>2900</v>
+      </c>
+      <c r="X81" s="3">
         <v>15300</v>
       </c>
-      <c r="E81" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-43600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>41900</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-28900</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-184400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-63800</v>
-      </c>
-      <c r="O81" s="3">
-        <v>5400</v>
-      </c>
-      <c r="P81" s="3">
-        <v>40500</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="R81" s="3">
-        <v>3300</v>
-      </c>
-      <c r="S81" s="3">
-        <v>7500</v>
-      </c>
-      <c r="T81" s="3">
-        <v>5500</v>
-      </c>
-      <c r="U81" s="3">
-        <v>2900</v>
-      </c>
-      <c r="V81" s="3">
-        <v>15300</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5216,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13100</v>
+        <v>14500</v>
       </c>
       <c r="E83" s="3">
-        <v>13100</v>
+        <v>11900</v>
       </c>
       <c r="F83" s="3">
-        <v>14300</v>
+        <v>12600</v>
       </c>
       <c r="G83" s="3">
-        <v>14400</v>
+        <v>12600</v>
       </c>
       <c r="H83" s="3">
-        <v>14600</v>
+        <v>13800</v>
       </c>
       <c r="I83" s="3">
+        <v>13900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K83" s="3">
         <v>15000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>16700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>17100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>18300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>19300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>21300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>20700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>22200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>15900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>15100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>12500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>16400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>18400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-6600</v>
+        <v>117900</v>
       </c>
       <c r="E89" s="3">
-        <v>-9600</v>
+        <v>50300</v>
       </c>
       <c r="F89" s="3">
-        <v>31700</v>
+        <v>-6300</v>
       </c>
       <c r="G89" s="3">
-        <v>12800</v>
+        <v>-9200</v>
       </c>
       <c r="H89" s="3">
-        <v>18500</v>
+        <v>30600</v>
       </c>
       <c r="I89" s="3">
+        <v>12300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-14500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>7800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>5600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>20900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>38200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>6800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>13800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>39100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-14600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>21300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-21800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5718,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7900</v>
+        <v>-5200</v>
       </c>
       <c r="E91" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="O91" s="3">
         <v>-7800</v>
       </c>
-      <c r="F91" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-8000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-8300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-11900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-19200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-13600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-17100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-7100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>33700</v>
+        <v>-700</v>
       </c>
       <c r="E94" s="3">
-        <v>-7000</v>
+        <v>-10800</v>
       </c>
       <c r="F94" s="3">
+        <v>32400</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="H94" s="3">
         <v>1100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L94" s="3">
+        <v>79300</v>
+      </c>
+      <c r="M94" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-1900</v>
       </c>
-      <c r="H94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>3800</v>
-      </c>
-      <c r="J94" s="3">
-        <v>79300</v>
-      </c>
-      <c r="K94" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-178700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-13400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-17200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-12400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-18900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-6500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5584,37 +6051,43 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-8300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-8200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-8700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-8100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-8000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-7600</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-7900</v>
       </c>
       <c r="V96" s="3">
         <v>-7900</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="X96" s="3">
+        <v>-7900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6284,214 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-57800</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="L100" s="3">
         <v>-5800</v>
       </c>
-      <c r="E100" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-28100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-30300</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-60000</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-5100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-4500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-13200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-20600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-37100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>214700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-90600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-7900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-7600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-8000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-7100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F101" s="3">
         <v>1300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>900</v>
+      </c>
+      <c r="I101" s="3">
         <v>2100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-1700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>6600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-3800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>1300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>5100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>22600</v>
+        <v>101100</v>
       </c>
       <c r="E102" s="3">
-        <v>-29000</v>
+        <v>6000</v>
       </c>
       <c r="F102" s="3">
-        <v>5700</v>
+        <v>21700</v>
       </c>
       <c r="G102" s="3">
-        <v>-17300</v>
+        <v>-28000</v>
       </c>
       <c r="H102" s="3">
-        <v>-40800</v>
+        <v>5500</v>
       </c>
       <c r="I102" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-15200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>80900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>13600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-9300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>12400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-33300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>19400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-91900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>20600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-37500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-4900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-30600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>58500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>SAWLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>249900</v>
+        <v>269900</v>
       </c>
       <c r="E8" s="3">
-        <v>242300</v>
+        <v>255900</v>
       </c>
       <c r="F8" s="3">
-        <v>222000</v>
+        <v>248100</v>
       </c>
       <c r="G8" s="3">
-        <v>193700</v>
+        <v>227400</v>
       </c>
       <c r="H8" s="3">
-        <v>192700</v>
+        <v>198400</v>
       </c>
       <c r="I8" s="3">
-        <v>210700</v>
+        <v>197300</v>
       </c>
       <c r="J8" s="3">
+        <v>215900</v>
+      </c>
+      <c r="K8" s="3">
         <v>221200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>209700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>244600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>205200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>208800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>250400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>260500</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>326600</v>
       </c>
       <c r="R8" s="3">
         <v>326600</v>
       </c>
       <c r="S8" s="3">
+        <v>326600</v>
+      </c>
+      <c r="T8" s="3">
         <v>269100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>269500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>254800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>266000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>264100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>171500</v>
+        <v>186200</v>
       </c>
       <c r="E9" s="3">
-        <v>171800</v>
+        <v>175700</v>
       </c>
       <c r="F9" s="3">
-        <v>159800</v>
+        <v>176000</v>
       </c>
       <c r="G9" s="3">
-        <v>141000</v>
+        <v>163700</v>
       </c>
       <c r="H9" s="3">
-        <v>141600</v>
+        <v>144400</v>
       </c>
       <c r="I9" s="3">
-        <v>150100</v>
+        <v>145000</v>
       </c>
       <c r="J9" s="3">
+        <v>153700</v>
+      </c>
+      <c r="K9" s="3">
         <v>157800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>155100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>173100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>148200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>155600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>183500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>185000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>231600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>233400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>193500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>193600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>179600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>180200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>176100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>78400</v>
+        <v>83800</v>
       </c>
       <c r="E10" s="3">
-        <v>70500</v>
+        <v>80300</v>
       </c>
       <c r="F10" s="3">
-        <v>62200</v>
+        <v>72200</v>
       </c>
       <c r="G10" s="3">
-        <v>52700</v>
+        <v>63800</v>
       </c>
       <c r="H10" s="3">
-        <v>51100</v>
+        <v>54000</v>
       </c>
       <c r="I10" s="3">
-        <v>60700</v>
+        <v>52300</v>
       </c>
       <c r="J10" s="3">
+        <v>62100</v>
+      </c>
+      <c r="K10" s="3">
         <v>63400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>54600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>71400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>57000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>53200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>66900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>75500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>95000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>93100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>75600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>75900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>75200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>85800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>88000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1004,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3">
-        <v>1600</v>
-      </c>
       <c r="F12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G12" s="3">
         <v>1800</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1500</v>
       </c>
       <c r="H12" s="3">
         <v>1500</v>
       </c>
       <c r="I12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J12" s="3">
         <v>1700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1800</v>
-      </c>
-      <c r="N12" s="3">
-        <v>2700</v>
       </c>
       <c r="O12" s="3">
         <v>2700</v>
       </c>
       <c r="P12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q12" s="3">
         <v>1700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,144 +1144,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>7700</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>5700</v>
+        <v>7900</v>
       </c>
       <c r="F14" s="3">
-        <v>17900</v>
+        <v>5800</v>
       </c>
       <c r="G14" s="3">
-        <v>2200</v>
+        <v>18400</v>
       </c>
       <c r="H14" s="3">
-        <v>35700</v>
+        <v>2300</v>
       </c>
       <c r="I14" s="3">
-        <v>9200</v>
+        <v>36600</v>
       </c>
       <c r="J14" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K14" s="3">
         <v>2800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>159800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>82400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>10000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2100</v>
-      </c>
-      <c r="U14" s="3">
-        <v>600</v>
       </c>
       <c r="V14" s="3">
         <v>600</v>
       </c>
       <c r="W14" s="3">
+        <v>600</v>
+      </c>
+      <c r="X14" s="3">
         <v>400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>14500</v>
+        <v>14200</v>
       </c>
       <c r="E15" s="3">
-        <v>11900</v>
+        <v>14800</v>
       </c>
       <c r="F15" s="3">
-        <v>12600</v>
+        <v>12200</v>
       </c>
       <c r="G15" s="3">
-        <v>12600</v>
+        <v>13000</v>
       </c>
       <c r="H15" s="3">
-        <v>13800</v>
+        <v>12900</v>
       </c>
       <c r="I15" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="J15" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K15" s="3">
         <v>14100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>15000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>16700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>17100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>18300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>19300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>21300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>20700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>22200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>15900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>15100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>12500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>16400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>18400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>244400</v>
+        <v>243500</v>
       </c>
       <c r="E17" s="3">
-        <v>230000</v>
+        <v>250400</v>
       </c>
       <c r="F17" s="3">
-        <v>198700</v>
+        <v>235500</v>
       </c>
       <c r="G17" s="3">
-        <v>194100</v>
+        <v>203600</v>
       </c>
       <c r="H17" s="3">
-        <v>232600</v>
+        <v>198800</v>
       </c>
       <c r="I17" s="3">
-        <v>210100</v>
+        <v>238200</v>
       </c>
       <c r="J17" s="3">
+        <v>215200</v>
+      </c>
+      <c r="K17" s="3">
         <v>214900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>214000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>233000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>220300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>237500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>425000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>340100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>312900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>304200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>273200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>264500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>243000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>256400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>256300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>295400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>5400</v>
+        <v>26400</v>
       </c>
       <c r="E18" s="3">
-        <v>12300</v>
+        <v>5600</v>
       </c>
       <c r="F18" s="3">
-        <v>23300</v>
+        <v>12600</v>
       </c>
       <c r="G18" s="3">
+        <v>23800</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
-        <v>-39900</v>
-      </c>
       <c r="I18" s="3">
-        <v>600</v>
+        <v>-40900</v>
       </c>
       <c r="J18" s="3">
+        <v>700</v>
+      </c>
+      <c r="K18" s="3">
         <v>6300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-15100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-28700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-174500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-79600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>22300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>11800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>9600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>7800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,348 +1481,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-56600</v>
+        <v>800</v>
       </c>
       <c r="E20" s="3">
-        <v>-4100</v>
+        <v>-58000</v>
       </c>
       <c r="F20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>2400</v>
-      </c>
       <c r="I20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>40900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
-      </c>
-      <c r="U20" s="3">
-        <v>800</v>
       </c>
       <c r="V20" s="3">
         <v>800</v>
       </c>
       <c r="W20" s="3">
+        <v>800</v>
+      </c>
+      <c r="X20" s="3">
         <v>500</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-36700</v>
+        <v>41400</v>
       </c>
       <c r="E21" s="3">
-        <v>20100</v>
+        <v>-37600</v>
       </c>
       <c r="F21" s="3">
-        <v>36000</v>
+        <v>20600</v>
       </c>
       <c r="G21" s="3">
-        <v>12700</v>
+        <v>36900</v>
       </c>
       <c r="H21" s="3">
-        <v>-23700</v>
+        <v>13000</v>
       </c>
       <c r="I21" s="3">
-        <v>15800</v>
+        <v>-24200</v>
       </c>
       <c r="J21" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K21" s="3">
         <v>20500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>69200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-10400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-155000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-53800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>34700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>52400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>11900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>20400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>25100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>26800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>26700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>3900</v>
+        <v>4600</v>
       </c>
       <c r="E22" s="3">
-        <v>4900</v>
+        <v>4000</v>
       </c>
       <c r="F22" s="3">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="G22" s="3">
-        <v>3600</v>
+        <v>4600</v>
       </c>
       <c r="H22" s="3">
-        <v>3100</v>
+        <v>3700</v>
       </c>
       <c r="I22" s="3">
-        <v>3700</v>
+        <v>3200</v>
       </c>
       <c r="J22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K22" s="3">
         <v>4200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-55100</v>
+        <v>22600</v>
       </c>
       <c r="E23" s="3">
+        <v>-56400</v>
+      </c>
+      <c r="F23" s="3">
         <v>3400</v>
       </c>
-      <c r="F23" s="3">
-        <v>18900</v>
-      </c>
       <c r="G23" s="3">
-        <v>-3500</v>
+        <v>19400</v>
       </c>
       <c r="H23" s="3">
-        <v>-40600</v>
+        <v>-3600</v>
       </c>
       <c r="I23" s="3">
-        <v>-1800</v>
+        <v>-41600</v>
       </c>
       <c r="J23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K23" s="3">
         <v>2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>46900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-32800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-179300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-79800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>25500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>10000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>7500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-6800</v>
+        <v>3900</v>
       </c>
       <c r="E24" s="3">
-        <v>-13300</v>
+        <v>-6900</v>
       </c>
       <c r="F24" s="3">
-        <v>4500</v>
+        <v>-13600</v>
       </c>
       <c r="G24" s="3">
-        <v>1600</v>
+        <v>4600</v>
       </c>
       <c r="H24" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="I24" s="3">
-        <v>4300</v>
+        <v>2100</v>
       </c>
       <c r="J24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-14900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-48300</v>
+        <v>18700</v>
       </c>
       <c r="E26" s="3">
-        <v>16600</v>
+        <v>-49500</v>
       </c>
       <c r="F26" s="3">
-        <v>14400</v>
+        <v>17000</v>
       </c>
       <c r="G26" s="3">
-        <v>-5100</v>
+        <v>14800</v>
       </c>
       <c r="H26" s="3">
-        <v>-42700</v>
+        <v>-5300</v>
       </c>
       <c r="I26" s="3">
-        <v>-6100</v>
+        <v>-43700</v>
       </c>
       <c r="J26" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>41900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-28900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-184500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-64000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>40400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-48000</v>
+        <v>18700</v>
       </c>
       <c r="E27" s="3">
-        <v>16600</v>
+        <v>-49200</v>
       </c>
       <c r="F27" s="3">
-        <v>14700</v>
+        <v>17000</v>
       </c>
       <c r="G27" s="3">
-        <v>-5000</v>
+        <v>15100</v>
       </c>
       <c r="H27" s="3">
-        <v>-42000</v>
+        <v>-5100</v>
       </c>
       <c r="I27" s="3">
-        <v>-6000</v>
+        <v>-43000</v>
       </c>
       <c r="J27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K27" s="3">
         <v>1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>41900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-28900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-184400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-63800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>40500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2107,17 +2168,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>24</v>
@@ -2125,11 +2186,14 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>56600</v>
+        <v>-800</v>
       </c>
       <c r="E32" s="3">
-        <v>4100</v>
+        <v>58000</v>
       </c>
       <c r="F32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>-2400</v>
-      </c>
       <c r="I32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-40900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-800</v>
       </c>
       <c r="V32" s="3">
         <v>-800</v>
       </c>
       <c r="W32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-48000</v>
+        <v>18700</v>
       </c>
       <c r="E33" s="3">
-        <v>16600</v>
+        <v>-49200</v>
       </c>
       <c r="F33" s="3">
-        <v>14700</v>
+        <v>17000</v>
       </c>
       <c r="G33" s="3">
-        <v>-5000</v>
+        <v>15100</v>
       </c>
       <c r="H33" s="3">
-        <v>-42000</v>
+        <v>-5100</v>
       </c>
       <c r="I33" s="3">
-        <v>-6000</v>
+        <v>-43000</v>
       </c>
       <c r="J33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K33" s="3">
         <v>1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>41900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-28900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-184400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-63800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>40500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-48000</v>
+        <v>18700</v>
       </c>
       <c r="E35" s="3">
-        <v>16600</v>
+        <v>-49200</v>
       </c>
       <c r="F35" s="3">
-        <v>14700</v>
+        <v>17000</v>
       </c>
       <c r="G35" s="3">
-        <v>-5000</v>
+        <v>15100</v>
       </c>
       <c r="H35" s="3">
-        <v>-42000</v>
+        <v>-5100</v>
       </c>
       <c r="I35" s="3">
-        <v>-6000</v>
+        <v>-43000</v>
       </c>
       <c r="J35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K35" s="3">
         <v>1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>41900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-28900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-184400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-63800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>40500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>190900</v>
+        <v>120000</v>
       </c>
       <c r="E41" s="3">
-        <v>89800</v>
+        <v>195500</v>
       </c>
       <c r="F41" s="3">
-        <v>83800</v>
+        <v>92000</v>
       </c>
       <c r="G41" s="3">
-        <v>62000</v>
+        <v>85800</v>
       </c>
       <c r="H41" s="3">
-        <v>90000</v>
+        <v>63500</v>
       </c>
       <c r="I41" s="3">
-        <v>84600</v>
+        <v>92200</v>
       </c>
       <c r="J41" s="3">
+        <v>86600</v>
+      </c>
+      <c r="K41" s="3">
         <v>101200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>145900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>161100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>81900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>81400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>67800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>76600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>68200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>97100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>75400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>165400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>138300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>182000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>187000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2780,13 +2870,13 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>4000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1600</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>24</v>
@@ -2794,283 +2884,298 @@
       <c r="W42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>199100</v>
+        <v>239600</v>
       </c>
       <c r="E43" s="3">
-        <v>189100</v>
+        <v>203900</v>
       </c>
       <c r="F43" s="3">
-        <v>199100</v>
+        <v>193600</v>
       </c>
       <c r="G43" s="3">
-        <v>179000</v>
+        <v>203900</v>
       </c>
       <c r="H43" s="3">
-        <v>170400</v>
+        <v>183400</v>
       </c>
       <c r="I43" s="3">
-        <v>198000</v>
+        <v>174600</v>
       </c>
       <c r="J43" s="3">
+        <v>202800</v>
+      </c>
+      <c r="K43" s="3">
         <v>193000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>191900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>199500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>208400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>215500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>256200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>251500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>321500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>296400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>249400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>230500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>234100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>232400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>242500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>212700</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>154600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>134800</v>
+      </c>
+      <c r="F44" s="3">
+        <v>121300</v>
+      </c>
+      <c r="G44" s="3">
+        <v>122600</v>
+      </c>
+      <c r="H44" s="3">
+        <v>107100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>90900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>95500</v>
+      </c>
+      <c r="K44" s="3">
+        <v>91000</v>
+      </c>
+      <c r="L44" s="3">
+        <v>98400</v>
+      </c>
+      <c r="M44" s="3">
+        <v>94900</v>
+      </c>
+      <c r="N44" s="3">
         <v>131600</v>
       </c>
-      <c r="E44" s="3">
-        <v>118400</v>
-      </c>
-      <c r="F44" s="3">
-        <v>119700</v>
-      </c>
-      <c r="G44" s="3">
-        <v>104600</v>
-      </c>
-      <c r="H44" s="3">
-        <v>88800</v>
-      </c>
-      <c r="I44" s="3">
-        <v>93200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>91000</v>
-      </c>
-      <c r="K44" s="3">
-        <v>98400</v>
-      </c>
-      <c r="L44" s="3">
-        <v>94900</v>
-      </c>
-      <c r="M44" s="3">
-        <v>131600</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>137000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>138300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>125400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>140200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>143600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>111000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>104300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>100400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>104300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>95500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>86600</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>43200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="H45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K45" s="3">
+        <v>6800</v>
+      </c>
+      <c r="L45" s="3">
+        <v>9500</v>
+      </c>
+      <c r="M45" s="3">
+        <v>9900</v>
+      </c>
+      <c r="N45" s="3">
+        <v>15100</v>
+      </c>
+      <c r="O45" s="3">
+        <v>10900</v>
+      </c>
+      <c r="P45" s="3">
+        <v>14300</v>
+      </c>
+      <c r="Q45" s="3">
         <v>13800</v>
       </c>
-      <c r="E45" s="3">
-        <v>42200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>8400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>8000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>6800</v>
-      </c>
-      <c r="I45" s="3">
-        <v>10800</v>
-      </c>
-      <c r="J45" s="3">
-        <v>6800</v>
-      </c>
-      <c r="K45" s="3">
-        <v>9500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>9900</v>
-      </c>
-      <c r="M45" s="3">
-        <v>15100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>10900</v>
-      </c>
-      <c r="O45" s="3">
-        <v>14300</v>
-      </c>
-      <c r="P45" s="3">
-        <v>13800</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>20100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>17700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>21500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>18100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>21500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>535400</v>
+        <v>545400</v>
       </c>
       <c r="E46" s="3">
-        <v>439500</v>
+        <v>548400</v>
       </c>
       <c r="F46" s="3">
-        <v>411000</v>
+        <v>450200</v>
       </c>
       <c r="G46" s="3">
-        <v>353600</v>
+        <v>420900</v>
       </c>
       <c r="H46" s="3">
-        <v>356000</v>
+        <v>362200</v>
       </c>
       <c r="I46" s="3">
-        <v>386500</v>
+        <v>364600</v>
       </c>
       <c r="J46" s="3">
+        <v>395900</v>
+      </c>
+      <c r="K46" s="3">
         <v>392100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>445700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>465300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>437000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>444800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>476600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>467300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>549900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>547000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>449600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>519400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>494200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>536800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>546500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>533700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3086,195 +3191,204 @@
       <c r="G47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I47" s="3">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K47" s="3">
         <v>3700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>8300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>22700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>23400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>23200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>24600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>24500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>251200</v>
+        <v>274900</v>
       </c>
       <c r="E48" s="3">
-        <v>247400</v>
+        <v>257300</v>
       </c>
       <c r="F48" s="3">
-        <v>230800</v>
+        <v>253400</v>
       </c>
       <c r="G48" s="3">
-        <v>258200</v>
+        <v>236400</v>
       </c>
       <c r="H48" s="3">
-        <v>261500</v>
+        <v>264500</v>
       </c>
       <c r="I48" s="3">
-        <v>277700</v>
+        <v>267800</v>
       </c>
       <c r="J48" s="3">
+        <v>284400</v>
+      </c>
+      <c r="K48" s="3">
         <v>287500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>308500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>321100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>352200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>381900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>395600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>393200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>431600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>413800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>379200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>337100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>309600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>317500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>314700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>280500</v>
+        <v>291800</v>
       </c>
       <c r="E49" s="3">
-        <v>278500</v>
+        <v>287300</v>
       </c>
       <c r="F49" s="3">
-        <v>275200</v>
+        <v>285300</v>
       </c>
       <c r="G49" s="3">
-        <v>276400</v>
+        <v>281900</v>
       </c>
       <c r="H49" s="3">
-        <v>280600</v>
+        <v>283100</v>
       </c>
       <c r="I49" s="3">
-        <v>299100</v>
+        <v>287400</v>
       </c>
       <c r="J49" s="3">
+        <v>306300</v>
+      </c>
+      <c r="K49" s="3">
         <v>302600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>318700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>324200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>354900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>368600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>380700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>506200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>625000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>600500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>378300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>385000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>354200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>380100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>378700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>53200</v>
+        <v>61400</v>
       </c>
       <c r="E52" s="3">
-        <v>34500</v>
+        <v>54400</v>
       </c>
       <c r="F52" s="3">
-        <v>17800</v>
+        <v>35300</v>
       </c>
       <c r="G52" s="3">
-        <v>18800</v>
+        <v>18200</v>
       </c>
       <c r="H52" s="3">
-        <v>18800</v>
+        <v>19200</v>
       </c>
       <c r="I52" s="3">
-        <v>20200</v>
+        <v>19200</v>
       </c>
       <c r="J52" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K52" s="3">
         <v>21200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>24700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>26200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>29000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>29700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>31300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>33400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>29500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>27000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>33600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>30600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>29800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>31500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>29700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1120300</v>
+        <v>1173500</v>
       </c>
       <c r="E54" s="3">
-        <v>999900</v>
+        <v>1147500</v>
       </c>
       <c r="F54" s="3">
-        <v>934800</v>
+        <v>1024200</v>
       </c>
       <c r="G54" s="3">
-        <v>907100</v>
+        <v>957500</v>
       </c>
       <c r="H54" s="3">
-        <v>916900</v>
+        <v>929000</v>
       </c>
       <c r="I54" s="3">
-        <v>986400</v>
+        <v>939100</v>
       </c>
       <c r="J54" s="3">
+        <v>1010300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1007100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1101400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1145500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1184300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1230200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1289900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1412000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1644300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1596100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1263400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1295500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1210900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1290500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1294000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1278200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3795,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>72100</v>
+        <v>185400</v>
       </c>
       <c r="E57" s="3">
-        <v>166700</v>
+        <v>73800</v>
       </c>
       <c r="F57" s="3">
-        <v>147400</v>
+        <v>170700</v>
       </c>
       <c r="G57" s="3">
-        <v>143700</v>
+        <v>151000</v>
       </c>
       <c r="H57" s="3">
-        <v>133600</v>
+        <v>147200</v>
       </c>
       <c r="I57" s="3">
-        <v>126800</v>
+        <v>136800</v>
       </c>
       <c r="J57" s="3">
+        <v>129900</v>
+      </c>
+      <c r="K57" s="3">
         <v>123500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>123700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>133000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>151300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>142000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>149500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>138400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>186900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>176300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>174700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>157400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>146000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>165000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>160400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>151300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>18700</v>
+        <v>22300</v>
       </c>
       <c r="E58" s="3">
-        <v>14700</v>
+        <v>19100</v>
       </c>
       <c r="F58" s="3">
-        <v>10400</v>
+        <v>15000</v>
       </c>
       <c r="G58" s="3">
-        <v>10100</v>
+        <v>10600</v>
       </c>
       <c r="H58" s="3">
-        <v>9700</v>
+        <v>10300</v>
       </c>
       <c r="I58" s="3">
-        <v>11200</v>
+        <v>9900</v>
       </c>
       <c r="J58" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K58" s="3">
         <v>12200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>358600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>17600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>16700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>15800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>15500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>14200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>275300</v>
+        <v>215300</v>
       </c>
       <c r="E59" s="3">
-        <v>98100</v>
+        <v>282000</v>
       </c>
       <c r="F59" s="3">
-        <v>61200</v>
+        <v>100400</v>
       </c>
       <c r="G59" s="3">
+        <v>62600</v>
+      </c>
+      <c r="H59" s="3">
+        <v>48200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>45900</v>
+      </c>
+      <c r="J59" s="3">
         <v>47100</v>
       </c>
-      <c r="H59" s="3">
-        <v>44800</v>
-      </c>
-      <c r="I59" s="3">
-        <v>46000</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>45500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>46400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>55500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>70700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>77100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>72400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>76500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>73000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>77400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>64100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>61800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>69600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>76700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>85900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>366000</v>
+        <v>423000</v>
       </c>
       <c r="E60" s="3">
-        <v>279400</v>
+        <v>374900</v>
       </c>
       <c r="F60" s="3">
-        <v>219000</v>
+        <v>286200</v>
       </c>
       <c r="G60" s="3">
-        <v>200900</v>
+        <v>224300</v>
       </c>
       <c r="H60" s="3">
-        <v>188100</v>
+        <v>205700</v>
       </c>
       <c r="I60" s="3">
-        <v>184000</v>
+        <v>192600</v>
       </c>
       <c r="J60" s="3">
+        <v>188400</v>
+      </c>
+      <c r="K60" s="3">
         <v>181200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>183900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>202400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>237500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>577700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>239600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>231600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>275700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>269200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>252900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>220100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>215700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>242200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>246900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>249200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>176800</v>
+        <v>162000</v>
       </c>
       <c r="E61" s="3">
-        <v>193200</v>
+        <v>181100</v>
       </c>
       <c r="F61" s="3">
-        <v>223200</v>
+        <v>197800</v>
       </c>
       <c r="G61" s="3">
-        <v>229500</v>
+        <v>228600</v>
       </c>
       <c r="H61" s="3">
-        <v>241000</v>
+        <v>235100</v>
       </c>
       <c r="I61" s="3">
-        <v>266100</v>
+        <v>246800</v>
       </c>
       <c r="J61" s="3">
+        <v>272500</v>
+      </c>
+      <c r="K61" s="3">
         <v>292500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>363000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>365600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>381000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>53400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>393700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>392400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>424600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>422800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>166900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>211700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>192500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>202900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>199100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>193500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>71500</v>
+        <v>53000</v>
       </c>
       <c r="E62" s="3">
-        <v>34800</v>
+        <v>73200</v>
       </c>
       <c r="F62" s="3">
-        <v>23600</v>
+        <v>35600</v>
       </c>
       <c r="G62" s="3">
-        <v>23900</v>
+        <v>24200</v>
       </c>
       <c r="H62" s="3">
-        <v>23400</v>
+        <v>24500</v>
       </c>
       <c r="I62" s="3">
-        <v>33500</v>
+        <v>24000</v>
       </c>
       <c r="J62" s="3">
+        <v>34300</v>
+      </c>
+      <c r="K62" s="3">
         <v>35500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>39300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>40600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>41500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>48700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>47400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>70300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>64400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>46100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>49500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>47700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>49700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>47500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>49100</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>614500</v>
+        <v>638300</v>
       </c>
       <c r="E66" s="3">
-        <v>509100</v>
+        <v>629400</v>
       </c>
       <c r="F66" s="3">
+        <v>521500</v>
+      </c>
+      <c r="G66" s="3">
+        <v>478700</v>
+      </c>
+      <c r="H66" s="3">
         <v>467300</v>
       </c>
-      <c r="G66" s="3">
-        <v>456300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>454500</v>
-      </c>
       <c r="I66" s="3">
-        <v>486200</v>
+        <v>465500</v>
       </c>
       <c r="J66" s="3">
+        <v>498000</v>
+      </c>
+      <c r="K66" s="3">
         <v>511800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>584900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>610400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>662300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>676000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>685800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>675000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>774600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>760600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>469900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>485500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>459400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>498900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>498100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>496100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-116600</v>
+        <v>-101700</v>
       </c>
       <c r="E72" s="3">
-        <v>-68300</v>
+        <v>-119400</v>
       </c>
       <c r="F72" s="3">
-        <v>-84900</v>
+        <v>-69900</v>
       </c>
       <c r="G72" s="3">
-        <v>-99600</v>
+        <v>-87000</v>
       </c>
       <c r="H72" s="3">
-        <v>-94600</v>
+        <v>-102000</v>
       </c>
       <c r="I72" s="3">
-        <v>-52600</v>
+        <v>-96900</v>
       </c>
       <c r="J72" s="3">
+        <v>-53800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-46600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-50400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-38800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-82400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-70000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-41200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>150500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>236600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>229400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>191500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>206600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>201700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>223100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>223500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>227500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>505800</v>
+        <v>535200</v>
       </c>
       <c r="E76" s="3">
-        <v>490800</v>
+        <v>518100</v>
       </c>
       <c r="F76" s="3">
-        <v>467500</v>
+        <v>502700</v>
       </c>
       <c r="G76" s="3">
-        <v>450800</v>
+        <v>478800</v>
       </c>
       <c r="H76" s="3">
-        <v>462300</v>
+        <v>461700</v>
       </c>
       <c r="I76" s="3">
-        <v>500200</v>
+        <v>473500</v>
       </c>
       <c r="J76" s="3">
+        <v>512300</v>
+      </c>
+      <c r="K76" s="3">
         <v>495300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>516500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>535100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>522000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>554200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>604100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>737000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>869800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>835500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>793500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>810000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>751500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>791500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>795900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>782100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-48000</v>
+        <v>18700</v>
       </c>
       <c r="E81" s="3">
-        <v>16600</v>
+        <v>-49200</v>
       </c>
       <c r="F81" s="3">
-        <v>14700</v>
+        <v>17000</v>
       </c>
       <c r="G81" s="3">
-        <v>-5000</v>
+        <v>15100</v>
       </c>
       <c r="H81" s="3">
-        <v>-42000</v>
+        <v>-5100</v>
       </c>
       <c r="I81" s="3">
-        <v>-6000</v>
+        <v>-43000</v>
       </c>
       <c r="J81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K81" s="3">
         <v>1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>41900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-28900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-184400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-63800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>40500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5416,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14500</v>
+        <v>14200</v>
       </c>
       <c r="E83" s="3">
-        <v>11900</v>
+        <v>14800</v>
       </c>
       <c r="F83" s="3">
-        <v>12600</v>
+        <v>12200</v>
       </c>
       <c r="G83" s="3">
-        <v>12600</v>
+        <v>13000</v>
       </c>
       <c r="H83" s="3">
-        <v>13800</v>
+        <v>12900</v>
       </c>
       <c r="I83" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="J83" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K83" s="3">
         <v>14100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>18300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>19300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>20700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>22200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>15900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>12500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>16400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>18400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>117900</v>
+        <v>-23400</v>
       </c>
       <c r="E89" s="3">
-        <v>50300</v>
+        <v>120700</v>
       </c>
       <c r="F89" s="3">
-        <v>-6300</v>
+        <v>51600</v>
       </c>
       <c r="G89" s="3">
-        <v>-9200</v>
+        <v>-6500</v>
       </c>
       <c r="H89" s="3">
-        <v>30600</v>
+        <v>-9500</v>
       </c>
       <c r="I89" s="3">
-        <v>12300</v>
+        <v>31300</v>
       </c>
       <c r="J89" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K89" s="3">
         <v>17800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-14500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>20900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>38200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-16600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>13800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>39100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-14600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>21300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-21800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5200</v>
+        <v>-22800</v>
       </c>
       <c r="E91" s="3">
-        <v>-15800</v>
+        <v>-7200</v>
       </c>
       <c r="F91" s="3">
-        <v>-7600</v>
+        <v>-21900</v>
       </c>
       <c r="G91" s="3">
-        <v>-7600</v>
+        <v>-10500</v>
       </c>
       <c r="H91" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="S91" s="3">
         <v>-7200</v>
       </c>
-      <c r="I91" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-19200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-13600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-17100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-7100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
-        <v>-10800</v>
-      </c>
       <c r="F94" s="3">
-        <v>32400</v>
+        <v>-11100</v>
       </c>
       <c r="G94" s="3">
-        <v>-6800</v>
+        <v>33200</v>
       </c>
       <c r="H94" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="I94" s="3">
         <v>1100</v>
       </c>
-      <c r="I94" s="3">
-        <v>-1800</v>
-      </c>
       <c r="J94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>79300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-178700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-13400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-17200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-12400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-18900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6057,28 +6291,28 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-8300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-8700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-8300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-8100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-8000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-7600</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-7900</v>
       </c>
       <c r="W96" s="3">
         <v>-7900</v>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>-7900</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-7900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6533,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-22200</v>
+        <v>-29500</v>
       </c>
       <c r="E100" s="3">
-        <v>-40400</v>
+        <v>-22800</v>
       </c>
       <c r="F100" s="3">
-        <v>-5600</v>
+        <v>-41400</v>
       </c>
       <c r="G100" s="3">
-        <v>-12500</v>
+        <v>-5800</v>
       </c>
       <c r="H100" s="3">
-        <v>-27100</v>
+        <v>-12800</v>
       </c>
       <c r="I100" s="3">
-        <v>-29200</v>
+        <v>-27700</v>
       </c>
       <c r="J100" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-57800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-13200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-20600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-37100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>214700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-90600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-7900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-7600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-8000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-7100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6100</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>6900</v>
+        <v>6300</v>
       </c>
       <c r="F101" s="3">
+        <v>7100</v>
+      </c>
+      <c r="G101" s="3">
         <v>1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-1700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>6600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>5100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>101100</v>
+        <v>-75500</v>
       </c>
       <c r="E102" s="3">
-        <v>6000</v>
+        <v>103600</v>
       </c>
       <c r="F102" s="3">
-        <v>21700</v>
+        <v>6200</v>
       </c>
       <c r="G102" s="3">
-        <v>-28000</v>
+        <v>22300</v>
       </c>
       <c r="H102" s="3">
-        <v>5500</v>
+        <v>-28600</v>
       </c>
       <c r="I102" s="3">
-        <v>-16700</v>
+        <v>5600</v>
       </c>
       <c r="J102" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-39300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-15200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>80900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-33300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>19400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-91900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>20600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-37500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-30600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>58500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>SAWLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>269900</v>
+        <v>296600</v>
       </c>
       <c r="E8" s="3">
-        <v>255900</v>
+        <v>269800</v>
       </c>
       <c r="F8" s="3">
-        <v>248100</v>
+        <v>255800</v>
       </c>
       <c r="G8" s="3">
-        <v>227400</v>
+        <v>248000</v>
       </c>
       <c r="H8" s="3">
-        <v>198400</v>
+        <v>227300</v>
       </c>
       <c r="I8" s="3">
-        <v>197300</v>
+        <v>198300</v>
       </c>
       <c r="J8" s="3">
+        <v>197200</v>
+      </c>
+      <c r="K8" s="3">
         <v>215900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>221200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>209700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>244600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>205200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>208800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>250400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>260500</v>
-      </c>
-      <c r="R8" s="3">
-        <v>326600</v>
       </c>
       <c r="S8" s="3">
         <v>326600</v>
       </c>
       <c r="T8" s="3">
+        <v>326600</v>
+      </c>
+      <c r="U8" s="3">
         <v>269100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>269500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>254800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>266000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>264100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>186200</v>
+        <v>201900</v>
       </c>
       <c r="E9" s="3">
-        <v>175700</v>
+        <v>186100</v>
       </c>
       <c r="F9" s="3">
-        <v>176000</v>
+        <v>175600</v>
       </c>
       <c r="G9" s="3">
-        <v>163700</v>
+        <v>175900</v>
       </c>
       <c r="H9" s="3">
-        <v>144400</v>
+        <v>163600</v>
       </c>
       <c r="I9" s="3">
-        <v>145000</v>
+        <v>144300</v>
       </c>
       <c r="J9" s="3">
+        <v>144900</v>
+      </c>
+      <c r="K9" s="3">
         <v>153700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>157800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>155100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>173100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>148200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>155600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>183500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>185000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>231600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>233400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>193500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>193600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>179600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>180200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>176100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>83800</v>
+        <v>94700</v>
       </c>
       <c r="E10" s="3">
-        <v>80300</v>
+        <v>83700</v>
       </c>
       <c r="F10" s="3">
+        <v>80200</v>
+      </c>
+      <c r="G10" s="3">
         <v>72200</v>
       </c>
-      <c r="G10" s="3">
-        <v>63800</v>
-      </c>
       <c r="H10" s="3">
-        <v>54000</v>
+        <v>63700</v>
       </c>
       <c r="I10" s="3">
+        <v>53900</v>
+      </c>
+      <c r="J10" s="3">
         <v>52300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>62100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>63400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>54600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>71400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>57000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>53200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>66900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>75500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>95000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>93100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>75600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>75900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>75200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>85800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>88000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1014,70 +1028,73 @@
         <v>1800</v>
       </c>
       <c r="E12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F12" s="3">
         <v>1500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1800</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1500</v>
       </c>
       <c r="I12" s="3">
         <v>1500</v>
       </c>
       <c r="J12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K12" s="3">
         <v>1700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1800</v>
-      </c>
-      <c r="O12" s="3">
-        <v>2700</v>
       </c>
       <c r="P12" s="3">
         <v>2700</v>
       </c>
       <c r="Q12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R12" s="3">
         <v>1700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>2300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,150 +1164,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>7900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5800</v>
       </c>
-      <c r="G14" s="3">
-        <v>18400</v>
-      </c>
       <c r="H14" s="3">
+        <v>18300</v>
+      </c>
+      <c r="I14" s="3">
         <v>2300</v>
       </c>
-      <c r="I14" s="3">
-        <v>36600</v>
-      </c>
       <c r="J14" s="3">
+        <v>36500</v>
+      </c>
+      <c r="K14" s="3">
         <v>9400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>159800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>82400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>10000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2100</v>
-      </c>
-      <c r="V14" s="3">
-        <v>600</v>
       </c>
       <c r="W14" s="3">
         <v>600</v>
       </c>
       <c r="X14" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y14" s="3">
         <v>400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E15" s="3">
         <v>14200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>14800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>12200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>13000</v>
       </c>
       <c r="H15" s="3">
         <v>12900</v>
       </c>
       <c r="I15" s="3">
+        <v>12900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K15" s="3">
         <v>14200</v>
       </c>
-      <c r="J15" s="3">
-        <v>14200</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>14100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>15000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>16700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>17100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>18300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>19300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>21300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>20700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>22200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>15900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>15100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>12500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>16400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>18400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>243500</v>
+        <v>278300</v>
       </c>
       <c r="E17" s="3">
-        <v>250400</v>
+        <v>243400</v>
       </c>
       <c r="F17" s="3">
-        <v>235500</v>
+        <v>250200</v>
       </c>
       <c r="G17" s="3">
-        <v>203600</v>
+        <v>235400</v>
       </c>
       <c r="H17" s="3">
-        <v>198800</v>
+        <v>203500</v>
       </c>
       <c r="I17" s="3">
-        <v>238200</v>
+        <v>198700</v>
       </c>
       <c r="J17" s="3">
+        <v>238100</v>
+      </c>
+      <c r="K17" s="3">
         <v>215200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>214900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>214000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>233000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>220300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>237500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>425000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>340100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>312900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>304200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>273200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>264500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>243000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>256400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>256300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>295400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E18" s="3">
         <v>26400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>23800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
-        <v>-40900</v>
-      </c>
       <c r="J18" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="K18" s="3">
         <v>700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-15100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-28700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-174500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-79600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>22300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>11800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>9600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>7800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,150 +1515,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
-        <v>-58000</v>
-      </c>
       <c r="F20" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="G20" s="3">
         <v>-4200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>40900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
-      </c>
-      <c r="V20" s="3">
-        <v>800</v>
       </c>
       <c r="W20" s="3">
         <v>800</v>
       </c>
       <c r="X20" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E21" s="3">
         <v>41400</v>
       </c>
-      <c r="E21" s="3">
-        <v>-37600</v>
-      </c>
       <c r="F21" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="G21" s="3">
         <v>20600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>36900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>13000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-24200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>16200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>20500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>69200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-10400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-155000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-53800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>34700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>52400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>11900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>20400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>25100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>26800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>26700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1633,212 +1673,221 @@
         <v>4600</v>
       </c>
       <c r="E22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F22" s="3">
         <v>4000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E23" s="3">
         <v>22600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-56400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>19400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-41600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>46900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-14000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-32800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-179300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-79800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>25500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>10000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E24" s="3">
         <v>3900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-6900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-13600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-15900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-14900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E26" s="3">
         <v>18700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-49500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>17000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>14800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-43700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>41900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-14100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-28900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-184500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-64000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>40400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E27" s="3">
         <v>18700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-49200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>17000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-43000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>41900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-28900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-184400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-63800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>40500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>7500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2171,17 +2232,17 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2189,11 +2250,14 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
-        <v>58000</v>
-      </c>
       <c r="F32" s="3">
+        <v>57900</v>
+      </c>
+      <c r="G32" s="3">
         <v>4200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-40900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-800</v>
       </c>
       <c r="W32" s="3">
         <v>-800</v>
       </c>
       <c r="X32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E33" s="3">
         <v>18700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-49200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>17000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-43000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>41900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-28900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-184400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-63800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>40500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>7500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E35" s="3">
         <v>18700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-49200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>17000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-43000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>41900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-28900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-184400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-63800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>40500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>7500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>120000</v>
+        <v>92200</v>
       </c>
       <c r="E41" s="3">
-        <v>195500</v>
+        <v>119900</v>
       </c>
       <c r="F41" s="3">
-        <v>92000</v>
+        <v>195400</v>
       </c>
       <c r="G41" s="3">
+        <v>91900</v>
+      </c>
+      <c r="H41" s="3">
         <v>85800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>63500</v>
       </c>
-      <c r="I41" s="3">
-        <v>92200</v>
-      </c>
       <c r="J41" s="3">
+        <v>92100</v>
+      </c>
+      <c r="K41" s="3">
         <v>86600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>101200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>145900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>161100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>81900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>81400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>67800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>76600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>68200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>97100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>75400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>165400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>138300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>182000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>187000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2873,13 +2963,13 @@
         <v>0</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>4000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1600</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>24</v>
@@ -2887,295 +2977,310 @@
       <c r="X42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>239600</v>
+        <v>260400</v>
       </c>
       <c r="E43" s="3">
-        <v>203900</v>
+        <v>239500</v>
       </c>
       <c r="F43" s="3">
-        <v>193600</v>
+        <v>203800</v>
       </c>
       <c r="G43" s="3">
-        <v>203900</v>
+        <v>193500</v>
       </c>
       <c r="H43" s="3">
-        <v>183400</v>
+        <v>203800</v>
       </c>
       <c r="I43" s="3">
-        <v>174600</v>
+        <v>183300</v>
       </c>
       <c r="J43" s="3">
+        <v>174500</v>
+      </c>
+      <c r="K43" s="3">
         <v>202800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>193000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>191900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>199500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>208400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>215500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>256200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>251500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>321500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>296400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>249400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>230500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>234100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>232400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>242500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>212700</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>154600</v>
+        <v>179900</v>
       </c>
       <c r="E44" s="3">
-        <v>134800</v>
+        <v>154500</v>
       </c>
       <c r="F44" s="3">
-        <v>121300</v>
+        <v>134700</v>
       </c>
       <c r="G44" s="3">
-        <v>122600</v>
+        <v>121200</v>
       </c>
       <c r="H44" s="3">
+        <v>122500</v>
+      </c>
+      <c r="I44" s="3">
         <v>107100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>90900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>95500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>91000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>98400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>94900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>131600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>137000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>138300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>125400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>140200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>143600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>111000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>104300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>100400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>104300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>95500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>86600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E45" s="3">
         <v>31200</v>
       </c>
-      <c r="E45" s="3">
-        <v>14200</v>
-      </c>
       <c r="F45" s="3">
+        <v>14100</v>
+      </c>
+      <c r="G45" s="3">
         <v>43200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>20100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>17700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>21500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>18100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>21500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>545400</v>
+        <v>559800</v>
       </c>
       <c r="E46" s="3">
-        <v>548400</v>
+        <v>545100</v>
       </c>
       <c r="F46" s="3">
-        <v>450200</v>
+        <v>548100</v>
       </c>
       <c r="G46" s="3">
-        <v>420900</v>
+        <v>450000</v>
       </c>
       <c r="H46" s="3">
-        <v>362200</v>
+        <v>420700</v>
       </c>
       <c r="I46" s="3">
-        <v>364600</v>
+        <v>362000</v>
       </c>
       <c r="J46" s="3">
+        <v>364400</v>
+      </c>
+      <c r="K46" s="3">
         <v>395900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>392100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>445700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>465300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>437000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>444800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>476600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>467300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>549900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>547000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>449600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>519400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>494200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>536800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>546500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>533700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3194,201 +3299,210 @@
       <c r="H47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>2900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>8300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>22700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>23400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>23200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>24600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>24500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>274900</v>
+        <v>308000</v>
       </c>
       <c r="E48" s="3">
-        <v>257300</v>
+        <v>274800</v>
       </c>
       <c r="F48" s="3">
-        <v>253400</v>
+        <v>257200</v>
       </c>
       <c r="G48" s="3">
-        <v>236400</v>
+        <v>253300</v>
       </c>
       <c r="H48" s="3">
-        <v>264500</v>
+        <v>236300</v>
       </c>
       <c r="I48" s="3">
-        <v>267800</v>
+        <v>264400</v>
       </c>
       <c r="J48" s="3">
+        <v>267700</v>
+      </c>
+      <c r="K48" s="3">
         <v>284400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>287500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>308500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>321100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>352200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>381900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>395600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>393200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>431600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>413800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>379200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>337100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>309600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>317500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>314700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>291800</v>
+        <v>286100</v>
       </c>
       <c r="E49" s="3">
-        <v>287300</v>
+        <v>291700</v>
       </c>
       <c r="F49" s="3">
-        <v>285300</v>
+        <v>287200</v>
       </c>
       <c r="G49" s="3">
-        <v>281900</v>
+        <v>285100</v>
       </c>
       <c r="H49" s="3">
-        <v>283100</v>
+        <v>281800</v>
       </c>
       <c r="I49" s="3">
-        <v>287400</v>
+        <v>283000</v>
       </c>
       <c r="J49" s="3">
+        <v>287200</v>
+      </c>
+      <c r="K49" s="3">
         <v>306300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>302600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>318700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>324200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>354900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>368600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>380700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>506200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>625000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>600500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>378300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>385000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>354200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>380100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>378700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>61400</v>
+        <v>64700</v>
       </c>
       <c r="E52" s="3">
+        <v>61300</v>
+      </c>
+      <c r="F52" s="3">
         <v>54400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>35300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18200</v>
-      </c>
-      <c r="H52" s="3">
-        <v>19200</v>
       </c>
       <c r="I52" s="3">
         <v>19200</v>
       </c>
       <c r="J52" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K52" s="3">
         <v>20700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>21200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>24700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>26200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>29000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>29700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>31300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>33400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>29500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>27000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>33600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>30600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>29800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>31500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>29700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1173500</v>
+        <v>1218600</v>
       </c>
       <c r="E54" s="3">
-        <v>1147500</v>
+        <v>1172900</v>
       </c>
       <c r="F54" s="3">
-        <v>1024200</v>
+        <v>1146900</v>
       </c>
       <c r="G54" s="3">
-        <v>957500</v>
+        <v>1023600</v>
       </c>
       <c r="H54" s="3">
-        <v>929000</v>
+        <v>957000</v>
       </c>
       <c r="I54" s="3">
-        <v>939100</v>
+        <v>928500</v>
       </c>
       <c r="J54" s="3">
+        <v>938600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1010300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1007100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1101400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1145500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1184300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1230200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1289900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1412000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1644300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1596100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1263400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1295500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1210900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1290500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1294000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1278200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,434 +3926,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>185400</v>
+        <v>211100</v>
       </c>
       <c r="E57" s="3">
+        <v>185300</v>
+      </c>
+      <c r="F57" s="3">
         <v>73800</v>
       </c>
-      <c r="F57" s="3">
-        <v>170700</v>
-      </c>
       <c r="G57" s="3">
-        <v>151000</v>
+        <v>170600</v>
       </c>
       <c r="H57" s="3">
-        <v>147200</v>
+        <v>150900</v>
       </c>
       <c r="I57" s="3">
-        <v>136800</v>
+        <v>147100</v>
       </c>
       <c r="J57" s="3">
+        <v>136700</v>
+      </c>
+      <c r="K57" s="3">
         <v>129900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>123500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>123700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>133000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>151300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>142000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>149500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>138400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>186900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>176300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>174700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>157400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>146000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>165000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>160400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>151300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E58" s="3">
         <v>22300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>19100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>14000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>358600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>17600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>16700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>15800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>15500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>14200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>215300</v>
+        <v>253200</v>
       </c>
       <c r="E59" s="3">
-        <v>282000</v>
+        <v>215200</v>
       </c>
       <c r="F59" s="3">
+        <v>281800</v>
+      </c>
+      <c r="G59" s="3">
         <v>100400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>62600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>48200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>45900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>47100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>45500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>46400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>55500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>70700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>77100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>72400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>76500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>73000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>77400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>64100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>61800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>69600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>76700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>85900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>423000</v>
+        <v>485000</v>
       </c>
       <c r="E60" s="3">
-        <v>374900</v>
+        <v>422800</v>
       </c>
       <c r="F60" s="3">
-        <v>286200</v>
+        <v>374700</v>
       </c>
       <c r="G60" s="3">
-        <v>224300</v>
+        <v>286100</v>
       </c>
       <c r="H60" s="3">
-        <v>205700</v>
+        <v>224100</v>
       </c>
       <c r="I60" s="3">
-        <v>192600</v>
+        <v>205600</v>
       </c>
       <c r="J60" s="3">
+        <v>192500</v>
+      </c>
+      <c r="K60" s="3">
         <v>188400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>181200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>183900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>202400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>237500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>577700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>239600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>231600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>275700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>269200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>252900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>220100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>215700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>242200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>246900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>249200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>162000</v>
+        <v>159700</v>
       </c>
       <c r="E61" s="3">
-        <v>181100</v>
+        <v>161900</v>
       </c>
       <c r="F61" s="3">
-        <v>197800</v>
+        <v>181000</v>
       </c>
       <c r="G61" s="3">
-        <v>228600</v>
+        <v>197700</v>
       </c>
       <c r="H61" s="3">
-        <v>235100</v>
+        <v>228500</v>
       </c>
       <c r="I61" s="3">
-        <v>246800</v>
+        <v>235000</v>
       </c>
       <c r="J61" s="3">
+        <v>246700</v>
+      </c>
+      <c r="K61" s="3">
         <v>272500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>292500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>363000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>365600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>381000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>53400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>393700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>392400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>424600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>422800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>166900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>211700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>192500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>202900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>199100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>193500</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E62" s="3">
         <v>53000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>73200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>35600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>34300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>35400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>39300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>40600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>41500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>48700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>47400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>70300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>64400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>46100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>49500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>47700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>49700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>47500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>49100</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>638300</v>
+        <v>694600</v>
       </c>
       <c r="E66" s="3">
-        <v>629400</v>
+        <v>638000</v>
       </c>
       <c r="F66" s="3">
-        <v>521500</v>
+        <v>629100</v>
       </c>
       <c r="G66" s="3">
-        <v>478700</v>
+        <v>521200</v>
       </c>
       <c r="H66" s="3">
-        <v>467300</v>
+        <v>478400</v>
       </c>
       <c r="I66" s="3">
-        <v>465500</v>
+        <v>467100</v>
       </c>
       <c r="J66" s="3">
+        <v>465300</v>
+      </c>
+      <c r="K66" s="3">
         <v>498000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>511800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>584900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>610400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>662300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>676000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>685800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>675000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>774600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>760600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>469900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>485500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>459400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>498900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>498100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>496100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-101700</v>
+        <v>-92700</v>
       </c>
       <c r="E72" s="3">
+        <v>-101600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-119400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-69900</v>
       </c>
-      <c r="G72" s="3">
-        <v>-87000</v>
-      </c>
       <c r="H72" s="3">
+        <v>-86900</v>
+      </c>
+      <c r="I72" s="3">
         <v>-102000</v>
       </c>
-      <c r="I72" s="3">
-        <v>-96900</v>
-      </c>
       <c r="J72" s="3">
+        <v>-96800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-53800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-46600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-50400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-38800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-82400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-70000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-41200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>150500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>236600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>229400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>191500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>206600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>201700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>223100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>223500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>227500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>535200</v>
+        <v>523900</v>
       </c>
       <c r="E76" s="3">
-        <v>518100</v>
+        <v>534900</v>
       </c>
       <c r="F76" s="3">
-        <v>502700</v>
+        <v>517800</v>
       </c>
       <c r="G76" s="3">
-        <v>478800</v>
+        <v>502500</v>
       </c>
       <c r="H76" s="3">
-        <v>461700</v>
+        <v>478500</v>
       </c>
       <c r="I76" s="3">
-        <v>473500</v>
+        <v>461500</v>
       </c>
       <c r="J76" s="3">
+        <v>473300</v>
+      </c>
+      <c r="K76" s="3">
         <v>512300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>495300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>516500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>535100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>522000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>554200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>604100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>737000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>869800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>835500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>793500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>810000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>751500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>791500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>795900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>782100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E81" s="3">
         <v>18700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-49200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>17000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-43000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>41900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-28900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-184400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-63800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>40500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>7500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,79 +5615,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E83" s="3">
         <v>14200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>14800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>13000</v>
       </c>
       <c r="H83" s="3">
         <v>12900</v>
       </c>
       <c r="I83" s="3">
+        <v>12900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K83" s="3">
         <v>14200</v>
       </c>
-      <c r="J83" s="3">
-        <v>14200</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>15000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>17100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>18300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>19300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>20700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>22200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>15100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>12500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>16400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>18400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-23400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>120700</v>
       </c>
-      <c r="F89" s="3">
-        <v>51600</v>
-      </c>
       <c r="G89" s="3">
+        <v>51500</v>
+      </c>
+      <c r="H89" s="3">
         <v>-6500</v>
       </c>
-      <c r="H89" s="3">
-        <v>-9500</v>
-      </c>
       <c r="I89" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="J89" s="3">
         <v>31300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>17800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-14500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>20900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>38200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-16600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>13800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>39100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-14600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>21300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-21800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-55600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-22800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-21900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-19200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-13600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-17100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-7100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-22500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>33200</v>
       </c>
-      <c r="H94" s="3">
-        <v>-7000</v>
-      </c>
       <c r="I94" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="J94" s="3">
         <v>1100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>79300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-178700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-13400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-17200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-12400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-18900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6294,28 +6528,28 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-8200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-8700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-8300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-8100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-8000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-7600</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-7900</v>
       </c>
       <c r="X96" s="3">
         <v>-7900</v>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>-7900</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-7900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +6779,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-29500</v>
       </c>
-      <c r="E100" s="3">
-        <v>-22800</v>
-      </c>
       <c r="F100" s="3">
-        <v>-41400</v>
+        <v>-22700</v>
       </c>
       <c r="G100" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-57800</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="N100" s="3">
         <v>-5800</v>
       </c>
-      <c r="H100" s="3">
-        <v>-12800</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-27700</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-29900</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-57800</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-13200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-20600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-37100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>214700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-90600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-7900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-7600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-8000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-7100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>6300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>7100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-1700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>6600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>5100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-75500</v>
       </c>
-      <c r="E102" s="3">
-        <v>103600</v>
-      </c>
       <c r="F102" s="3">
+        <v>103500</v>
+      </c>
+      <c r="G102" s="3">
         <v>6200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>22300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-28600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-17100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-39300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-15200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>80900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-33300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>19400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-91900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>20600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-37500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-30600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>58500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAWLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>SAWLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,347 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>296600</v>
+        <v>163900</v>
       </c>
       <c r="E8" s="3">
-        <v>269800</v>
+        <v>355600</v>
       </c>
       <c r="F8" s="3">
-        <v>255800</v>
+        <v>264900</v>
       </c>
       <c r="G8" s="3">
-        <v>248000</v>
+        <v>251200</v>
       </c>
       <c r="H8" s="3">
-        <v>227300</v>
+        <v>170300</v>
       </c>
       <c r="I8" s="3">
-        <v>198300</v>
+        <v>292100</v>
       </c>
       <c r="J8" s="3">
+        <v>194700</v>
+      </c>
+      <c r="K8" s="3">
         <v>197200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>215900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>221200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>209700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>244600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>205200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>208800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>250400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>260500</v>
-      </c>
-      <c r="S8" s="3">
-        <v>326600</v>
       </c>
       <c r="T8" s="3">
         <v>326600</v>
       </c>
       <c r="U8" s="3">
+        <v>326600</v>
+      </c>
+      <c r="V8" s="3">
         <v>269100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>269500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>254800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>266000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>264100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>201900</v>
+        <v>110500</v>
       </c>
       <c r="E9" s="3">
-        <v>186100</v>
+        <v>241300</v>
       </c>
       <c r="F9" s="3">
-        <v>175600</v>
+        <v>182700</v>
       </c>
       <c r="G9" s="3">
-        <v>175900</v>
+        <v>172400</v>
       </c>
       <c r="H9" s="3">
-        <v>163600</v>
+        <v>117300</v>
       </c>
       <c r="I9" s="3">
-        <v>144300</v>
+        <v>207900</v>
       </c>
       <c r="J9" s="3">
+        <v>141700</v>
+      </c>
+      <c r="K9" s="3">
         <v>144900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>153700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>157800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>155100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>173100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>148200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>155600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>183500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>185000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>231600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>233400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>193500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>193600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>179600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>180200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>176100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>94700</v>
+        <v>53400</v>
       </c>
       <c r="E10" s="3">
-        <v>83700</v>
+        <v>114300</v>
       </c>
       <c r="F10" s="3">
-        <v>80200</v>
+        <v>82200</v>
       </c>
       <c r="G10" s="3">
-        <v>72200</v>
+        <v>78800</v>
       </c>
       <c r="H10" s="3">
-        <v>63700</v>
+        <v>53000</v>
       </c>
       <c r="I10" s="3">
-        <v>53900</v>
+        <v>84200</v>
       </c>
       <c r="J10" s="3">
+        <v>53000</v>
+      </c>
+      <c r="K10" s="3">
         <v>52300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>62100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>63400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>54600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>71400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>57000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>53200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>66900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>75500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>95000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>93100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>75600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>75900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>75200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>85800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>88000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1028,73 +1042,76 @@
         <v>1800</v>
       </c>
       <c r="E12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F12" s="3">
         <v>1800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1500</v>
       </c>
-      <c r="G12" s="3">
-        <v>1700</v>
-      </c>
       <c r="H12" s="3">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="I12" s="3">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="J12" s="3">
         <v>1500</v>
       </c>
       <c r="K12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L12" s="3">
         <v>1700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1800</v>
-      </c>
-      <c r="P12" s="3">
-        <v>2700</v>
       </c>
       <c r="Q12" s="3">
         <v>2700</v>
       </c>
       <c r="R12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S12" s="3">
         <v>1700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>2500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>2300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1167,156 +1184,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>7700</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I14" s="3">
+        <v>23700</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K14" s="3">
+        <v>36500</v>
+      </c>
+      <c r="L14" s="3">
+        <v>9400</v>
+      </c>
+      <c r="M14" s="3">
         <v>2800</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>7900</v>
-      </c>
-      <c r="G14" s="3">
-        <v>5800</v>
-      </c>
-      <c r="H14" s="3">
-        <v>18300</v>
-      </c>
-      <c r="I14" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J14" s="3">
-        <v>36500</v>
-      </c>
-      <c r="K14" s="3">
-        <v>9400</v>
-      </c>
-      <c r="L14" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>7800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>159800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>82400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>10000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2100</v>
-      </c>
-      <c r="W14" s="3">
-        <v>600</v>
       </c>
       <c r="X14" s="3">
         <v>600</v>
       </c>
       <c r="Y14" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z14" s="3">
         <v>400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>14800</v>
+        <v>7100</v>
       </c>
       <c r="E15" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>14000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>14600</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I15" s="3">
+        <v>14100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K15" s="3">
+        <v>14100</v>
+      </c>
+      <c r="L15" s="3">
         <v>14200</v>
       </c>
-      <c r="F15" s="3">
-        <v>14800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>12200</v>
-      </c>
-      <c r="H15" s="3">
-        <v>12900</v>
-      </c>
-      <c r="I15" s="3">
-        <v>12900</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>14100</v>
       </c>
-      <c r="K15" s="3">
-        <v>14200</v>
-      </c>
-      <c r="L15" s="3">
-        <v>14100</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>15000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>16700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>17100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>18300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>19300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>21300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>20700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>22200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>15900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>15100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>12500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>16400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>18400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>278300</v>
+        <v>145000</v>
       </c>
       <c r="E17" s="3">
-        <v>243400</v>
+        <v>316900</v>
       </c>
       <c r="F17" s="3">
-        <v>250200</v>
+        <v>239000</v>
       </c>
       <c r="G17" s="3">
-        <v>235400</v>
+        <v>245700</v>
       </c>
       <c r="H17" s="3">
-        <v>203500</v>
+        <v>147900</v>
       </c>
       <c r="I17" s="3">
-        <v>198700</v>
+        <v>242800</v>
       </c>
       <c r="J17" s="3">
+        <v>195100</v>
+      </c>
+      <c r="K17" s="3">
         <v>238100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>215200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>214900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>214000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>233000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>220300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>237500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>425000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>340100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>312900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>304200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>273200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>264500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>243000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>256400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>256300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>295400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>18300</v>
+        <v>18900</v>
       </c>
       <c r="E18" s="3">
-        <v>26400</v>
+        <v>38700</v>
       </c>
       <c r="F18" s="3">
-        <v>5600</v>
+        <v>25900</v>
       </c>
       <c r="G18" s="3">
-        <v>12600</v>
+        <v>5500</v>
       </c>
       <c r="H18" s="3">
-        <v>23800</v>
+        <v>22400</v>
       </c>
       <c r="I18" s="3">
+        <v>49300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-40800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>11600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-15100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-28700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-174500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-79600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>22300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>11800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>9600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>7800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1516,378 +1549,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
-        <v>-57900</v>
-      </c>
       <c r="G20" s="3">
-        <v>-4200</v>
+        <v>-56900</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>40900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
-      </c>
-      <c r="W20" s="3">
-        <v>800</v>
       </c>
       <c r="X20" s="3">
         <v>800</v>
       </c>
       <c r="Y20" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z20" s="3">
         <v>500</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>33700</v>
+        <v>11000</v>
       </c>
       <c r="E21" s="3">
-        <v>41400</v>
+        <v>67900</v>
       </c>
       <c r="F21" s="3">
-        <v>-37500</v>
+        <v>40700</v>
       </c>
       <c r="G21" s="3">
-        <v>20600</v>
+        <v>-36900</v>
       </c>
       <c r="H21" s="3">
-        <v>36900</v>
+        <v>34500</v>
       </c>
       <c r="I21" s="3">
-        <v>13000</v>
+        <v>74700</v>
       </c>
       <c r="J21" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-24200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>16200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>20500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>69200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-155000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-53800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>34700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>52400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>11900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>20400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>25100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>26800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>26700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>4600</v>
+        <v>4200</v>
       </c>
       <c r="E22" s="3">
-        <v>4600</v>
+        <v>7900</v>
       </c>
       <c r="F22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G22" s="3">
         <v>4000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N22" s="3">
+        <v>5300</v>
+      </c>
+      <c r="O22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="P22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="R22" s="3">
         <v>5000</v>
       </c>
-      <c r="H22" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>3800</v>
-      </c>
-      <c r="L22" s="3">
-        <v>4200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>5300</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="S22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="T22" s="3">
         <v>5500</v>
       </c>
-      <c r="O22" s="3">
-        <v>5100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>4100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>5000</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="U22" s="3">
         <v>4700</v>
       </c>
-      <c r="S22" s="3">
-        <v>5500</v>
-      </c>
-      <c r="T22" s="3">
-        <v>4700</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>14200</v>
+        <v>15000</v>
       </c>
       <c r="E23" s="3">
-        <v>22600</v>
+        <v>31500</v>
       </c>
       <c r="F23" s="3">
-        <v>-56400</v>
+        <v>22200</v>
       </c>
       <c r="G23" s="3">
-        <v>3400</v>
+        <v>-55400</v>
       </c>
       <c r="H23" s="3">
-        <v>19400</v>
+        <v>18000</v>
       </c>
       <c r="I23" s="3">
-        <v>-3600</v>
+        <v>42100</v>
       </c>
       <c r="J23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-41600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>46900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-14000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-32800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-179300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-79800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>25500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>10000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>7500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>4600</v>
+        <v>1800</v>
       </c>
       <c r="E24" s="3">
-        <v>3900</v>
+        <v>5800</v>
       </c>
       <c r="F24" s="3">
-        <v>-6900</v>
+        <v>3800</v>
       </c>
       <c r="G24" s="3">
-        <v>-13600</v>
+        <v>-6800</v>
       </c>
       <c r="H24" s="3">
-        <v>4600</v>
+        <v>-3200</v>
       </c>
       <c r="I24" s="3">
-        <v>1700</v>
+        <v>5300</v>
       </c>
       <c r="J24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K24" s="3">
         <v>2100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-15900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-14900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>9600</v>
+        <v>13200</v>
       </c>
       <c r="E26" s="3">
-        <v>18700</v>
+        <v>25700</v>
       </c>
       <c r="F26" s="3">
-        <v>-49500</v>
+        <v>18300</v>
       </c>
       <c r="G26" s="3">
-        <v>17000</v>
+        <v>-48600</v>
       </c>
       <c r="H26" s="3">
-        <v>14800</v>
+        <v>21200</v>
       </c>
       <c r="I26" s="3">
-        <v>-5300</v>
+        <v>36800</v>
       </c>
       <c r="J26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-43700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>41900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-14100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-28900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-184500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-64000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>40400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>9700</v>
+        <v>13200</v>
       </c>
       <c r="E27" s="3">
-        <v>18700</v>
+        <v>25700</v>
       </c>
       <c r="F27" s="3">
-        <v>-49200</v>
+        <v>18300</v>
       </c>
       <c r="G27" s="3">
-        <v>17000</v>
+        <v>-48300</v>
       </c>
       <c r="H27" s="3">
-        <v>15100</v>
+        <v>21200</v>
       </c>
       <c r="I27" s="3">
-        <v>-5100</v>
+        <v>37200</v>
       </c>
       <c r="J27" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-43000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>41900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-14000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-28900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-184400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-63800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>40500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>5500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2182,31 +2240,34 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>39100</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>2100</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-4500</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-27500</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2235,17 +2296,17 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>24</v>
@@ -2253,11 +2314,14 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2471,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
-        <v>57900</v>
-      </c>
       <c r="G32" s="3">
-        <v>4200</v>
+        <v>56900</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-40900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-800</v>
       </c>
       <c r="X32" s="3">
         <v>-800</v>
       </c>
       <c r="Y32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-500</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>27800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>18300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-48300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>16700</v>
+      </c>
+      <c r="I33" s="3">
         <v>9700</v>
       </c>
-      <c r="E33" s="3">
-        <v>18700</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-49200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>17000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>15100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-5100</v>
-      </c>
       <c r="J33" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-43000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>41900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-14000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-28900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-184400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-63800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>40500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>7500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>5500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>27800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>18300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-48300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>16700</v>
+      </c>
+      <c r="I35" s="3">
         <v>9700</v>
       </c>
-      <c r="E35" s="3">
-        <v>18700</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-49200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>17000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>15100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-5100</v>
-      </c>
       <c r="J35" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-43000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>41900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-14000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-28900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-184400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-63800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>40500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>7500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>5500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,82 +2921,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>92200</v>
+        <v>71200</v>
       </c>
       <c r="E41" s="3">
-        <v>119900</v>
+        <v>90500</v>
       </c>
       <c r="F41" s="3">
-        <v>195400</v>
+        <v>117800</v>
       </c>
       <c r="G41" s="3">
-        <v>91900</v>
+        <v>191900</v>
       </c>
       <c r="H41" s="3">
-        <v>85800</v>
+        <v>90300</v>
       </c>
       <c r="I41" s="3">
-        <v>63500</v>
+        <v>84200</v>
       </c>
       <c r="J41" s="3">
+        <v>62400</v>
+      </c>
+      <c r="K41" s="3">
         <v>92100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>86600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>101200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>145900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>161100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>81900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>81400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>67800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>76600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>68200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>97100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>75400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>165400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>138300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>182000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>187000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2966,13 +3056,13 @@
         <v>0</v>
       </c>
       <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>4000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1600</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>24</v>
@@ -2980,529 +3070,553 @@
       <c r="Y42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>260400</v>
+        <v>133400</v>
       </c>
       <c r="E43" s="3">
-        <v>239500</v>
+        <v>255700</v>
       </c>
       <c r="F43" s="3">
-        <v>203800</v>
+        <v>235200</v>
       </c>
       <c r="G43" s="3">
-        <v>193500</v>
+        <v>200100</v>
       </c>
       <c r="H43" s="3">
-        <v>203800</v>
+        <v>190100</v>
       </c>
       <c r="I43" s="3">
-        <v>183300</v>
+        <v>200100</v>
       </c>
       <c r="J43" s="3">
+        <v>180000</v>
+      </c>
+      <c r="K43" s="3">
         <v>174500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>202800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>193000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>191900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>199500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>208400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>215500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>256200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>251500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>321500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>296400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>249400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>230500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>234100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>232400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>242500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>212700</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>179900</v>
+        <v>99000</v>
       </c>
       <c r="E44" s="3">
-        <v>154500</v>
+        <v>176700</v>
       </c>
       <c r="F44" s="3">
-        <v>134700</v>
+        <v>151700</v>
       </c>
       <c r="G44" s="3">
-        <v>121200</v>
+        <v>132300</v>
       </c>
       <c r="H44" s="3">
-        <v>122500</v>
+        <v>119100</v>
       </c>
       <c r="I44" s="3">
-        <v>107100</v>
+        <v>120300</v>
       </c>
       <c r="J44" s="3">
+        <v>105100</v>
+      </c>
+      <c r="K44" s="3">
         <v>90900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>95500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>91000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>98400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>94900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>131600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>137000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>138300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>125400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>140200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>143600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>111000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>104300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>100400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>104300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>95500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>86600</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>27400</v>
+        <v>462600</v>
       </c>
       <c r="E45" s="3">
-        <v>31200</v>
+        <v>26900</v>
       </c>
       <c r="F45" s="3">
-        <v>14100</v>
+        <v>30600</v>
       </c>
       <c r="G45" s="3">
-        <v>43200</v>
+        <v>13900</v>
       </c>
       <c r="H45" s="3">
-        <v>8600</v>
+        <v>42400</v>
       </c>
       <c r="I45" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="J45" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K45" s="3">
         <v>7000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>15100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>14300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>20100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>9800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>17700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>21500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>18100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>21500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>559800</v>
+        <v>766200</v>
       </c>
       <c r="E46" s="3">
-        <v>545100</v>
+        <v>549700</v>
       </c>
       <c r="F46" s="3">
-        <v>548100</v>
+        <v>535300</v>
       </c>
       <c r="G46" s="3">
-        <v>450000</v>
+        <v>538200</v>
       </c>
       <c r="H46" s="3">
-        <v>420700</v>
+        <v>441900</v>
       </c>
       <c r="I46" s="3">
-        <v>362000</v>
+        <v>413100</v>
       </c>
       <c r="J46" s="3">
+        <v>355500</v>
+      </c>
+      <c r="K46" s="3">
         <v>364400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>395900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>392100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>445700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>465300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>437000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>444800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>476600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>467300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>549900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>547000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>449600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>519400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>494200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>536800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>546500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>533700</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>24</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>2900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>11200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>8300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>22700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>23400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>23200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>24600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>24500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>308000</v>
+        <v>166100</v>
       </c>
       <c r="E48" s="3">
-        <v>274800</v>
+        <v>302400</v>
       </c>
       <c r="F48" s="3">
-        <v>257200</v>
+        <v>269800</v>
       </c>
       <c r="G48" s="3">
-        <v>253300</v>
+        <v>252600</v>
       </c>
       <c r="H48" s="3">
-        <v>236300</v>
+        <v>248700</v>
       </c>
       <c r="I48" s="3">
-        <v>264400</v>
+        <v>232100</v>
       </c>
       <c r="J48" s="3">
+        <v>259600</v>
+      </c>
+      <c r="K48" s="3">
         <v>267700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>284400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>287500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>308500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>321100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>352200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>381900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>395600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>393200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>431600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>413800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>379200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>337100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>309600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>317500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>314700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>286100</v>
+        <v>239700</v>
       </c>
       <c r="E49" s="3">
-        <v>291700</v>
+        <v>281000</v>
       </c>
       <c r="F49" s="3">
+        <v>286400</v>
+      </c>
+      <c r="G49" s="3">
+        <v>282000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>280000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>276700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>277900</v>
+      </c>
+      <c r="K49" s="3">
         <v>287200</v>
       </c>
-      <c r="G49" s="3">
-        <v>285100</v>
-      </c>
-      <c r="H49" s="3">
-        <v>281800</v>
-      </c>
-      <c r="I49" s="3">
-        <v>283000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>287200</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>306300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>302600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>318700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>324200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>354900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>368600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>380700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>506200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>625000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>600500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>378300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>385000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>354200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>380100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>378700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,82 +3766,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>64700</v>
+        <v>40300</v>
       </c>
       <c r="E52" s="3">
-        <v>61300</v>
+        <v>63500</v>
       </c>
       <c r="F52" s="3">
-        <v>54400</v>
+        <v>60200</v>
       </c>
       <c r="G52" s="3">
-        <v>35300</v>
+        <v>53400</v>
       </c>
       <c r="H52" s="3">
-        <v>18200</v>
+        <v>34700</v>
       </c>
       <c r="I52" s="3">
+        <v>17900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K52" s="3">
         <v>19200</v>
       </c>
-      <c r="J52" s="3">
-        <v>19200</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>20700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>21200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>24700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>26200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>29000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>29700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>31300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>33400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>29500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>27000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>33600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>30600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>29800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>31500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>29700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1218600</v>
+        <v>1212200</v>
       </c>
       <c r="E54" s="3">
-        <v>1172900</v>
+        <v>1196600</v>
       </c>
       <c r="F54" s="3">
-        <v>1146900</v>
+        <v>1151700</v>
       </c>
       <c r="G54" s="3">
-        <v>1023600</v>
+        <v>1126200</v>
       </c>
       <c r="H54" s="3">
-        <v>957000</v>
+        <v>1005200</v>
       </c>
       <c r="I54" s="3">
-        <v>928500</v>
+        <v>939700</v>
       </c>
       <c r="J54" s="3">
+        <v>911800</v>
+      </c>
+      <c r="K54" s="3">
         <v>938600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1010300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1007100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1101400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1145500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1184300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1230200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1289900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1412000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1644300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1596100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1263400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1295500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1210900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1290500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1294000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1278200</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,452 +4057,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>211100</v>
+        <v>123700</v>
       </c>
       <c r="E57" s="3">
-        <v>185300</v>
+        <v>207300</v>
       </c>
       <c r="F57" s="3">
-        <v>73800</v>
+        <v>182000</v>
       </c>
       <c r="G57" s="3">
-        <v>170600</v>
+        <v>72500</v>
       </c>
       <c r="H57" s="3">
-        <v>150900</v>
+        <v>167600</v>
       </c>
       <c r="I57" s="3">
-        <v>147100</v>
+        <v>148200</v>
       </c>
       <c r="J57" s="3">
+        <v>144500</v>
+      </c>
+      <c r="K57" s="3">
         <v>136700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>129900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>123500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>123700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>133000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>151300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>142000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>149500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>138400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>186900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>176300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>174700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>157400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>146000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>165000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>160400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>151300</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20600</v>
+        <v>7400</v>
       </c>
       <c r="E58" s="3">
-        <v>22300</v>
+        <v>20300</v>
       </c>
       <c r="F58" s="3">
-        <v>19100</v>
+        <v>21900</v>
       </c>
       <c r="G58" s="3">
-        <v>15000</v>
+        <v>18800</v>
       </c>
       <c r="H58" s="3">
-        <v>10600</v>
+        <v>14800</v>
       </c>
       <c r="I58" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="J58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K58" s="3">
         <v>9900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>13700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>14000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>15500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>358600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>17600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>16700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>15800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>15500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>14200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>253200</v>
+        <v>314300</v>
       </c>
       <c r="E59" s="3">
-        <v>215200</v>
+        <v>248700</v>
       </c>
       <c r="F59" s="3">
-        <v>281800</v>
+        <v>211300</v>
       </c>
       <c r="G59" s="3">
-        <v>100400</v>
+        <v>276700</v>
       </c>
       <c r="H59" s="3">
-        <v>62600</v>
+        <v>98600</v>
       </c>
       <c r="I59" s="3">
-        <v>48200</v>
+        <v>61500</v>
       </c>
       <c r="J59" s="3">
+        <v>47400</v>
+      </c>
+      <c r="K59" s="3">
         <v>45900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>47100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>45500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>46400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>55500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>70700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>77100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>72400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>76500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>73000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>77400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>64100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>61800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>69600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>76700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>85900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>485000</v>
+        <v>445500</v>
       </c>
       <c r="E60" s="3">
-        <v>422800</v>
+        <v>476300</v>
       </c>
       <c r="F60" s="3">
-        <v>374700</v>
+        <v>415200</v>
       </c>
       <c r="G60" s="3">
-        <v>286100</v>
+        <v>368000</v>
       </c>
       <c r="H60" s="3">
-        <v>224100</v>
+        <v>280900</v>
       </c>
       <c r="I60" s="3">
-        <v>205600</v>
+        <v>220100</v>
       </c>
       <c r="J60" s="3">
+        <v>201900</v>
+      </c>
+      <c r="K60" s="3">
         <v>192500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>188400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>181200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>183900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>202400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>237500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>577700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>239600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>231600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>275700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>269200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>252900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>220100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>215700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>242200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>246900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>249200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>159700</v>
+        <v>162100</v>
       </c>
       <c r="E61" s="3">
-        <v>161900</v>
+        <v>156800</v>
       </c>
       <c r="F61" s="3">
-        <v>181000</v>
+        <v>159000</v>
       </c>
       <c r="G61" s="3">
-        <v>197700</v>
+        <v>177700</v>
       </c>
       <c r="H61" s="3">
-        <v>228500</v>
+        <v>194200</v>
       </c>
       <c r="I61" s="3">
-        <v>235000</v>
+        <v>224300</v>
       </c>
       <c r="J61" s="3">
+        <v>230700</v>
+      </c>
+      <c r="K61" s="3">
         <v>246700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>272500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>292500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>363000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>365600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>381000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>53400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>393700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>392400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>424600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>422800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>166900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>211700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>192500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>202900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>199100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>193500</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>50400</v>
+        <v>41000</v>
       </c>
       <c r="E62" s="3">
-        <v>53000</v>
+        <v>49500</v>
       </c>
       <c r="F62" s="3">
-        <v>73200</v>
+        <v>52000</v>
       </c>
       <c r="G62" s="3">
-        <v>35600</v>
+        <v>71900</v>
       </c>
       <c r="H62" s="3">
-        <v>24200</v>
+        <v>35000</v>
       </c>
       <c r="I62" s="3">
-        <v>24500</v>
+        <v>23800</v>
       </c>
       <c r="J62" s="3">
         <v>24000</v>
       </c>
       <c r="K62" s="3">
+        <v>24000</v>
+      </c>
+      <c r="L62" s="3">
         <v>34300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>35500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>35400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>39300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>40600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>41500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>48700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>47400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>70300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>64400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>46100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>49500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>47700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>49700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>47500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>49100</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>694600</v>
+        <v>648200</v>
       </c>
       <c r="E66" s="3">
-        <v>638000</v>
+        <v>682100</v>
       </c>
       <c r="F66" s="3">
-        <v>629100</v>
+        <v>626500</v>
       </c>
       <c r="G66" s="3">
-        <v>521200</v>
+        <v>617700</v>
       </c>
       <c r="H66" s="3">
-        <v>478400</v>
+        <v>511800</v>
       </c>
       <c r="I66" s="3">
-        <v>467100</v>
+        <v>469800</v>
       </c>
       <c r="J66" s="3">
+        <v>458700</v>
+      </c>
+      <c r="K66" s="3">
         <v>465300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>498000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>511800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>584900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>610400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>662300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>676000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>685800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>675000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>774600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>760600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>469900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>485500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>459400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>498900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>498100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>496100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5162,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-92700</v>
+        <v>-42200</v>
       </c>
       <c r="E72" s="3">
-        <v>-101600</v>
+        <v>-91000</v>
       </c>
       <c r="F72" s="3">
-        <v>-119400</v>
+        <v>-99800</v>
       </c>
       <c r="G72" s="3">
-        <v>-69900</v>
+        <v>-117200</v>
       </c>
       <c r="H72" s="3">
-        <v>-86900</v>
+        <v>-68600</v>
       </c>
       <c r="I72" s="3">
-        <v>-102000</v>
+        <v>-85300</v>
       </c>
       <c r="J72" s="3">
+        <v>-100100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-96800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-53800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-46600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-50400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-38800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-82400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-70000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-41200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>150500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>236600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>229400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>191500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>206600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>201700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>223100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>223500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>227500</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>523900</v>
+        <v>564000</v>
       </c>
       <c r="E76" s="3">
-        <v>534900</v>
+        <v>514500</v>
       </c>
       <c r="F76" s="3">
-        <v>517800</v>
+        <v>525200</v>
       </c>
       <c r="G76" s="3">
-        <v>502500</v>
+        <v>508500</v>
       </c>
       <c r="H76" s="3">
-        <v>478500</v>
+        <v>493400</v>
       </c>
       <c r="I76" s="3">
-        <v>461500</v>
+        <v>469900</v>
       </c>
       <c r="J76" s="3">
+        <v>453100</v>
+      </c>
+      <c r="K76" s="3">
         <v>473300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>512300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>495300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>516500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>535100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>522000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>554200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>604100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>737000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>869800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>835500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>793500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>810000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>751500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>791500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>795900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>782100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>27800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>18300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-48300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>16700</v>
+      </c>
+      <c r="I81" s="3">
         <v>9700</v>
       </c>
-      <c r="E81" s="3">
-        <v>18700</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-49200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>17000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>15100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-5100</v>
-      </c>
       <c r="J81" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-43000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>41900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-14000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-28900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-184400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-63800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>40500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>7500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>5500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,82 +5814,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14800</v>
+        <v>-8200</v>
       </c>
       <c r="E83" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F83" s="3">
+        <v>14000</v>
+      </c>
+      <c r="G83" s="3">
+        <v>14600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>25400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K83" s="3">
+        <v>14100</v>
+      </c>
+      <c r="L83" s="3">
         <v>14200</v>
       </c>
-      <c r="F83" s="3">
-        <v>14800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>12200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>12900</v>
-      </c>
-      <c r="I83" s="3">
-        <v>12900</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>14100</v>
       </c>
-      <c r="K83" s="3">
-        <v>14200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>14100</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>15000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>16700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>17100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>18300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>19300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>20700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>22200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>15900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>15100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>12500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>16400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>18400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>22600</v>
+        <v>17700</v>
       </c>
       <c r="E89" s="3">
-        <v>-23400</v>
+        <v>-800</v>
       </c>
       <c r="F89" s="3">
-        <v>120700</v>
+        <v>-23000</v>
       </c>
       <c r="G89" s="3">
-        <v>51500</v>
+        <v>118500</v>
       </c>
       <c r="H89" s="3">
-        <v>-6500</v>
+        <v>50600</v>
       </c>
       <c r="I89" s="3">
-        <v>-9400</v>
+        <v>-15600</v>
       </c>
       <c r="J89" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="K89" s="3">
         <v>31300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>17800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-14500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>20900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>38200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-16600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>13800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>39100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-14600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>21300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-21800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6382,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-55600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-22800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-21900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-19200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-13600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-17100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-7100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6611,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-35700</v>
+        <v>-19400</v>
       </c>
       <c r="E94" s="3">
-        <v>-22500</v>
+        <v>-57100</v>
       </c>
       <c r="F94" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
-        <v>-11100</v>
-      </c>
       <c r="H94" s="3">
-        <v>33200</v>
+        <v>-10900</v>
       </c>
       <c r="I94" s="3">
-        <v>-6900</v>
+        <v>25800</v>
       </c>
       <c r="J94" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K94" s="3">
         <v>1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>79300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-178700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-13400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-17200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-12400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-18900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-6500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6531,28 +6765,28 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-8300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-8200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-8700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-8300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-8100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-8000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-7600</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-7900</v>
       </c>
       <c r="Y96" s="3">
         <v>-7900</v>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>-7900</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-7900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,226 +7025,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-12800</v>
+        <v>-19000</v>
       </c>
       <c r="E100" s="3">
-        <v>-29500</v>
+        <v>-41500</v>
       </c>
       <c r="F100" s="3">
-        <v>-22700</v>
+        <v>-29000</v>
       </c>
       <c r="G100" s="3">
-        <v>-41300</v>
+        <v>-22300</v>
       </c>
       <c r="H100" s="3">
-        <v>-5700</v>
+        <v>-40600</v>
       </c>
       <c r="I100" s="3">
-        <v>-12800</v>
+        <v>-18200</v>
       </c>
       <c r="J100" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-27700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-29900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-57800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-13200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-20600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-37100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>214700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-90600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-7900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-7600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-7100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>6300</v>
-      </c>
       <c r="G101" s="3">
-        <v>7100</v>
+        <v>6200</v>
       </c>
       <c r="H101" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>600</v>
+      </c>
+      <c r="K101" s="3">
+        <v>900</v>
+      </c>
+      <c r="L101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M101" s="3">
+        <v>800</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="R101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="S101" s="3">
+        <v>500</v>
+      </c>
+      <c r="T101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="W101" s="3">
+        <v>6600</v>
+      </c>
+      <c r="X101" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="Y101" s="3">
         <v>1300</v>
       </c>
-      <c r="I101" s="3">
-        <v>600</v>
-      </c>
-      <c r="J101" s="3">
-        <v>900</v>
-      </c>
-      <c r="K101" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L101" s="3">
-        <v>800</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>4000</v>
-      </c>
-      <c r="R101" s="3">
-        <v>500</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="V101" s="3">
-        <v>6600</v>
-      </c>
-      <c r="W101" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="X101" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>5100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-27700</v>
+        <v>-19300</v>
       </c>
       <c r="E102" s="3">
-        <v>-75500</v>
+        <v>-101400</v>
       </c>
       <c r="F102" s="3">
-        <v>103500</v>
+        <v>-74100</v>
       </c>
       <c r="G102" s="3">
-        <v>6200</v>
+        <v>101600</v>
       </c>
       <c r="H102" s="3">
-        <v>22300</v>
+        <v>6100</v>
       </c>
       <c r="I102" s="3">
-        <v>-28600</v>
+        <v>-6300</v>
       </c>
       <c r="J102" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="K102" s="3">
         <v>5600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-17100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-39300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-15200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>80900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-33300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>19400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-91900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>20600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-37500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-30600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>58500</v>
       </c>
     </row>
